--- a/5/9/Índice de stress local 2018 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2018 - Diaria.xlsx
@@ -1143,13 +1143,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2724</v>
+        <v>0.2172</v>
       </c>
       <c r="C2">
-        <v>0.0964</v>
+        <v>0.09429999999999999</v>
       </c>
       <c r="D2">
-        <v>0.176</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1157,13 +1157,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2685</v>
+        <v>0.2131</v>
       </c>
       <c r="C3">
-        <v>0.09569999999999999</v>
+        <v>0.0934</v>
       </c>
       <c r="D3">
-        <v>0.1728</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1171,13 +1171,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2645</v>
+        <v>0.2088</v>
       </c>
       <c r="C4">
-        <v>0.0948</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="D4">
-        <v>0.1696</v>
+        <v>0.1165</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1185,13 +1185,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2603</v>
+        <v>0.2043</v>
       </c>
       <c r="C5">
-        <v>0.0935</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="D5">
-        <v>0.1668</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1199,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2562</v>
+        <v>0.1999</v>
       </c>
       <c r="C6">
-        <v>0.0922</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D6">
-        <v>0.164</v>
+        <v>0.1106</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1213,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2522</v>
+        <v>0.1956</v>
       </c>
       <c r="C7">
-        <v>0.09089999999999999</v>
+        <v>0.0878</v>
       </c>
       <c r="D7">
-        <v>0.1613</v>
+        <v>0.1078</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2478</v>
+        <v>0.1911</v>
       </c>
       <c r="C8">
-        <v>0.0895</v>
+        <v>0.0862</v>
       </c>
       <c r="D8">
-        <v>0.1583</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1241,13 +1241,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2442</v>
+        <v>0.1872</v>
       </c>
       <c r="C9">
-        <v>0.0881</v>
+        <v>0.0847</v>
       </c>
       <c r="D9">
-        <v>0.1561</v>
+        <v>0.1025</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1255,13 +1255,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2401</v>
+        <v>0.1829</v>
       </c>
       <c r="C10">
-        <v>0.0863</v>
+        <v>0.0827</v>
       </c>
       <c r="D10">
-        <v>0.1538</v>
+        <v>0.1002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1269,13 +1269,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2355</v>
+        <v>0.1781</v>
       </c>
       <c r="C11">
-        <v>0.08400000000000001</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="D11">
-        <v>0.1515</v>
+        <v>0.0978</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1283,13 +1283,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2306</v>
+        <v>0.1729</v>
       </c>
       <c r="C12">
-        <v>0.0813</v>
+        <v>0.0774</v>
       </c>
       <c r="D12">
-        <v>0.1492</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1297,13 +1297,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2263</v>
+        <v>0.1685</v>
       </c>
       <c r="C13">
-        <v>0.0793</v>
+        <v>0.0752</v>
       </c>
       <c r="D13">
-        <v>0.147</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1311,13 +1311,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2202</v>
+        <v>0.1622</v>
       </c>
       <c r="C14">
-        <v>0.0756</v>
+        <v>0.0713</v>
       </c>
       <c r="D14">
-        <v>0.1446</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1325,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2149</v>
+        <v>0.1569</v>
       </c>
       <c r="C15">
-        <v>0.07240000000000001</v>
+        <v>0.0679</v>
       </c>
       <c r="D15">
-        <v>0.1425</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1339,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2103</v>
+        <v>0.1521</v>
       </c>
       <c r="C16">
-        <v>0.06950000000000001</v>
+        <v>0.0649</v>
       </c>
       <c r="D16">
-        <v>0.1407</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1353,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2063</v>
+        <v>0.1481</v>
       </c>
       <c r="C17">
-        <v>0.067</v>
+        <v>0.0623</v>
       </c>
       <c r="D17">
-        <v>0.1394</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1367,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2036</v>
+        <v>0.1452</v>
       </c>
       <c r="C18">
-        <v>0.065</v>
+        <v>0.0602</v>
       </c>
       <c r="D18">
-        <v>0.1386</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1381,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.2012</v>
+        <v>0.1426</v>
       </c>
       <c r="C19">
-        <v>0.0629</v>
+        <v>0.0581</v>
       </c>
       <c r="D19">
-        <v>0.1383</v>
+        <v>0.08450000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1395,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>0.1412</v>
       </c>
       <c r="C20">
-        <v>0.0616</v>
+        <v>0.0567</v>
       </c>
       <c r="D20">
-        <v>0.1384</v>
+        <v>0.0844</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1409,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.199</v>
+        <v>0.1398</v>
       </c>
       <c r="C21">
-        <v>0.0596</v>
+        <v>0.0548</v>
       </c>
       <c r="D21">
-        <v>0.1394</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1423,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.1994</v>
+        <v>0.1398</v>
       </c>
       <c r="C22">
-        <v>0.0587</v>
+        <v>0.054</v>
       </c>
       <c r="D22">
-        <v>0.1407</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1437,13 +1437,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2</v>
+        <v>0.1401</v>
       </c>
       <c r="C23">
-        <v>0.058</v>
+        <v>0.0533</v>
       </c>
       <c r="D23">
-        <v>0.1421</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1451,13 +1451,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2008</v>
+        <v>0.1405</v>
       </c>
       <c r="C24">
-        <v>0.0572</v>
+        <v>0.0525</v>
       </c>
       <c r="D24">
-        <v>0.1436</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1465,13 +1465,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2025</v>
+        <v>0.1419</v>
       </c>
       <c r="C25">
-        <v>0.0569</v>
+        <v>0.0524</v>
       </c>
       <c r="D25">
-        <v>0.1455</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1479,13 +1479,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2036</v>
+        <v>0.1426</v>
       </c>
       <c r="C26">
-        <v>0.0562</v>
+        <v>0.0517</v>
       </c>
       <c r="D26">
-        <v>0.1475</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1493,13 +1493,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2054</v>
+        <v>0.144</v>
       </c>
       <c r="C27">
-        <v>0.0556</v>
+        <v>0.0512</v>
       </c>
       <c r="D27">
-        <v>0.1498</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1507,13 +1507,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2073</v>
+        <v>0.1454</v>
       </c>
       <c r="C28">
-        <v>0.0551</v>
+        <v>0.0508</v>
       </c>
       <c r="D28">
-        <v>0.1522</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1521,13 +1521,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2094</v>
+        <v>0.1473</v>
       </c>
       <c r="C29">
-        <v>0.0552</v>
+        <v>0.051</v>
       </c>
       <c r="D29">
-        <v>0.1541</v>
+        <v>0.09619999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1535,13 +1535,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2121</v>
+        <v>0.1497</v>
       </c>
       <c r="C30">
-        <v>0.0558</v>
+        <v>0.0517</v>
       </c>
       <c r="D30">
-        <v>0.1563</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1549,13 +1549,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2145</v>
+        <v>0.1518</v>
       </c>
       <c r="C31">
-        <v>0.0559</v>
+        <v>0.0519</v>
       </c>
       <c r="D31">
-        <v>0.1586</v>
+        <v>0.0999</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1563,13 +1563,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.2174</v>
+        <v>0.1545</v>
       </c>
       <c r="C32">
-        <v>0.0566</v>
+        <v>0.0527</v>
       </c>
       <c r="D32">
-        <v>0.1608</v>
+        <v>0.1018</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1577,13 +1577,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2196</v>
+        <v>0.1565</v>
       </c>
       <c r="C33">
-        <v>0.057</v>
+        <v>0.0531</v>
       </c>
       <c r="D33">
-        <v>0.1627</v>
+        <v>0.1034</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1591,13 +1591,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.2218</v>
+        <v>0.1585</v>
       </c>
       <c r="C34">
-        <v>0.0574</v>
+        <v>0.0536</v>
       </c>
       <c r="D34">
-        <v>0.1644</v>
+        <v>0.1049</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1605,13 +1605,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.2231</v>
+        <v>0.1598</v>
       </c>
       <c r="C35">
-        <v>0.0574</v>
+        <v>0.0537</v>
       </c>
       <c r="D35">
-        <v>0.1657</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1619,13 +1619,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2239</v>
+        <v>0.1607</v>
       </c>
       <c r="C36">
-        <v>0.0573</v>
+        <v>0.0537</v>
       </c>
       <c r="D36">
-        <v>0.1666</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1633,13 +1633,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2245</v>
+        <v>0.1613</v>
       </c>
       <c r="C37">
-        <v>0.0571</v>
+        <v>0.0535</v>
       </c>
       <c r="D37">
-        <v>0.1674</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1647,13 +1647,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.2241</v>
+        <v>0.1609</v>
       </c>
       <c r="C38">
-        <v>0.0563</v>
+        <v>0.0528</v>
       </c>
       <c r="D38">
-        <v>0.1678</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1661,13 +1661,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2234</v>
+        <v>0.1604</v>
       </c>
       <c r="C39">
-        <v>0.0557</v>
+        <v>0.0522</v>
       </c>
       <c r="D39">
-        <v>0.1678</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1675,13 +1675,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2225</v>
+        <v>0.1596</v>
       </c>
       <c r="C40">
-        <v>0.0548</v>
+        <v>0.0513</v>
       </c>
       <c r="D40">
-        <v>0.1677</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1689,13 +1689,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2211</v>
+        <v>0.1586</v>
       </c>
       <c r="C41">
-        <v>0.0542</v>
+        <v>0.0507</v>
       </c>
       <c r="D41">
-        <v>0.1669</v>
+        <v>0.1079</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1703,13 +1703,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2193</v>
+        <v>0.1571</v>
       </c>
       <c r="C42">
-        <v>0.0533</v>
+        <v>0.0499</v>
       </c>
       <c r="D42">
-        <v>0.1659</v>
+        <v>0.1072</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1717,13 +1717,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2169</v>
+        <v>0.155</v>
       </c>
       <c r="C43">
-        <v>0.0521</v>
+        <v>0.0486</v>
       </c>
       <c r="D43">
-        <v>0.1648</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1731,13 +1731,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2145</v>
+        <v>0.153</v>
       </c>
       <c r="C44">
-        <v>0.051</v>
+        <v>0.0475</v>
       </c>
       <c r="D44">
-        <v>0.1635</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1745,13 +1745,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2113</v>
+        <v>0.1503</v>
       </c>
       <c r="C45">
-        <v>0.0496</v>
+        <v>0.0462</v>
       </c>
       <c r="D45">
-        <v>0.1616</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1759,13 +1759,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2085</v>
+        <v>0.148</v>
       </c>
       <c r="C46">
-        <v>0.0486</v>
+        <v>0.0451</v>
       </c>
       <c r="D46">
-        <v>0.1599</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1773,13 +1773,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2053</v>
+        <v>0.1453</v>
       </c>
       <c r="C47">
-        <v>0.0474</v>
+        <v>0.0439</v>
       </c>
       <c r="D47">
-        <v>0.1579</v>
+        <v>0.1014</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1787,13 +1787,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2026</v>
+        <v>0.1432</v>
       </c>
       <c r="C48">
-        <v>0.0466</v>
+        <v>0.0431</v>
       </c>
       <c r="D48">
-        <v>0.156</v>
+        <v>0.1001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1801,13 +1801,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.1994</v>
+        <v>0.1406</v>
       </c>
       <c r="C49">
-        <v>0.0454</v>
+        <v>0.0418</v>
       </c>
       <c r="D49">
-        <v>0.154</v>
+        <v>0.0987</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1815,13 +1815,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.1965</v>
+        <v>0.1382</v>
       </c>
       <c r="C50">
-        <v>0.0443</v>
+        <v>0.0407</v>
       </c>
       <c r="D50">
-        <v>0.1521</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1829,13 +1829,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.1938</v>
+        <v>0.1362</v>
       </c>
       <c r="C51">
-        <v>0.0435</v>
+        <v>0.0399</v>
       </c>
       <c r="D51">
-        <v>0.1503</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1843,13 +1843,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.191</v>
+        <v>0.134</v>
       </c>
       <c r="C52">
-        <v>0.0426</v>
+        <v>0.0389</v>
       </c>
       <c r="D52">
-        <v>0.1484</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1857,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.1884</v>
+        <v>0.1321</v>
       </c>
       <c r="C53">
-        <v>0.0418</v>
+        <v>0.0381</v>
       </c>
       <c r="D53">
-        <v>0.1466</v>
+        <v>0.0939</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1871,13 +1871,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.1862</v>
+        <v>0.1305</v>
       </c>
       <c r="C54">
-        <v>0.0412</v>
+        <v>0.0376</v>
       </c>
       <c r="D54">
-        <v>0.145</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1885,13 +1885,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.1842</v>
+        <v>0.1292</v>
       </c>
       <c r="C55">
-        <v>0.0408</v>
+        <v>0.0371</v>
       </c>
       <c r="D55">
-        <v>0.1434</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1899,13 +1899,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.1827</v>
+        <v>0.1283</v>
       </c>
       <c r="C56">
-        <v>0.0406</v>
+        <v>0.0369</v>
       </c>
       <c r="D56">
-        <v>0.1421</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1913,13 +1913,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.1813</v>
+        <v>0.1276</v>
       </c>
       <c r="C57">
-        <v>0.0404</v>
+        <v>0.0368</v>
       </c>
       <c r="D57">
-        <v>0.1409</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1927,13 +1927,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.1807</v>
+        <v>0.1277</v>
       </c>
       <c r="C58">
-        <v>0.0409</v>
+        <v>0.0372</v>
       </c>
       <c r="D58">
-        <v>0.1399</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1941,13 +1941,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.1807</v>
+        <v>0.1283</v>
       </c>
       <c r="C59">
-        <v>0.0417</v>
+        <v>0.0381</v>
       </c>
       <c r="D59">
-        <v>0.139</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1955,13 +1955,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.1803</v>
+        <v>0.1286</v>
       </c>
       <c r="C60">
-        <v>0.0423</v>
+        <v>0.0387</v>
       </c>
       <c r="D60">
-        <v>0.138</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1969,13 +1969,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.1801</v>
+        <v>0.1291</v>
       </c>
       <c r="C61">
-        <v>0.0431</v>
+        <v>0.0395</v>
       </c>
       <c r="D61">
-        <v>0.137</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1983,13 +1983,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.1801</v>
+        <v>0.1298</v>
       </c>
       <c r="C62">
-        <v>0.044</v>
+        <v>0.0404</v>
       </c>
       <c r="D62">
-        <v>0.1361</v>
+        <v>0.08939999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1997,13 +1997,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.1804</v>
+        <v>0.1307</v>
       </c>
       <c r="C63">
-        <v>0.0451</v>
+        <v>0.0414</v>
       </c>
       <c r="D63">
-        <v>0.1353</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2011,13 +2011,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.181</v>
+        <v>0.132</v>
       </c>
       <c r="C64">
-        <v>0.0463</v>
+        <v>0.0426</v>
       </c>
       <c r="D64">
-        <v>0.1347</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2025,13 +2025,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.1812</v>
+        <v>0.1327</v>
       </c>
       <c r="C65">
-        <v>0.047</v>
+        <v>0.0434</v>
       </c>
       <c r="D65">
-        <v>0.1341</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2039,13 +2039,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.181</v>
+        <v>0.1331</v>
       </c>
       <c r="C66">
-        <v>0.0477</v>
+        <v>0.044</v>
       </c>
       <c r="D66">
-        <v>0.1333</v>
+        <v>0.0891</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.1812</v>
+        <v>0.1338</v>
       </c>
       <c r="C67">
-        <v>0.0485</v>
+        <v>0.0449</v>
       </c>
       <c r="D67">
-        <v>0.1326</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2067,13 +2067,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.1808</v>
+        <v>0.1339</v>
       </c>
       <c r="C68">
-        <v>0.0489</v>
+        <v>0.0453</v>
       </c>
       <c r="D68">
-        <v>0.1319</v>
+        <v>0.0886</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2081,13 +2081,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.1806</v>
+        <v>0.134</v>
       </c>
       <c r="C69">
-        <v>0.0493</v>
+        <v>0.0456</v>
       </c>
       <c r="D69">
-        <v>0.1313</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2095,13 +2095,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.1801</v>
+        <v>0.1337</v>
       </c>
       <c r="C70">
-        <v>0.0495</v>
+        <v>0.0458</v>
       </c>
       <c r="D70">
-        <v>0.1306</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2109,13 +2109,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.1797</v>
+        <v>0.1335</v>
       </c>
       <c r="C71">
-        <v>0.0497</v>
+        <v>0.046</v>
       </c>
       <c r="D71">
-        <v>0.13</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2123,13 +2123,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.1799</v>
+        <v>0.1337</v>
       </c>
       <c r="C72">
-        <v>0.0501</v>
+        <v>0.0464</v>
       </c>
       <c r="D72">
-        <v>0.1298</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2137,13 +2137,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.1803</v>
+        <v>0.134</v>
       </c>
       <c r="C73">
-        <v>0.0506</v>
+        <v>0.0468</v>
       </c>
       <c r="D73">
-        <v>0.1297</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2151,13 +2151,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.1807</v>
+        <v>0.1342</v>
       </c>
       <c r="C74">
-        <v>0.0509</v>
+        <v>0.0471</v>
       </c>
       <c r="D74">
-        <v>0.1298</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2165,13 +2165,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.1813</v>
+        <v>0.1346</v>
       </c>
       <c r="C75">
-        <v>0.0513</v>
+        <v>0.0475</v>
       </c>
       <c r="D75">
-        <v>0.13</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.1815</v>
+        <v>0.1345</v>
       </c>
       <c r="C76">
-        <v>0.0514</v>
+        <v>0.0476</v>
       </c>
       <c r="D76">
-        <v>0.1301</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2193,13 +2193,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.1821</v>
+        <v>0.1347</v>
       </c>
       <c r="C77">
-        <v>0.0519</v>
+        <v>0.048</v>
       </c>
       <c r="D77">
-        <v>0.1302</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2207,13 +2207,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.1822</v>
+        <v>0.1343</v>
       </c>
       <c r="C78">
-        <v>0.0519</v>
+        <v>0.048</v>
       </c>
       <c r="D78">
-        <v>0.1303</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2221,13 +2221,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1822</v>
+        <v>0.1338</v>
       </c>
       <c r="C79">
-        <v>0.0518</v>
+        <v>0.0478</v>
       </c>
       <c r="D79">
-        <v>0.1304</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2235,13 +2235,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.1835</v>
+        <v>0.1345</v>
       </c>
       <c r="C80">
-        <v>0.0526</v>
+        <v>0.0486</v>
       </c>
       <c r="D80">
-        <v>0.1308</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2249,13 +2249,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1849</v>
+        <v>0.1353</v>
       </c>
       <c r="C81">
-        <v>0.0533</v>
+        <v>0.0493</v>
       </c>
       <c r="D81">
-        <v>0.1316</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2263,13 +2263,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1878</v>
+        <v>0.1372</v>
       </c>
       <c r="C82">
-        <v>0.0546</v>
+        <v>0.0506</v>
       </c>
       <c r="D82">
-        <v>0.1332</v>
+        <v>0.0866</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2277,13 +2277,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.1906</v>
+        <v>0.139</v>
       </c>
       <c r="C83">
-        <v>0.0557</v>
+        <v>0.0517</v>
       </c>
       <c r="D83">
-        <v>0.1348</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2291,13 +2291,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1937</v>
+        <v>0.1412</v>
       </c>
       <c r="C84">
-        <v>0.0572</v>
+        <v>0.0531</v>
       </c>
       <c r="D84">
-        <v>0.1366</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2305,13 +2305,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.1978</v>
+        <v>0.1443</v>
       </c>
       <c r="C85">
-        <v>0.0593</v>
+        <v>0.0553</v>
       </c>
       <c r="D85">
-        <v>0.1385</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2319,13 +2319,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.2029</v>
+        <v>0.1483</v>
       </c>
       <c r="C86">
-        <v>0.0621</v>
+        <v>0.0581</v>
       </c>
       <c r="D86">
-        <v>0.1408</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2333,13 +2333,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.2074</v>
+        <v>0.1518</v>
       </c>
       <c r="C87">
-        <v>0.0644</v>
+        <v>0.0604</v>
       </c>
       <c r="D87">
-        <v>0.1431</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2347,13 +2347,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.212</v>
+        <v>0.1552</v>
       </c>
       <c r="C88">
-        <v>0.0665</v>
+        <v>0.0625</v>
       </c>
       <c r="D88">
-        <v>0.1456</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2361,13 +2361,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.2172</v>
+        <v>0.1593</v>
       </c>
       <c r="C89">
-        <v>0.06909999999999999</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D89">
-        <v>0.1481</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2375,13 +2375,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.2227</v>
+        <v>0.1637</v>
       </c>
       <c r="C90">
-        <v>0.07190000000000001</v>
+        <v>0.068</v>
       </c>
       <c r="D90">
-        <v>0.1508</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2389,13 +2389,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.2282</v>
+        <v>0.1681</v>
       </c>
       <c r="C91">
-        <v>0.0746</v>
+        <v>0.0708</v>
       </c>
       <c r="D91">
-        <v>0.1536</v>
+        <v>0.0973</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2403,13 +2403,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.2339</v>
+        <v>0.1728</v>
       </c>
       <c r="C92">
-        <v>0.0775</v>
+        <v>0.0738</v>
       </c>
       <c r="D92">
-        <v>0.1564</v>
+        <v>0.09909999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2417,13 +2417,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.2395</v>
+        <v>0.1773</v>
       </c>
       <c r="C93">
-        <v>0.08019999999999999</v>
+        <v>0.0765</v>
       </c>
       <c r="D93">
-        <v>0.1593</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2431,13 +2431,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.2451</v>
+        <v>0.182</v>
       </c>
       <c r="C94">
-        <v>0.0829</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="D94">
-        <v>0.1623</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2445,13 +2445,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.2513</v>
+        <v>0.1871</v>
       </c>
       <c r="C95">
-        <v>0.0856</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="D95">
-        <v>0.1657</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2459,13 +2459,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.2575</v>
+        <v>0.1923</v>
       </c>
       <c r="C96">
-        <v>0.08840000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D96">
-        <v>0.1691</v>
+        <v>0.1073</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2473,13 +2473,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.2637</v>
+        <v>0.1974</v>
       </c>
       <c r="C97">
-        <v>0.09089999999999999</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D97">
-        <v>0.1728</v>
+        <v>0.1098</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2487,13 +2487,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2707</v>
+        <v>0.2032</v>
       </c>
       <c r="C98">
-        <v>0.0936</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="D98">
-        <v>0.1771</v>
+        <v>0.1128</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2501,13 +2501,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2786</v>
+        <v>0.2101</v>
       </c>
       <c r="C99">
-        <v>0.09719999999999999</v>
+        <v>0.0941</v>
       </c>
       <c r="D99">
-        <v>0.1814</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2515,13 +2515,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2854</v>
+        <v>0.2159</v>
       </c>
       <c r="C100">
-        <v>0.0997</v>
+        <v>0.0968</v>
       </c>
       <c r="D100">
-        <v>0.1857</v>
+        <v>0.1191</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2529,13 +2529,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.292</v>
+        <v>0.2216</v>
       </c>
       <c r="C101">
-        <v>0.1022</v>
+        <v>0.0994</v>
       </c>
       <c r="D101">
-        <v>0.1898</v>
+        <v>0.1221</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2543,13 +2543,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2972</v>
+        <v>0.226</v>
       </c>
       <c r="C102">
-        <v>0.104</v>
+        <v>0.1014</v>
       </c>
       <c r="D102">
-        <v>0.1932</v>
+        <v>0.1247</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2557,13 +2557,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3025</v>
+        <v>0.2308</v>
       </c>
       <c r="C103">
-        <v>0.1059</v>
+        <v>0.1035</v>
       </c>
       <c r="D103">
-        <v>0.1966</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2571,13 +2571,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.3077</v>
+        <v>0.2355</v>
       </c>
       <c r="C104">
-        <v>0.1079</v>
+        <v>0.1056</v>
       </c>
       <c r="D104">
-        <v>0.1998</v>
+        <v>0.1299</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2585,13 +2585,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3121</v>
+        <v>0.2394</v>
       </c>
       <c r="C105">
-        <v>0.1091</v>
+        <v>0.1069</v>
       </c>
       <c r="D105">
-        <v>0.203</v>
+        <v>0.1325</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2599,13 +2599,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3156</v>
+        <v>0.2425</v>
       </c>
       <c r="C106">
-        <v>0.1095</v>
+        <v>0.1074</v>
       </c>
       <c r="D106">
-        <v>0.206</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2613,13 +2613,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3188</v>
+        <v>0.2455</v>
       </c>
       <c r="C107">
-        <v>0.11</v>
+        <v>0.108</v>
       </c>
       <c r="D107">
-        <v>0.2088</v>
+        <v>0.1375</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2627,13 +2627,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3216</v>
+        <v>0.2483</v>
       </c>
       <c r="C108">
-        <v>0.1103</v>
+        <v>0.1084</v>
       </c>
       <c r="D108">
-        <v>0.2113</v>
+        <v>0.1399</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2641,13 +2641,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3238</v>
+        <v>0.2505</v>
       </c>
       <c r="C109">
-        <v>0.11</v>
+        <v>0.1082</v>
       </c>
       <c r="D109">
-        <v>0.2138</v>
+        <v>0.1423</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2655,13 +2655,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3257</v>
+        <v>0.2524</v>
       </c>
       <c r="C110">
-        <v>0.1094</v>
+        <v>0.1078</v>
       </c>
       <c r="D110">
-        <v>0.2162</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2669,13 +2669,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3272</v>
+        <v>0.2542</v>
       </c>
       <c r="C111">
-        <v>0.1087</v>
+        <v>0.1071</v>
       </c>
       <c r="D111">
-        <v>0.2185</v>
+        <v>0.1471</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2683,13 +2683,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3289</v>
+        <v>0.2562</v>
       </c>
       <c r="C112">
-        <v>0.1082</v>
+        <v>0.1067</v>
       </c>
       <c r="D112">
-        <v>0.2208</v>
+        <v>0.1495</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2697,13 +2697,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3305</v>
+        <v>0.2581</v>
       </c>
       <c r="C113">
-        <v>0.1077</v>
+        <v>0.1063</v>
       </c>
       <c r="D113">
-        <v>0.2227</v>
+        <v>0.1518</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2711,13 +2711,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3324</v>
+        <v>0.2606</v>
       </c>
       <c r="C114">
-        <v>0.1076</v>
+        <v>0.1063</v>
       </c>
       <c r="D114">
-        <v>0.2248</v>
+        <v>0.1543</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2725,13 +2725,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3343</v>
+        <v>0.2631</v>
       </c>
       <c r="C115">
-        <v>0.1077</v>
+        <v>0.1065</v>
       </c>
       <c r="D115">
-        <v>0.2266</v>
+        <v>0.1566</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2739,13 +2739,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3369</v>
+        <v>0.2664</v>
       </c>
       <c r="C116">
-        <v>0.1083</v>
+        <v>0.1072</v>
       </c>
       <c r="D116">
-        <v>0.2286</v>
+        <v>0.1592</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2753,13 +2753,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3394</v>
+        <v>0.2697</v>
       </c>
       <c r="C117">
-        <v>0.109</v>
+        <v>0.1081</v>
       </c>
       <c r="D117">
-        <v>0.2304</v>
+        <v>0.1616</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2767,13 +2767,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3414</v>
+        <v>0.2726</v>
       </c>
       <c r="C118">
-        <v>0.1095</v>
+        <v>0.1088</v>
       </c>
       <c r="D118">
-        <v>0.2319</v>
+        <v>0.1639</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2781,13 +2781,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3424</v>
+        <v>0.2746</v>
       </c>
       <c r="C119">
-        <v>0.1092</v>
+        <v>0.1085</v>
       </c>
       <c r="D119">
-        <v>0.2332</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2795,13 +2795,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3435</v>
+        <v>0.2767</v>
       </c>
       <c r="C120">
-        <v>0.1089</v>
+        <v>0.1084</v>
       </c>
       <c r="D120">
-        <v>0.2346</v>
+        <v>0.1683</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2809,13 +2809,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3448</v>
+        <v>0.279</v>
       </c>
       <c r="C121">
-        <v>0.1089</v>
+        <v>0.1084</v>
       </c>
       <c r="D121">
-        <v>0.236</v>
+        <v>0.1706</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2823,13 +2823,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3466</v>
+        <v>0.2818</v>
       </c>
       <c r="C122">
-        <v>0.1091</v>
+        <v>0.1088</v>
       </c>
       <c r="D122">
-        <v>0.2375</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2837,13 +2837,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3484</v>
+        <v>0.2845</v>
       </c>
       <c r="C123">
-        <v>0.1092</v>
+        <v>0.109</v>
       </c>
       <c r="D123">
-        <v>0.2392</v>
+        <v>0.1755</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2851,13 +2851,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3499</v>
+        <v>0.2868</v>
       </c>
       <c r="C124">
-        <v>0.109</v>
+        <v>0.1089</v>
       </c>
       <c r="D124">
-        <v>0.241</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2865,13 +2865,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3523</v>
+        <v>0.2899</v>
       </c>
       <c r="C125">
         <v>0.1094</v>
       </c>
       <c r="D125">
-        <v>0.243</v>
+        <v>0.1806</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2879,13 +2879,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3557</v>
+        <v>0.2938</v>
       </c>
       <c r="C126">
-        <v>0.1104</v>
+        <v>0.1105</v>
       </c>
       <c r="D126">
-        <v>0.2453</v>
+        <v>0.1833</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2893,13 +2893,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3592</v>
+        <v>0.2978</v>
       </c>
       <c r="C127">
-        <v>0.1113</v>
+        <v>0.1116</v>
       </c>
       <c r="D127">
-        <v>0.2479</v>
+        <v>0.1862</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2907,13 +2907,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3634</v>
+        <v>0.3022</v>
       </c>
       <c r="C128">
-        <v>0.1126</v>
+        <v>0.113</v>
       </c>
       <c r="D128">
-        <v>0.2508</v>
+        <v>0.1892</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2921,13 +2921,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3681</v>
+        <v>0.3071</v>
       </c>
       <c r="C129">
-        <v>0.1143</v>
+        <v>0.1149</v>
       </c>
       <c r="D129">
-        <v>0.2539</v>
+        <v>0.1923</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2935,13 +2935,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.373</v>
+        <v>0.3122</v>
       </c>
       <c r="C130">
-        <v>0.116</v>
+        <v>0.1168</v>
       </c>
       <c r="D130">
-        <v>0.257</v>
+        <v>0.1954</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2949,13 +2949,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3779</v>
+        <v>0.3172</v>
       </c>
       <c r="C131">
-        <v>0.1177</v>
+        <v>0.1187</v>
       </c>
       <c r="D131">
-        <v>0.2601</v>
+        <v>0.1985</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2963,13 +2963,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3826</v>
+        <v>0.3218</v>
       </c>
       <c r="C132">
-        <v>0.1191</v>
+        <v>0.1201</v>
       </c>
       <c r="D132">
-        <v>0.2635</v>
+        <v>0.2017</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2977,13 +2977,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3877</v>
+        <v>0.327</v>
       </c>
       <c r="C133">
-        <v>0.1208</v>
+        <v>0.122</v>
       </c>
       <c r="D133">
-        <v>0.267</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2991,13 +2991,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3927</v>
+        <v>0.3319</v>
       </c>
       <c r="C134">
-        <v>0.1223</v>
+        <v>0.1236</v>
       </c>
       <c r="D134">
-        <v>0.2704</v>
+        <v>0.2083</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3005,13 +3005,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3984</v>
+        <v>0.3373</v>
       </c>
       <c r="C135">
-        <v>0.1237</v>
+        <v>0.1252</v>
       </c>
       <c r="D135">
-        <v>0.2746</v>
+        <v>0.2121</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3019,13 +3019,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.4042</v>
+        <v>0.3427</v>
       </c>
       <c r="C136">
-        <v>0.1247</v>
+        <v>0.1263</v>
       </c>
       <c r="D136">
-        <v>0.2795</v>
+        <v>0.2164</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3033,13 +3033,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.4106</v>
+        <v>0.3486</v>
       </c>
       <c r="C137">
-        <v>0.1258</v>
+        <v>0.1275</v>
       </c>
       <c r="D137">
-        <v>0.2848</v>
+        <v>0.2211</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3047,13 +3047,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.417</v>
+        <v>0.3544</v>
       </c>
       <c r="C138">
-        <v>0.1266</v>
+        <v>0.1285</v>
       </c>
       <c r="D138">
-        <v>0.2904</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3061,13 +3061,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4239</v>
+        <v>0.3607</v>
       </c>
       <c r="C139">
-        <v>0.1281</v>
+        <v>0.1301</v>
       </c>
       <c r="D139">
-        <v>0.2958</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3075,13 +3075,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4306</v>
+        <v>0.367</v>
       </c>
       <c r="C140">
-        <v>0.1298</v>
+        <v>0.1319</v>
       </c>
       <c r="D140">
-        <v>0.3008</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3089,13 +3089,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4368</v>
+        <v>0.3729</v>
       </c>
       <c r="C141">
-        <v>0.1313</v>
+        <v>0.1336</v>
       </c>
       <c r="D141">
-        <v>0.3055</v>
+        <v>0.2392</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3103,13 +3103,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.4432</v>
+        <v>0.3789</v>
       </c>
       <c r="C142">
-        <v>0.1331</v>
+        <v>0.1356</v>
       </c>
       <c r="D142">
-        <v>0.3101</v>
+        <v>0.2433</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3117,13 +3117,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.449</v>
+        <v>0.3846</v>
       </c>
       <c r="C143">
-        <v>0.1348</v>
+        <v>0.1374</v>
       </c>
       <c r="D143">
-        <v>0.3142</v>
+        <v>0.2472</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3131,13 +3131,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.4547</v>
+        <v>0.3905</v>
       </c>
       <c r="C144">
-        <v>0.1366</v>
+        <v>0.1394</v>
       </c>
       <c r="D144">
-        <v>0.3181</v>
+        <v>0.2511</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3145,13 +3145,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.4594</v>
+        <v>0.3957</v>
       </c>
       <c r="C145">
-        <v>0.1379</v>
+        <v>0.1408</v>
       </c>
       <c r="D145">
-        <v>0.3215</v>
+        <v>0.2549</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3159,13 +3159,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.463</v>
+        <v>0.4002</v>
       </c>
       <c r="C146">
-        <v>0.1386</v>
+        <v>0.1416</v>
       </c>
       <c r="D146">
-        <v>0.3245</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3173,13 +3173,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.4665</v>
+        <v>0.4048</v>
       </c>
       <c r="C147">
-        <v>0.1395</v>
+        <v>0.1427</v>
       </c>
       <c r="D147">
-        <v>0.3269</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3187,13 +3187,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.4693</v>
+        <v>0.4091</v>
       </c>
       <c r="C148">
-        <v>0.1404</v>
+        <v>0.1437</v>
       </c>
       <c r="D148">
-        <v>0.3289</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3201,13 +3201,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.4717</v>
+        <v>0.4131</v>
       </c>
       <c r="C149">
-        <v>0.1411</v>
+        <v>0.1446</v>
       </c>
       <c r="D149">
-        <v>0.3306</v>
+        <v>0.2685</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3215,13 +3215,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.4735</v>
+        <v>0.4167</v>
       </c>
       <c r="C150">
-        <v>0.1418</v>
+        <v>0.1454</v>
       </c>
       <c r="D150">
-        <v>0.3317</v>
+        <v>0.2713</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3229,13 +3229,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.4749</v>
+        <v>0.4201</v>
       </c>
       <c r="C151">
-        <v>0.1425</v>
+        <v>0.1463</v>
       </c>
       <c r="D151">
-        <v>0.3323</v>
+        <v>0.2738</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3243,13 +3243,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.4756</v>
+        <v>0.423</v>
       </c>
       <c r="C152">
-        <v>0.1432</v>
+        <v>0.1471</v>
       </c>
       <c r="D152">
-        <v>0.3324</v>
+        <v>0.2759</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3257,13 +3257,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.4756</v>
+        <v>0.4252</v>
       </c>
       <c r="C153">
-        <v>0.1435</v>
+        <v>0.1475</v>
       </c>
       <c r="D153">
-        <v>0.332</v>
+        <v>0.2777</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3271,13 +3271,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.4751</v>
+        <v>0.4271</v>
       </c>
       <c r="C154">
-        <v>0.1439</v>
+        <v>0.148</v>
       </c>
       <c r="D154">
-        <v>0.3312</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3285,13 +3285,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.4733</v>
+        <v>0.4279</v>
       </c>
       <c r="C155">
-        <v>0.1443</v>
+        <v>0.1485</v>
       </c>
       <c r="D155">
-        <v>0.3291</v>
+        <v>0.2795</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3299,13 +3299,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.4708</v>
+        <v>0.4283</v>
       </c>
       <c r="C156">
-        <v>0.1449</v>
+        <v>0.1492</v>
       </c>
       <c r="D156">
-        <v>0.3259</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3313,13 +3313,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.4675</v>
+        <v>0.428</v>
       </c>
       <c r="C157">
-        <v>0.1455</v>
+        <v>0.1499</v>
       </c>
       <c r="D157">
-        <v>0.322</v>
+        <v>0.2781</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3327,13 +3327,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.4636</v>
+        <v>0.4273</v>
       </c>
       <c r="C158">
-        <v>0.1462</v>
+        <v>0.1507</v>
       </c>
       <c r="D158">
-        <v>0.3174</v>
+        <v>0.2766</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3341,13 +3341,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.4591</v>
+        <v>0.4259</v>
       </c>
       <c r="C159">
-        <v>0.1464</v>
+        <v>0.151</v>
       </c>
       <c r="D159">
-        <v>0.3127</v>
+        <v>0.2749</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3355,13 +3355,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.4547</v>
+        <v>0.4244</v>
       </c>
       <c r="C160">
-        <v>0.1465</v>
+        <v>0.1512</v>
       </c>
       <c r="D160">
-        <v>0.3081</v>
+        <v>0.2732</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3369,13 +3369,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.4504</v>
+        <v>0.423</v>
       </c>
       <c r="C161">
-        <v>0.1469</v>
+        <v>0.1516</v>
       </c>
       <c r="D161">
-        <v>0.3035</v>
+        <v>0.2714</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3383,13 +3383,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.4451</v>
+        <v>0.4205</v>
       </c>
       <c r="C162">
-        <v>0.1464</v>
+        <v>0.1511</v>
       </c>
       <c r="D162">
-        <v>0.2987</v>
+        <v>0.2694</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3397,13 +3397,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.4413</v>
+        <v>0.4194</v>
       </c>
       <c r="C163">
-        <v>0.1471</v>
+        <v>0.1519</v>
       </c>
       <c r="D163">
-        <v>0.2942</v>
+        <v>0.2675</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3411,13 +3411,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.4374</v>
+        <v>0.418</v>
       </c>
       <c r="C164">
-        <v>0.1477</v>
+        <v>0.1526</v>
       </c>
       <c r="D164">
-        <v>0.2897</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3425,13 +3425,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.4342</v>
+        <v>0.417</v>
       </c>
       <c r="C165">
-        <v>0.1486</v>
+        <v>0.1537</v>
       </c>
       <c r="D165">
-        <v>0.2855</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3439,13 +3439,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.4312</v>
+        <v>0.4159</v>
       </c>
       <c r="C166">
-        <v>0.1497</v>
+        <v>0.1548</v>
       </c>
       <c r="D166">
-        <v>0.2815</v>
+        <v>0.2611</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3453,13 +3453,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.4294</v>
+        <v>0.4156</v>
       </c>
       <c r="C167">
-        <v>0.1514</v>
+        <v>0.1566</v>
       </c>
       <c r="D167">
-        <v>0.278</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3467,13 +3467,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.4288</v>
+        <v>0.4164</v>
       </c>
       <c r="C168">
-        <v>0.1541</v>
+        <v>0.1595</v>
       </c>
       <c r="D168">
-        <v>0.2747</v>
+        <v>0.2569</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3481,13 +3481,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.4278</v>
+        <v>0.4165</v>
       </c>
       <c r="C169">
-        <v>0.1563</v>
+        <v>0.1618</v>
       </c>
       <c r="D169">
-        <v>0.2714</v>
+        <v>0.2547</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3495,13 +3495,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.4267</v>
+        <v>0.4163</v>
       </c>
       <c r="C170">
-        <v>0.1582</v>
+        <v>0.1638</v>
       </c>
       <c r="D170">
-        <v>0.2685</v>
+        <v>0.2525</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3509,13 +3509,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.4256</v>
+        <v>0.4159</v>
       </c>
       <c r="C171">
-        <v>0.1599</v>
+        <v>0.1656</v>
       </c>
       <c r="D171">
-        <v>0.2657</v>
+        <v>0.2503</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3523,13 +3523,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.4252</v>
+        <v>0.4159</v>
       </c>
       <c r="C172">
-        <v>0.1618</v>
+        <v>0.1675</v>
       </c>
       <c r="D172">
-        <v>0.2635</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3537,13 +3537,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.425</v>
+        <v>0.416</v>
       </c>
       <c r="C173">
-        <v>0.1635</v>
+        <v>0.1693</v>
       </c>
       <c r="D173">
-        <v>0.2615</v>
+        <v>0.2467</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3551,13 +3551,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.4242</v>
+        <v>0.4153</v>
       </c>
       <c r="C174">
-        <v>0.1646</v>
+        <v>0.1705</v>
       </c>
       <c r="D174">
-        <v>0.2596</v>
+        <v>0.2448</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3565,13 +3565,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.4235</v>
+        <v>0.4146</v>
       </c>
       <c r="C175">
-        <v>0.1657</v>
+        <v>0.1715</v>
       </c>
       <c r="D175">
-        <v>0.2578</v>
+        <v>0.2431</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3579,13 +3579,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.4228</v>
+        <v>0.4138</v>
       </c>
       <c r="C176">
-        <v>0.1667</v>
+        <v>0.1726</v>
       </c>
       <c r="D176">
-        <v>0.2561</v>
+        <v>0.2413</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3593,13 +3593,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.4223</v>
+        <v>0.4133</v>
       </c>
       <c r="C177">
-        <v>0.1679</v>
+        <v>0.1738</v>
       </c>
       <c r="D177">
-        <v>0.2544</v>
+        <v>0.2395</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3607,13 +3607,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.4229</v>
+        <v>0.4137</v>
       </c>
       <c r="C178">
-        <v>0.1694</v>
+        <v>0.1754</v>
       </c>
       <c r="D178">
-        <v>0.2535</v>
+        <v>0.2383</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3621,13 +3621,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.4242</v>
+        <v>0.4145</v>
       </c>
       <c r="C179">
-        <v>0.171</v>
+        <v>0.177</v>
       </c>
       <c r="D179">
-        <v>0.2532</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3635,13 +3635,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.4274</v>
+        <v>0.4174</v>
       </c>
       <c r="C180">
-        <v>0.1741</v>
+        <v>0.1803</v>
       </c>
       <c r="D180">
-        <v>0.2533</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3649,13 +3649,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.4301</v>
+        <v>0.4196</v>
       </c>
       <c r="C181">
-        <v>0.1767</v>
+        <v>0.1829</v>
       </c>
       <c r="D181">
-        <v>0.2534</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3663,13 +3663,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.4332</v>
+        <v>0.4223</v>
       </c>
       <c r="C182">
-        <v>0.1797</v>
+        <v>0.1861</v>
       </c>
       <c r="D182">
-        <v>0.2536</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3677,13 +3677,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.4355</v>
+        <v>0.424</v>
       </c>
       <c r="C183">
-        <v>0.1816</v>
+        <v>0.1881</v>
       </c>
       <c r="D183">
-        <v>0.2538</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3691,13 +3691,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.4375</v>
+        <v>0.4256</v>
       </c>
       <c r="C184">
-        <v>0.1836</v>
+        <v>0.1901</v>
       </c>
       <c r="D184">
-        <v>0.254</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3705,13 +3705,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.4388</v>
+        <v>0.4265</v>
       </c>
       <c r="C185">
-        <v>0.1848</v>
+        <v>0.1914</v>
       </c>
       <c r="D185">
-        <v>0.2539</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3719,13 +3719,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.4399</v>
+        <v>0.4274</v>
       </c>
       <c r="C186">
-        <v>0.1862</v>
+        <v>0.1928</v>
       </c>
       <c r="D186">
-        <v>0.2537</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3733,13 +3733,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.4399</v>
+        <v>0.4275</v>
       </c>
       <c r="C187">
-        <v>0.1869</v>
+        <v>0.1936</v>
       </c>
       <c r="D187">
-        <v>0.253</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3747,13 +3747,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.4386</v>
+        <v>0.4262</v>
       </c>
       <c r="C188">
-        <v>0.1865</v>
+        <v>0.1931</v>
       </c>
       <c r="D188">
-        <v>0.2522</v>
+        <v>0.2331</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3761,13 +3761,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.4379</v>
+        <v>0.4255</v>
       </c>
       <c r="C189">
-        <v>0.1863</v>
+        <v>0.1929</v>
       </c>
       <c r="D189">
-        <v>0.2516</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3775,13 +3775,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.4394</v>
+        <v>0.4271</v>
       </c>
       <c r="C190">
-        <v>0.188</v>
+        <v>0.1946</v>
       </c>
       <c r="D190">
-        <v>0.2514</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3789,13 +3789,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.441</v>
+        <v>0.4287</v>
       </c>
       <c r="C191">
-        <v>0.1896</v>
+        <v>0.1963</v>
       </c>
       <c r="D191">
-        <v>0.2514</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3803,13 +3803,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.4418</v>
+        <v>0.4298</v>
       </c>
       <c r="C192">
-        <v>0.1909</v>
+        <v>0.1977</v>
       </c>
       <c r="D192">
-        <v>0.2509</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3817,13 +3817,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.4429</v>
+        <v>0.4312</v>
       </c>
       <c r="C193">
-        <v>0.1927</v>
+        <v>0.1996</v>
       </c>
       <c r="D193">
-        <v>0.2502</v>
+        <v>0.2315</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3831,13 +3831,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4454</v>
+        <v>0.4341</v>
       </c>
       <c r="C194">
-        <v>0.1958</v>
+        <v>0.2029</v>
       </c>
       <c r="D194">
-        <v>0.2496</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3845,13 +3845,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.4476</v>
+        <v>0.4367</v>
       </c>
       <c r="C195">
-        <v>0.1985</v>
+        <v>0.2057</v>
       </c>
       <c r="D195">
-        <v>0.2491</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3859,13 +3859,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4497</v>
+        <v>0.4391</v>
       </c>
       <c r="C196">
-        <v>0.201</v>
+        <v>0.2084</v>
       </c>
       <c r="D196">
-        <v>0.2487</v>
+        <v>0.2307</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3873,13 +3873,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4524</v>
+        <v>0.4419</v>
       </c>
       <c r="C197">
-        <v>0.2036</v>
+        <v>0.2111</v>
       </c>
       <c r="D197">
-        <v>0.2488</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3887,13 +3887,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.4546</v>
+        <v>0.4443</v>
       </c>
       <c r="C198">
-        <v>0.2058</v>
+        <v>0.2135</v>
       </c>
       <c r="D198">
-        <v>0.2487</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3901,13 +3901,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4564</v>
+        <v>0.4463</v>
       </c>
       <c r="C199">
-        <v>0.2078</v>
+        <v>0.2155</v>
       </c>
       <c r="D199">
-        <v>0.2486</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3915,13 +3915,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.456</v>
+        <v>0.4461</v>
       </c>
       <c r="C200">
-        <v>0.2079</v>
+        <v>0.2157</v>
       </c>
       <c r="D200">
-        <v>0.248</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3929,13 +3929,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4559</v>
+        <v>0.4461</v>
       </c>
       <c r="C201">
-        <v>0.2083</v>
+        <v>0.216</v>
       </c>
       <c r="D201">
-        <v>0.2476</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3943,13 +3943,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4556</v>
+        <v>0.4459</v>
       </c>
       <c r="C202">
-        <v>0.2084</v>
+        <v>0.2162</v>
       </c>
       <c r="D202">
-        <v>0.2471</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3957,13 +3957,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4553</v>
+        <v>0.4457</v>
       </c>
       <c r="C203">
-        <v>0.2087</v>
+        <v>0.2164</v>
       </c>
       <c r="D203">
-        <v>0.2466</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3971,13 +3971,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4549</v>
+        <v>0.4452</v>
       </c>
       <c r="C204">
-        <v>0.2087</v>
+        <v>0.2164</v>
       </c>
       <c r="D204">
-        <v>0.2462</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3985,13 +3985,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4554</v>
+        <v>0.4453</v>
       </c>
       <c r="C205">
-        <v>0.2094</v>
+        <v>0.2171</v>
       </c>
       <c r="D205">
-        <v>0.246</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3999,13 +3999,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4558</v>
+        <v>0.445</v>
       </c>
       <c r="C206">
-        <v>0.2096</v>
+        <v>0.2173</v>
       </c>
       <c r="D206">
-        <v>0.2462</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4013,13 +4013,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4566</v>
+        <v>0.4448</v>
       </c>
       <c r="C207">
-        <v>0.21</v>
+        <v>0.2177</v>
       </c>
       <c r="D207">
-        <v>0.2466</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4027,13 +4027,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4573</v>
+        <v>0.4443</v>
       </c>
       <c r="C208">
-        <v>0.21</v>
+        <v>0.2176</v>
       </c>
       <c r="D208">
-        <v>0.2473</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4041,13 +4041,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4598</v>
+        <v>0.4457</v>
       </c>
       <c r="C209">
-        <v>0.2117</v>
+        <v>0.2193</v>
       </c>
       <c r="D209">
-        <v>0.2481</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4055,13 +4055,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4606</v>
+        <v>0.4453</v>
       </c>
       <c r="C210">
-        <v>0.2118</v>
+        <v>0.2194</v>
       </c>
       <c r="D210">
-        <v>0.2488</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4069,13 +4069,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4612</v>
+        <v>0.4445</v>
       </c>
       <c r="C211">
-        <v>0.2116</v>
+        <v>0.2191</v>
       </c>
       <c r="D211">
-        <v>0.2496</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4083,13 +4083,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4622</v>
+        <v>0.4441</v>
       </c>
       <c r="C212">
-        <v>0.2114</v>
+        <v>0.2189</v>
       </c>
       <c r="D212">
-        <v>0.2508</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4097,13 +4097,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4636</v>
+        <v>0.4438</v>
       </c>
       <c r="C213">
-        <v>0.2112</v>
+        <v>0.2186</v>
       </c>
       <c r="D213">
-        <v>0.2523</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4111,13 +4111,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4643</v>
+        <v>0.4427</v>
       </c>
       <c r="C214">
-        <v>0.2103</v>
+        <v>0.2176</v>
       </c>
       <c r="D214">
-        <v>0.254</v>
+        <v>0.2252</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4125,13 +4125,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.466</v>
+        <v>0.4424</v>
       </c>
       <c r="C215">
-        <v>0.2098</v>
+        <v>0.2169</v>
       </c>
       <c r="D215">
-        <v>0.2562</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4139,13 +4139,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4684</v>
+        <v>0.4427</v>
       </c>
       <c r="C216">
-        <v>0.2096</v>
+        <v>0.2166</v>
       </c>
       <c r="D216">
-        <v>0.2588</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4153,13 +4153,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.471</v>
+        <v>0.443</v>
       </c>
       <c r="C217">
-        <v>0.2094</v>
+        <v>0.2163</v>
       </c>
       <c r="D217">
-        <v>0.2616</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4167,13 +4167,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4737</v>
+        <v>0.4435</v>
       </c>
       <c r="C218">
-        <v>0.2094</v>
+        <v>0.2163</v>
       </c>
       <c r="D218">
-        <v>0.2643</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4181,13 +4181,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.476</v>
+        <v>0.4433</v>
       </c>
       <c r="C219">
-        <v>0.2092</v>
+        <v>0.216</v>
       </c>
       <c r="D219">
-        <v>0.2668</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4195,13 +4195,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4784</v>
+        <v>0.4431</v>
       </c>
       <c r="C220">
-        <v>0.2089</v>
+        <v>0.2156</v>
       </c>
       <c r="D220">
-        <v>0.2694</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4209,13 +4209,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4817</v>
+        <v>0.4436</v>
       </c>
       <c r="C221">
-        <v>0.2089</v>
+        <v>0.2155</v>
       </c>
       <c r="D221">
-        <v>0.2728</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4223,13 +4223,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.4858</v>
+        <v>0.4446</v>
       </c>
       <c r="C222">
-        <v>0.209</v>
+        <v>0.2154</v>
       </c>
       <c r="D222">
-        <v>0.2769</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4237,13 +4237,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.4905</v>
+        <v>0.446</v>
       </c>
       <c r="C223">
-        <v>0.2092</v>
+        <v>0.2156</v>
       </c>
       <c r="D223">
-        <v>0.2813</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4251,13 +4251,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.4953</v>
+        <v>0.4476</v>
       </c>
       <c r="C224">
-        <v>0.2096</v>
+        <v>0.2159</v>
       </c>
       <c r="D224">
-        <v>0.2857</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4265,13 +4265,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.4997</v>
+        <v>0.4489</v>
       </c>
       <c r="C225">
-        <v>0.2098</v>
+        <v>0.2161</v>
       </c>
       <c r="D225">
-        <v>0.2899</v>
+        <v>0.2328</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4279,13 +4279,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.5041</v>
+        <v>0.4502</v>
       </c>
       <c r="C226">
-        <v>0.2102</v>
+        <v>0.2164</v>
       </c>
       <c r="D226">
-        <v>0.2939</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4293,13 +4293,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.5085</v>
+        <v>0.4515</v>
       </c>
       <c r="C227">
-        <v>0.2105</v>
+        <v>0.2166</v>
       </c>
       <c r="D227">
-        <v>0.2979</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4307,13 +4307,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.5131</v>
+        <v>0.4532</v>
       </c>
       <c r="C228">
-        <v>0.2113</v>
+        <v>0.2173</v>
       </c>
       <c r="D228">
-        <v>0.3018</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4321,13 +4321,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.5157</v>
+        <v>0.4528</v>
       </c>
       <c r="C229">
-        <v>0.2103</v>
+        <v>0.2162</v>
       </c>
       <c r="D229">
-        <v>0.3054</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4335,13 +4335,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.5182</v>
+        <v>0.4521</v>
       </c>
       <c r="C230">
-        <v>0.2095</v>
+        <v>0.2152</v>
       </c>
       <c r="D230">
-        <v>0.3087</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4349,13 +4349,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.5212</v>
+        <v>0.452</v>
       </c>
       <c r="C231">
-        <v>0.2091</v>
+        <v>0.2147</v>
       </c>
       <c r="D231">
-        <v>0.3121</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4363,13 +4363,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.5239</v>
+        <v>0.4515</v>
       </c>
       <c r="C232">
-        <v>0.2086</v>
+        <v>0.2141</v>
       </c>
       <c r="D232">
-        <v>0.3153</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4377,13 +4377,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.5266999999999999</v>
+        <v>0.451</v>
       </c>
       <c r="C233">
-        <v>0.2083</v>
+        <v>0.2137</v>
       </c>
       <c r="D233">
-        <v>0.3183</v>
+        <v>0.2373</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4391,13 +4391,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.5298</v>
+        <v>0.4507</v>
       </c>
       <c r="C234">
-        <v>0.208</v>
+        <v>0.2132</v>
       </c>
       <c r="D234">
-        <v>0.3217</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4405,13 +4405,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.5326</v>
+        <v>0.4499</v>
       </c>
       <c r="C235">
-        <v>0.2074</v>
+        <v>0.2125</v>
       </c>
       <c r="D235">
-        <v>0.3251</v>
+        <v>0.2374</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4419,13 +4419,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.5353</v>
+        <v>0.4491</v>
       </c>
       <c r="C236">
-        <v>0.2066</v>
+        <v>0.2115</v>
       </c>
       <c r="D236">
-        <v>0.3287</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4433,13 +4433,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.5366</v>
+        <v>0.4467</v>
       </c>
       <c r="C237">
-        <v>0.2051</v>
+        <v>0.2098</v>
       </c>
       <c r="D237">
-        <v>0.3315</v>
+        <v>0.2369</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4447,13 +4447,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.5371</v>
+        <v>0.4436</v>
       </c>
       <c r="C238">
-        <v>0.2031</v>
+        <v>0.2076</v>
       </c>
       <c r="D238">
-        <v>0.334</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4461,13 +4461,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.5377</v>
+        <v>0.4407</v>
       </c>
       <c r="C239">
-        <v>0.2015</v>
+        <v>0.2057</v>
       </c>
       <c r="D239">
-        <v>0.3362</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4475,13 +4475,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.538</v>
+        <v>0.4375</v>
       </c>
       <c r="C240">
-        <v>0.1998</v>
+        <v>0.2038</v>
       </c>
       <c r="D240">
-        <v>0.3382</v>
+        <v>0.2337</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4489,13 +4489,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.5372</v>
+        <v>0.4334</v>
       </c>
       <c r="C241">
-        <v>0.1978</v>
+        <v>0.2016</v>
       </c>
       <c r="D241">
-        <v>0.3394</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4503,13 +4503,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.5363</v>
+        <v>0.4293</v>
       </c>
       <c r="C242">
-        <v>0.1962</v>
+        <v>0.1997</v>
       </c>
       <c r="D242">
-        <v>0.3401</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4517,13 +4517,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.5347</v>
+        <v>0.4247</v>
       </c>
       <c r="C243">
-        <v>0.1945</v>
+        <v>0.1978</v>
       </c>
       <c r="D243">
-        <v>0.3401</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4531,13 +4531,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.5333</v>
+        <v>0.4204</v>
       </c>
       <c r="C244">
-        <v>0.1928</v>
+        <v>0.1958</v>
       </c>
       <c r="D244">
-        <v>0.3405</v>
+        <v>0.2245</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4545,13 +4545,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.5325</v>
+        <v>0.4167</v>
       </c>
       <c r="C245">
-        <v>0.1914</v>
+        <v>0.1942</v>
       </c>
       <c r="D245">
-        <v>0.3411</v>
+        <v>0.2225</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4559,13 +4559,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.5323</v>
+        <v>0.4139</v>
       </c>
       <c r="C246">
-        <v>0.1904</v>
+        <v>0.1931</v>
       </c>
       <c r="D246">
-        <v>0.3419</v>
+        <v>0.2208</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2018 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2018 - Diaria.xlsx
@@ -1143,13 +1143,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2172</v>
+        <v>0.2158</v>
       </c>
       <c r="C2">
-        <v>0.09429999999999999</v>
+        <v>0.09420000000000001</v>
       </c>
       <c r="D2">
-        <v>0.1229</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1157,13 +1157,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2131</v>
+        <v>0.2117</v>
       </c>
       <c r="C3">
-        <v>0.0934</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="D3">
-        <v>0.1197</v>
+        <v>0.1184</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1171,13 +1171,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2088</v>
+        <v>0.2074</v>
       </c>
       <c r="C4">
-        <v>0.09229999999999999</v>
+        <v>0.0922</v>
       </c>
       <c r="D4">
-        <v>0.1165</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1185,13 +1185,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2043</v>
+        <v>0.2028</v>
       </c>
       <c r="C5">
-        <v>0.09080000000000001</v>
+        <v>0.0907</v>
       </c>
       <c r="D5">
-        <v>0.1135</v>
+        <v>0.1122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1199,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.1999</v>
+        <v>0.1985</v>
       </c>
       <c r="C6">
-        <v>0.08939999999999999</v>
+        <v>0.0892</v>
       </c>
       <c r="D6">
-        <v>0.1106</v>
+        <v>0.1093</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1213,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1956</v>
+        <v>0.1942</v>
       </c>
       <c r="C7">
-        <v>0.0878</v>
+        <v>0.0876</v>
       </c>
       <c r="D7">
-        <v>0.1078</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.1911</v>
+        <v>0.1896</v>
       </c>
       <c r="C8">
-        <v>0.0862</v>
+        <v>0.0861</v>
       </c>
       <c r="D8">
-        <v>0.1049</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1241,13 +1241,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.1872</v>
+        <v>0.1857</v>
       </c>
       <c r="C9">
-        <v>0.0847</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="D9">
-        <v>0.1025</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1255,13 +1255,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.1829</v>
+        <v>0.1813</v>
       </c>
       <c r="C10">
-        <v>0.0827</v>
+        <v>0.0825</v>
       </c>
       <c r="D10">
-        <v>0.1002</v>
+        <v>0.0988</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1269,13 +1269,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1781</v>
+        <v>0.1764</v>
       </c>
       <c r="C11">
-        <v>0.08019999999999999</v>
+        <v>0.0801</v>
       </c>
       <c r="D11">
-        <v>0.0978</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1283,13 +1283,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.1729</v>
+        <v>0.1713</v>
       </c>
       <c r="C12">
-        <v>0.0774</v>
+        <v>0.0772</v>
       </c>
       <c r="D12">
-        <v>0.0955</v>
+        <v>0.0941</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1297,13 +1297,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.1685</v>
+        <v>0.1668</v>
       </c>
       <c r="C13">
-        <v>0.0752</v>
+        <v>0.075</v>
       </c>
       <c r="D13">
-        <v>0.09329999999999999</v>
+        <v>0.09180000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1311,13 +1311,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.1622</v>
+        <v>0.1606</v>
       </c>
       <c r="C14">
-        <v>0.0713</v>
+        <v>0.0711</v>
       </c>
       <c r="D14">
-        <v>0.09089999999999999</v>
+        <v>0.0895</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1325,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.1569</v>
+        <v>0.1552</v>
       </c>
       <c r="C15">
-        <v>0.0679</v>
+        <v>0.0678</v>
       </c>
       <c r="D15">
-        <v>0.08890000000000001</v>
+        <v>0.08740000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1339,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.1521</v>
+        <v>0.1504</v>
       </c>
       <c r="C16">
-        <v>0.0649</v>
+        <v>0.0648</v>
       </c>
       <c r="D16">
-        <v>0.0872</v>
+        <v>0.0857</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1353,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.1481</v>
+        <v>0.1464</v>
       </c>
       <c r="C17">
-        <v>0.0623</v>
+        <v>0.0621</v>
       </c>
       <c r="D17">
-        <v>0.0858</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1367,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.1452</v>
+        <v>0.1435</v>
       </c>
       <c r="C18">
-        <v>0.0602</v>
+        <v>0.06</v>
       </c>
       <c r="D18">
-        <v>0.0849</v>
+        <v>0.0834</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1381,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.1426</v>
+        <v>0.1409</v>
       </c>
       <c r="C19">
-        <v>0.0581</v>
+        <v>0.0579</v>
       </c>
       <c r="D19">
-        <v>0.08450000000000001</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1395,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.1412</v>
+        <v>0.1394</v>
       </c>
       <c r="C20">
-        <v>0.0567</v>
+        <v>0.0566</v>
       </c>
       <c r="D20">
-        <v>0.0844</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1409,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.1398</v>
+        <v>0.138</v>
       </c>
       <c r="C21">
-        <v>0.0548</v>
+        <v>0.0546</v>
       </c>
       <c r="D21">
-        <v>0.0849</v>
+        <v>0.0834</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1423,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.1398</v>
+        <v>0.138</v>
       </c>
       <c r="C22">
-        <v>0.054</v>
+        <v>0.0538</v>
       </c>
       <c r="D22">
-        <v>0.0859</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1437,13 +1437,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.1401</v>
+        <v>0.1383</v>
       </c>
       <c r="C23">
-        <v>0.0533</v>
+        <v>0.0531</v>
       </c>
       <c r="D23">
-        <v>0.08690000000000001</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1451,13 +1451,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.1405</v>
+        <v>0.1387</v>
       </c>
       <c r="C24">
-        <v>0.0525</v>
+        <v>0.0524</v>
       </c>
       <c r="D24">
-        <v>0.08799999999999999</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1465,13 +1465,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.1419</v>
+        <v>0.14</v>
       </c>
       <c r="C25">
-        <v>0.0524</v>
+        <v>0.0522</v>
       </c>
       <c r="D25">
-        <v>0.0895</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1479,13 +1479,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.1426</v>
+        <v>0.1408</v>
       </c>
       <c r="C26">
-        <v>0.0517</v>
+        <v>0.0515</v>
       </c>
       <c r="D26">
-        <v>0.091</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1493,13 +1493,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.144</v>
+        <v>0.1421</v>
       </c>
       <c r="C27">
-        <v>0.0512</v>
+        <v>0.0511</v>
       </c>
       <c r="D27">
-        <v>0.0927</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1507,13 +1507,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.1454</v>
+        <v>0.1436</v>
       </c>
       <c r="C28">
-        <v>0.0508</v>
+        <v>0.0506</v>
       </c>
       <c r="D28">
-        <v>0.0946</v>
+        <v>0.0929</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1521,13 +1521,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.1473</v>
+        <v>0.1455</v>
       </c>
       <c r="C29">
-        <v>0.051</v>
+        <v>0.0509</v>
       </c>
       <c r="D29">
-        <v>0.09619999999999999</v>
+        <v>0.0946</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1535,13 +1535,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.1497</v>
+        <v>0.1479</v>
       </c>
       <c r="C30">
-        <v>0.0517</v>
+        <v>0.0515</v>
       </c>
       <c r="D30">
-        <v>0.098</v>
+        <v>0.0964</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1549,13 +1549,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.1518</v>
+        <v>0.15</v>
       </c>
       <c r="C31">
-        <v>0.0519</v>
+        <v>0.0518</v>
       </c>
       <c r="D31">
-        <v>0.0999</v>
+        <v>0.0982</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1563,13 +1563,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.1545</v>
+        <v>0.1527</v>
       </c>
       <c r="C32">
-        <v>0.0527</v>
+        <v>0.0526</v>
       </c>
       <c r="D32">
-        <v>0.1018</v>
+        <v>0.1001</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1577,13 +1577,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.1565</v>
+        <v>0.1547</v>
       </c>
       <c r="C33">
-        <v>0.0531</v>
+        <v>0.053</v>
       </c>
       <c r="D33">
-        <v>0.1034</v>
+        <v>0.1018</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1591,13 +1591,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.1585</v>
+        <v>0.1567</v>
       </c>
       <c r="C34">
-        <v>0.0536</v>
+        <v>0.0535</v>
       </c>
       <c r="D34">
-        <v>0.1049</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1605,13 +1605,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.1598</v>
+        <v>0.158</v>
       </c>
       <c r="C35">
-        <v>0.0537</v>
+        <v>0.0536</v>
       </c>
       <c r="D35">
-        <v>0.1061</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1619,13 +1619,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.1607</v>
+        <v>0.1589</v>
       </c>
       <c r="C36">
-        <v>0.0537</v>
+        <v>0.0535</v>
       </c>
       <c r="D36">
-        <v>0.107</v>
+        <v>0.1053</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1633,13 +1633,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.1613</v>
+        <v>0.1595</v>
       </c>
       <c r="C37">
-        <v>0.0535</v>
+        <v>0.0534</v>
       </c>
       <c r="D37">
-        <v>0.1077</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1647,13 +1647,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.1609</v>
+        <v>0.1591</v>
       </c>
       <c r="C38">
-        <v>0.0528</v>
+        <v>0.0527</v>
       </c>
       <c r="D38">
-        <v>0.1081</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1661,13 +1661,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.1604</v>
+        <v>0.1586</v>
       </c>
       <c r="C39">
-        <v>0.0522</v>
+        <v>0.052</v>
       </c>
       <c r="D39">
-        <v>0.1083</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1675,13 +1675,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.1596</v>
+        <v>0.1578</v>
       </c>
       <c r="C40">
-        <v>0.0513</v>
+        <v>0.0512</v>
       </c>
       <c r="D40">
-        <v>0.1083</v>
+        <v>0.1066</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1689,13 +1689,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.1586</v>
+        <v>0.1568</v>
       </c>
       <c r="C41">
-        <v>0.0507</v>
+        <v>0.0506</v>
       </c>
       <c r="D41">
-        <v>0.1079</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1703,13 +1703,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.1571</v>
+        <v>0.1553</v>
       </c>
       <c r="C42">
-        <v>0.0499</v>
+        <v>0.0498</v>
       </c>
       <c r="D42">
-        <v>0.1072</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1717,13 +1717,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.155</v>
+        <v>0.1532</v>
       </c>
       <c r="C43">
-        <v>0.0486</v>
+        <v>0.0485</v>
       </c>
       <c r="D43">
-        <v>0.1064</v>
+        <v>0.1047</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1731,13 +1731,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.153</v>
+        <v>0.1512</v>
       </c>
       <c r="C44">
-        <v>0.0475</v>
+        <v>0.0474</v>
       </c>
       <c r="D44">
-        <v>0.1055</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1745,13 +1745,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.1503</v>
+        <v>0.1485</v>
       </c>
       <c r="C45">
-        <v>0.0462</v>
+        <v>0.0461</v>
       </c>
       <c r="D45">
-        <v>0.1041</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1759,13 +1759,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.148</v>
+        <v>0.1461</v>
       </c>
       <c r="C46">
-        <v>0.0451</v>
+        <v>0.045</v>
       </c>
       <c r="D46">
-        <v>0.1029</v>
+        <v>0.1011</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1773,13 +1773,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.1453</v>
+        <v>0.1434</v>
       </c>
       <c r="C47">
-        <v>0.0439</v>
+        <v>0.0438</v>
       </c>
       <c r="D47">
-        <v>0.1014</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1787,13 +1787,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.1432</v>
+        <v>0.1413</v>
       </c>
       <c r="C48">
-        <v>0.0431</v>
+        <v>0.043</v>
       </c>
       <c r="D48">
-        <v>0.1001</v>
+        <v>0.0983</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1801,13 +1801,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.1406</v>
+        <v>0.1387</v>
       </c>
       <c r="C49">
-        <v>0.0418</v>
+        <v>0.0417</v>
       </c>
       <c r="D49">
-        <v>0.0987</v>
+        <v>0.0969</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1815,13 +1815,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.1382</v>
+        <v>0.1363</v>
       </c>
       <c r="C50">
-        <v>0.0407</v>
+        <v>0.0406</v>
       </c>
       <c r="D50">
-        <v>0.0975</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1829,13 +1829,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.1362</v>
+        <v>0.1342</v>
       </c>
       <c r="C51">
-        <v>0.0399</v>
+        <v>0.0398</v>
       </c>
       <c r="D51">
-        <v>0.0963</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1843,13 +1843,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.134</v>
+        <v>0.132</v>
       </c>
       <c r="C52">
-        <v>0.0389</v>
+        <v>0.0388</v>
       </c>
       <c r="D52">
-        <v>0.095</v>
+        <v>0.09320000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1857,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.1321</v>
+        <v>0.13</v>
       </c>
       <c r="C53">
-        <v>0.0381</v>
+        <v>0.038</v>
       </c>
       <c r="D53">
-        <v>0.0939</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1871,13 +1871,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.1305</v>
+        <v>0.1284</v>
       </c>
       <c r="C54">
-        <v>0.0376</v>
+        <v>0.0374</v>
       </c>
       <c r="D54">
-        <v>0.0929</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1885,13 +1885,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.1292</v>
+        <v>0.1271</v>
       </c>
       <c r="C55">
-        <v>0.0371</v>
+        <v>0.037</v>
       </c>
       <c r="D55">
-        <v>0.092</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1899,13 +1899,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.1283</v>
+        <v>0.1262</v>
       </c>
       <c r="C56">
-        <v>0.0369</v>
+        <v>0.0367</v>
       </c>
       <c r="D56">
-        <v>0.0914</v>
+        <v>0.08939999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1913,13 +1913,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.1276</v>
+        <v>0.1254</v>
       </c>
       <c r="C57">
-        <v>0.0368</v>
+        <v>0.0366</v>
       </c>
       <c r="D57">
-        <v>0.09080000000000001</v>
+        <v>0.0888</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1927,13 +1927,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.1277</v>
+        <v>0.1255</v>
       </c>
       <c r="C58">
-        <v>0.0372</v>
+        <v>0.037</v>
       </c>
       <c r="D58">
-        <v>0.09039999999999999</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1941,13 +1941,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.1283</v>
+        <v>0.1261</v>
       </c>
       <c r="C59">
-        <v>0.0381</v>
+        <v>0.0379</v>
       </c>
       <c r="D59">
-        <v>0.0902</v>
+        <v>0.0882</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1955,13 +1955,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.1286</v>
+        <v>0.1265</v>
       </c>
       <c r="C60">
-        <v>0.0387</v>
+        <v>0.0385</v>
       </c>
       <c r="D60">
-        <v>0.08989999999999999</v>
+        <v>0.08790000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1969,13 +1969,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.1291</v>
+        <v>0.1269</v>
       </c>
       <c r="C61">
-        <v>0.0395</v>
+        <v>0.0393</v>
       </c>
       <c r="D61">
-        <v>0.0896</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1983,13 +1983,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.1298</v>
+        <v>0.1276</v>
       </c>
       <c r="C62">
-        <v>0.0404</v>
+        <v>0.0402</v>
       </c>
       <c r="D62">
-        <v>0.08939999999999999</v>
+        <v>0.08740000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1997,13 +1997,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.1307</v>
+        <v>0.1285</v>
       </c>
       <c r="C63">
-        <v>0.0414</v>
+        <v>0.0412</v>
       </c>
       <c r="D63">
-        <v>0.0893</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2011,13 +2011,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.132</v>
+        <v>0.1297</v>
       </c>
       <c r="C64">
-        <v>0.0426</v>
+        <v>0.0424</v>
       </c>
       <c r="D64">
-        <v>0.0893</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2025,13 +2025,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.1327</v>
+        <v>0.1305</v>
       </c>
       <c r="C65">
-        <v>0.0434</v>
+        <v>0.0432</v>
       </c>
       <c r="D65">
-        <v>0.0893</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2039,13 +2039,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.1331</v>
+        <v>0.1309</v>
       </c>
       <c r="C66">
-        <v>0.044</v>
+        <v>0.0438</v>
       </c>
       <c r="D66">
-        <v>0.0891</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.1338</v>
+        <v>0.1316</v>
       </c>
       <c r="C67">
-        <v>0.0449</v>
+        <v>0.0447</v>
       </c>
       <c r="D67">
-        <v>0.08890000000000001</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2067,13 +2067,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.1339</v>
+        <v>0.1316</v>
       </c>
       <c r="C68">
-        <v>0.0453</v>
+        <v>0.0451</v>
       </c>
       <c r="D68">
-        <v>0.0886</v>
+        <v>0.0866</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2081,13 +2081,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.134</v>
+        <v>0.1317</v>
       </c>
       <c r="C69">
-        <v>0.0456</v>
+        <v>0.0454</v>
       </c>
       <c r="D69">
-        <v>0.08840000000000001</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2095,13 +2095,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.1337</v>
+        <v>0.1314</v>
       </c>
       <c r="C70">
-        <v>0.0458</v>
+        <v>0.0456</v>
       </c>
       <c r="D70">
-        <v>0.08790000000000001</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2109,13 +2109,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.1335</v>
+        <v>0.1313</v>
       </c>
       <c r="C71">
-        <v>0.046</v>
+        <v>0.0458</v>
       </c>
       <c r="D71">
-        <v>0.08749999999999999</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2123,13 +2123,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.1337</v>
+        <v>0.1314</v>
       </c>
       <c r="C72">
-        <v>0.0464</v>
+        <v>0.0462</v>
       </c>
       <c r="D72">
-        <v>0.0873</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2137,13 +2137,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.134</v>
+        <v>0.1317</v>
       </c>
       <c r="C73">
-        <v>0.0468</v>
+        <v>0.0466</v>
       </c>
       <c r="D73">
-        <v>0.0872</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2151,13 +2151,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.1342</v>
+        <v>0.1319</v>
       </c>
       <c r="C74">
-        <v>0.0471</v>
+        <v>0.0469</v>
       </c>
       <c r="D74">
-        <v>0.0871</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2165,13 +2165,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.1346</v>
+        <v>0.1323</v>
       </c>
       <c r="C75">
-        <v>0.0475</v>
+        <v>0.0473</v>
       </c>
       <c r="D75">
-        <v>0.0871</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.1345</v>
+        <v>0.1322</v>
       </c>
       <c r="C76">
-        <v>0.0476</v>
+        <v>0.0474</v>
       </c>
       <c r="D76">
-        <v>0.08690000000000001</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2193,13 +2193,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.1347</v>
+        <v>0.1324</v>
       </c>
       <c r="C77">
-        <v>0.048</v>
+        <v>0.0478</v>
       </c>
       <c r="D77">
-        <v>0.0867</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2207,13 +2207,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.1343</v>
+        <v>0.132</v>
       </c>
       <c r="C78">
-        <v>0.048</v>
+        <v>0.0478</v>
       </c>
       <c r="D78">
-        <v>0.0863</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2221,13 +2221,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1338</v>
+        <v>0.1315</v>
       </c>
       <c r="C79">
-        <v>0.0478</v>
+        <v>0.0476</v>
       </c>
       <c r="D79">
-        <v>0.08599999999999999</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2235,13 +2235,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.1345</v>
+        <v>0.1322</v>
       </c>
       <c r="C80">
-        <v>0.0486</v>
+        <v>0.0484</v>
       </c>
       <c r="D80">
-        <v>0.0859</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2249,13 +2249,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1353</v>
+        <v>0.1329</v>
       </c>
       <c r="C81">
-        <v>0.0493</v>
+        <v>0.0491</v>
       </c>
       <c r="D81">
-        <v>0.08599999999999999</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2263,13 +2263,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1372</v>
+        <v>0.1349</v>
       </c>
       <c r="C82">
-        <v>0.0506</v>
+        <v>0.0504</v>
       </c>
       <c r="D82">
-        <v>0.0866</v>
+        <v>0.08450000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2277,13 +2277,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.139</v>
+        <v>0.1367</v>
       </c>
       <c r="C83">
-        <v>0.0517</v>
+        <v>0.0515</v>
       </c>
       <c r="D83">
-        <v>0.0873</v>
+        <v>0.0852</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2291,13 +2291,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1412</v>
+        <v>0.1389</v>
       </c>
       <c r="C84">
-        <v>0.0531</v>
+        <v>0.0529</v>
       </c>
       <c r="D84">
-        <v>0.0881</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2305,13 +2305,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.1443</v>
+        <v>0.142</v>
       </c>
       <c r="C85">
-        <v>0.0553</v>
+        <v>0.055</v>
       </c>
       <c r="D85">
-        <v>0.089</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2319,13 +2319,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.1483</v>
+        <v>0.146</v>
       </c>
       <c r="C86">
-        <v>0.0581</v>
+        <v>0.0579</v>
       </c>
       <c r="D86">
-        <v>0.0902</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2333,13 +2333,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.1518</v>
+        <v>0.1494</v>
       </c>
       <c r="C87">
-        <v>0.0604</v>
+        <v>0.0602</v>
       </c>
       <c r="D87">
-        <v>0.0914</v>
+        <v>0.0893</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2347,13 +2347,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.1552</v>
+        <v>0.1529</v>
       </c>
       <c r="C88">
-        <v>0.0625</v>
+        <v>0.0623</v>
       </c>
       <c r="D88">
-        <v>0.0927</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2361,13 +2361,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.1593</v>
+        <v>0.157</v>
       </c>
       <c r="C89">
-        <v>0.06519999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="D89">
-        <v>0.0941</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2375,13 +2375,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.1637</v>
+        <v>0.1614</v>
       </c>
       <c r="C90">
-        <v>0.068</v>
+        <v>0.0678</v>
       </c>
       <c r="D90">
-        <v>0.09569999999999999</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2389,13 +2389,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.1681</v>
+        <v>0.1658</v>
       </c>
       <c r="C91">
-        <v>0.0708</v>
+        <v>0.0706</v>
       </c>
       <c r="D91">
-        <v>0.0973</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2403,13 +2403,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.1728</v>
+        <v>0.1705</v>
       </c>
       <c r="C92">
-        <v>0.0738</v>
+        <v>0.0736</v>
       </c>
       <c r="D92">
-        <v>0.09909999999999999</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2417,13 +2417,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.1773</v>
+        <v>0.175</v>
       </c>
       <c r="C93">
-        <v>0.0765</v>
+        <v>0.07630000000000001</v>
       </c>
       <c r="D93">
-        <v>0.1009</v>
+        <v>0.0988</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2431,13 +2431,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.182</v>
+        <v>0.1797</v>
       </c>
       <c r="C94">
-        <v>0.07920000000000001</v>
+        <v>0.079</v>
       </c>
       <c r="D94">
-        <v>0.1027</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2445,13 +2445,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.1871</v>
+        <v>0.1848</v>
       </c>
       <c r="C95">
-        <v>0.08210000000000001</v>
+        <v>0.0819</v>
       </c>
       <c r="D95">
-        <v>0.105</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2459,13 +2459,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.1923</v>
+        <v>0.19</v>
       </c>
       <c r="C96">
-        <v>0.08500000000000001</v>
+        <v>0.0847</v>
       </c>
       <c r="D96">
-        <v>0.1073</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2473,13 +2473,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.1974</v>
+        <v>0.1951</v>
       </c>
       <c r="C97">
-        <v>0.08749999999999999</v>
+        <v>0.0873</v>
       </c>
       <c r="D97">
-        <v>0.1098</v>
+        <v>0.1077</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2487,13 +2487,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2032</v>
+        <v>0.2009</v>
       </c>
       <c r="C98">
-        <v>0.09030000000000001</v>
+        <v>0.0901</v>
       </c>
       <c r="D98">
-        <v>0.1128</v>
+        <v>0.1107</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2501,13 +2501,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2101</v>
+        <v>0.2078</v>
       </c>
       <c r="C99">
-        <v>0.0941</v>
+        <v>0.0939</v>
       </c>
       <c r="D99">
-        <v>0.116</v>
+        <v>0.1139</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2515,13 +2515,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2159</v>
+        <v>0.2136</v>
       </c>
       <c r="C100">
-        <v>0.0968</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="D100">
-        <v>0.1191</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2529,13 +2529,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2216</v>
+        <v>0.2193</v>
       </c>
       <c r="C101">
-        <v>0.0994</v>
+        <v>0.0992</v>
       </c>
       <c r="D101">
-        <v>0.1221</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2543,13 +2543,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.226</v>
+        <v>0.2238</v>
       </c>
       <c r="C102">
-        <v>0.1014</v>
+        <v>0.1012</v>
       </c>
       <c r="D102">
-        <v>0.1247</v>
+        <v>0.1226</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2557,13 +2557,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2308</v>
+        <v>0.2285</v>
       </c>
       <c r="C103">
-        <v>0.1035</v>
+        <v>0.1033</v>
       </c>
       <c r="D103">
-        <v>0.1273</v>
+        <v>0.1252</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2571,13 +2571,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2355</v>
+        <v>0.2332</v>
       </c>
       <c r="C104">
-        <v>0.1056</v>
+        <v>0.1054</v>
       </c>
       <c r="D104">
-        <v>0.1299</v>
+        <v>0.1279</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2585,13 +2585,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2394</v>
+        <v>0.2371</v>
       </c>
       <c r="C105">
-        <v>0.1069</v>
+        <v>0.1067</v>
       </c>
       <c r="D105">
-        <v>0.1325</v>
+        <v>0.1305</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2599,13 +2599,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2425</v>
+        <v>0.2403</v>
       </c>
       <c r="C106">
-        <v>0.1074</v>
+        <v>0.1072</v>
       </c>
       <c r="D106">
-        <v>0.135</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2613,13 +2613,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2455</v>
+        <v>0.2433</v>
       </c>
       <c r="C107">
-        <v>0.108</v>
+        <v>0.1078</v>
       </c>
       <c r="D107">
-        <v>0.1375</v>
+        <v>0.1355</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2627,13 +2627,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2483</v>
+        <v>0.2461</v>
       </c>
       <c r="C108">
-        <v>0.1084</v>
+        <v>0.1082</v>
       </c>
       <c r="D108">
-        <v>0.1399</v>
+        <v>0.1379</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2641,13 +2641,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2505</v>
+        <v>0.2483</v>
       </c>
       <c r="C109">
-        <v>0.1082</v>
+        <v>0.108</v>
       </c>
       <c r="D109">
-        <v>0.1423</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2655,13 +2655,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2524</v>
+        <v>0.2502</v>
       </c>
       <c r="C110">
-        <v>0.1078</v>
+        <v>0.1076</v>
       </c>
       <c r="D110">
-        <v>0.1447</v>
+        <v>0.1427</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2669,13 +2669,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2542</v>
+        <v>0.252</v>
       </c>
       <c r="C111">
-        <v>0.1071</v>
+        <v>0.1069</v>
       </c>
       <c r="D111">
-        <v>0.1471</v>
+        <v>0.1451</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2683,13 +2683,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2562</v>
+        <v>0.254</v>
       </c>
       <c r="C112">
-        <v>0.1067</v>
+        <v>0.1065</v>
       </c>
       <c r="D112">
-        <v>0.1495</v>
+        <v>0.1475</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2697,13 +2697,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2581</v>
+        <v>0.256</v>
       </c>
       <c r="C113">
-        <v>0.1063</v>
+        <v>0.1062</v>
       </c>
       <c r="D113">
-        <v>0.1518</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2711,13 +2711,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2606</v>
+        <v>0.2584</v>
       </c>
       <c r="C114">
-        <v>0.1063</v>
+        <v>0.1061</v>
       </c>
       <c r="D114">
-        <v>0.1543</v>
+        <v>0.1523</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2725,13 +2725,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2631</v>
+        <v>0.261</v>
       </c>
       <c r="C115">
-        <v>0.1065</v>
+        <v>0.1064</v>
       </c>
       <c r="D115">
-        <v>0.1566</v>
+        <v>0.1546</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2739,13 +2739,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2664</v>
+        <v>0.2643</v>
       </c>
       <c r="C116">
-        <v>0.1072</v>
+        <v>0.1071</v>
       </c>
       <c r="D116">
-        <v>0.1592</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2753,13 +2753,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2697</v>
+        <v>0.2676</v>
       </c>
       <c r="C117">
-        <v>0.1081</v>
+        <v>0.1079</v>
       </c>
       <c r="D117">
-        <v>0.1616</v>
+        <v>0.1597</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2767,13 +2767,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2726</v>
+        <v>0.2705</v>
       </c>
       <c r="C118">
-        <v>0.1088</v>
+        <v>0.1086</v>
       </c>
       <c r="D118">
-        <v>0.1639</v>
+        <v>0.1619</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2781,13 +2781,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2746</v>
+        <v>0.2724</v>
       </c>
       <c r="C119">
-        <v>0.1085</v>
+        <v>0.1084</v>
       </c>
       <c r="D119">
-        <v>0.1661</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2795,13 +2795,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.2767</v>
+        <v>0.2745</v>
       </c>
       <c r="C120">
-        <v>0.1084</v>
+        <v>0.1082</v>
       </c>
       <c r="D120">
-        <v>0.1683</v>
+        <v>0.1663</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2809,13 +2809,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.279</v>
+        <v>0.2768</v>
       </c>
       <c r="C121">
-        <v>0.1084</v>
+        <v>0.1083</v>
       </c>
       <c r="D121">
-        <v>0.1706</v>
+        <v>0.1686</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2823,13 +2823,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2818</v>
+        <v>0.2796</v>
       </c>
       <c r="C122">
-        <v>0.1088</v>
+        <v>0.1086</v>
       </c>
       <c r="D122">
-        <v>0.173</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2837,13 +2837,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2845</v>
+        <v>0.2823</v>
       </c>
       <c r="C123">
-        <v>0.109</v>
+        <v>0.1089</v>
       </c>
       <c r="D123">
-        <v>0.1755</v>
+        <v>0.1734</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2851,13 +2851,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.2868</v>
+        <v>0.2846</v>
       </c>
       <c r="C124">
-        <v>0.1089</v>
+        <v>0.1087</v>
       </c>
       <c r="D124">
-        <v>0.178</v>
+        <v>0.1759</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2865,13 +2865,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2899</v>
+        <v>0.2877</v>
       </c>
       <c r="C125">
-        <v>0.1094</v>
+        <v>0.1093</v>
       </c>
       <c r="D125">
-        <v>0.1806</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2879,13 +2879,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2938</v>
+        <v>0.2916</v>
       </c>
       <c r="C126">
-        <v>0.1105</v>
+        <v>0.1104</v>
       </c>
       <c r="D126">
-        <v>0.1833</v>
+        <v>0.1812</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2893,13 +2893,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2978</v>
+        <v>0.2955</v>
       </c>
       <c r="C127">
-        <v>0.1116</v>
+        <v>0.1114</v>
       </c>
       <c r="D127">
-        <v>0.1862</v>
+        <v>0.1841</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2907,13 +2907,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3022</v>
+        <v>0.3</v>
       </c>
       <c r="C128">
-        <v>0.113</v>
+        <v>0.1129</v>
       </c>
       <c r="D128">
-        <v>0.1892</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2921,13 +2921,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3071</v>
+        <v>0.3049</v>
       </c>
       <c r="C129">
-        <v>0.1149</v>
+        <v>0.1147</v>
       </c>
       <c r="D129">
-        <v>0.1923</v>
+        <v>0.1901</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2935,13 +2935,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3122</v>
+        <v>0.3099</v>
       </c>
       <c r="C130">
-        <v>0.1168</v>
+        <v>0.1167</v>
       </c>
       <c r="D130">
-        <v>0.1954</v>
+        <v>0.1932</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2949,13 +2949,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3172</v>
+        <v>0.3149</v>
       </c>
       <c r="C131">
-        <v>0.1187</v>
+        <v>0.1185</v>
       </c>
       <c r="D131">
-        <v>0.1985</v>
+        <v>0.1963</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2963,13 +2963,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3218</v>
+        <v>0.3195</v>
       </c>
       <c r="C132">
-        <v>0.1201</v>
+        <v>0.12</v>
       </c>
       <c r="D132">
-        <v>0.2017</v>
+        <v>0.1995</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2977,13 +2977,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.327</v>
+        <v>0.3247</v>
       </c>
       <c r="C133">
-        <v>0.122</v>
+        <v>0.1218</v>
       </c>
       <c r="D133">
-        <v>0.205</v>
+        <v>0.2028</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2991,13 +2991,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3319</v>
+        <v>0.3296</v>
       </c>
       <c r="C134">
-        <v>0.1236</v>
+        <v>0.1235</v>
       </c>
       <c r="D134">
-        <v>0.2083</v>
+        <v>0.2061</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3005,13 +3005,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3373</v>
+        <v>0.335</v>
       </c>
       <c r="C135">
-        <v>0.1252</v>
+        <v>0.1251</v>
       </c>
       <c r="D135">
-        <v>0.2121</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3019,13 +3019,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3427</v>
+        <v>0.3404</v>
       </c>
       <c r="C136">
-        <v>0.1263</v>
+        <v>0.1262</v>
       </c>
       <c r="D136">
-        <v>0.2164</v>
+        <v>0.2142</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3033,13 +3033,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3486</v>
+        <v>0.3463</v>
       </c>
       <c r="C137">
-        <v>0.1275</v>
+        <v>0.1274</v>
       </c>
       <c r="D137">
-        <v>0.2211</v>
+        <v>0.2189</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3047,13 +3047,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3544</v>
+        <v>0.352</v>
       </c>
       <c r="C138">
-        <v>0.1285</v>
+        <v>0.1283</v>
       </c>
       <c r="D138">
-        <v>0.2259</v>
+        <v>0.2237</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3061,13 +3061,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3607</v>
+        <v>0.3584</v>
       </c>
       <c r="C139">
-        <v>0.1301</v>
+        <v>0.13</v>
       </c>
       <c r="D139">
-        <v>0.2306</v>
+        <v>0.2284</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3075,13 +3075,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.367</v>
+        <v>0.3647</v>
       </c>
       <c r="C140">
-        <v>0.1319</v>
+        <v>0.1318</v>
       </c>
       <c r="D140">
-        <v>0.235</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3089,13 +3089,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3729</v>
+        <v>0.3706</v>
       </c>
       <c r="C141">
-        <v>0.1336</v>
+        <v>0.1335</v>
       </c>
       <c r="D141">
-        <v>0.2392</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3103,13 +3103,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3789</v>
+        <v>0.3767</v>
       </c>
       <c r="C142">
-        <v>0.1356</v>
+        <v>0.1355</v>
       </c>
       <c r="D142">
-        <v>0.2433</v>
+        <v>0.2412</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3117,13 +3117,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3846</v>
+        <v>0.3824</v>
       </c>
       <c r="C143">
-        <v>0.1374</v>
+        <v>0.1373</v>
       </c>
       <c r="D143">
-        <v>0.2472</v>
+        <v>0.2452</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3131,13 +3131,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3905</v>
+        <v>0.3884</v>
       </c>
       <c r="C144">
-        <v>0.1394</v>
+        <v>0.1393</v>
       </c>
       <c r="D144">
-        <v>0.2511</v>
+        <v>0.2491</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3145,13 +3145,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3957</v>
+        <v>0.3935</v>
       </c>
       <c r="C145">
-        <v>0.1408</v>
+        <v>0.1407</v>
       </c>
       <c r="D145">
-        <v>0.2549</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3159,13 +3159,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.4002</v>
+        <v>0.3981</v>
       </c>
       <c r="C146">
-        <v>0.1416</v>
+        <v>0.1415</v>
       </c>
       <c r="D146">
-        <v>0.2585</v>
+        <v>0.2565</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3173,13 +3173,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.4048</v>
+        <v>0.4027</v>
       </c>
       <c r="C147">
-        <v>0.1427</v>
+        <v>0.1426</v>
       </c>
       <c r="D147">
-        <v>0.262</v>
+        <v>0.2601</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3187,13 +3187,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.4091</v>
+        <v>0.4071</v>
       </c>
       <c r="C148">
-        <v>0.1437</v>
+        <v>0.1436</v>
       </c>
       <c r="D148">
-        <v>0.2654</v>
+        <v>0.2635</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3201,13 +3201,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.4131</v>
+        <v>0.4112</v>
       </c>
       <c r="C149">
-        <v>0.1446</v>
+        <v>0.1445</v>
       </c>
       <c r="D149">
-        <v>0.2685</v>
+        <v>0.2666</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3215,13 +3215,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.4167</v>
+        <v>0.4148</v>
       </c>
       <c r="C150">
-        <v>0.1454</v>
+        <v>0.1453</v>
       </c>
       <c r="D150">
-        <v>0.2713</v>
+        <v>0.2695</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3229,13 +3229,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.4201</v>
+        <v>0.4182</v>
       </c>
       <c r="C151">
-        <v>0.1463</v>
+        <v>0.1462</v>
       </c>
       <c r="D151">
-        <v>0.2738</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3243,13 +3243,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.423</v>
+        <v>0.4212</v>
       </c>
       <c r="C152">
-        <v>0.1471</v>
+        <v>0.147</v>
       </c>
       <c r="D152">
-        <v>0.2759</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3257,13 +3257,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.4252</v>
+        <v>0.4234</v>
       </c>
       <c r="C153">
-        <v>0.1475</v>
+        <v>0.1474</v>
       </c>
       <c r="D153">
-        <v>0.2777</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3271,13 +3271,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.4271</v>
+        <v>0.4253</v>
       </c>
       <c r="C154">
-        <v>0.148</v>
+        <v>0.1479</v>
       </c>
       <c r="D154">
-        <v>0.2791</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3285,13 +3285,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.4279</v>
+        <v>0.4262</v>
       </c>
       <c r="C155">
-        <v>0.1485</v>
+        <v>0.1484</v>
       </c>
       <c r="D155">
-        <v>0.2795</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3299,13 +3299,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.4283</v>
+        <v>0.4266</v>
       </c>
       <c r="C156">
-        <v>0.1492</v>
+        <v>0.1491</v>
       </c>
       <c r="D156">
-        <v>0.2791</v>
+        <v>0.2775</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3313,13 +3313,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.428</v>
+        <v>0.4263</v>
       </c>
       <c r="C157">
-        <v>0.1499</v>
+        <v>0.1498</v>
       </c>
       <c r="D157">
-        <v>0.2781</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3327,13 +3327,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.4273</v>
+        <v>0.4256</v>
       </c>
       <c r="C158">
-        <v>0.1507</v>
+        <v>0.1506</v>
       </c>
       <c r="D158">
-        <v>0.2766</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3341,13 +3341,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.4259</v>
+        <v>0.4241</v>
       </c>
       <c r="C159">
-        <v>0.151</v>
+        <v>0.1509</v>
       </c>
       <c r="D159">
-        <v>0.2749</v>
+        <v>0.2733</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3355,13 +3355,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.4244</v>
+        <v>0.4226</v>
       </c>
       <c r="C160">
-        <v>0.1512</v>
+        <v>0.1511</v>
       </c>
       <c r="D160">
-        <v>0.2732</v>
+        <v>0.2716</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3369,13 +3369,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.423</v>
+        <v>0.4213</v>
       </c>
       <c r="C161">
-        <v>0.1516</v>
+        <v>0.1515</v>
       </c>
       <c r="D161">
-        <v>0.2714</v>
+        <v>0.2698</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3383,13 +3383,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.4205</v>
+        <v>0.4187</v>
       </c>
       <c r="C162">
-        <v>0.1511</v>
+        <v>0.151</v>
       </c>
       <c r="D162">
-        <v>0.2694</v>
+        <v>0.2678</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3397,13 +3397,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.4194</v>
+        <v>0.4176</v>
       </c>
       <c r="C163">
-        <v>0.1519</v>
+        <v>0.1518</v>
       </c>
       <c r="D163">
-        <v>0.2675</v>
+        <v>0.2658</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3411,13 +3411,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.418</v>
+        <v>0.4162</v>
       </c>
       <c r="C164">
-        <v>0.1526</v>
+        <v>0.1525</v>
       </c>
       <c r="D164">
-        <v>0.2654</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3425,13 +3425,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.417</v>
+        <v>0.4151</v>
       </c>
       <c r="C165">
-        <v>0.1537</v>
+        <v>0.1535</v>
       </c>
       <c r="D165">
-        <v>0.2633</v>
+        <v>0.2616</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3439,13 +3439,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.4159</v>
+        <v>0.414</v>
       </c>
       <c r="C166">
-        <v>0.1548</v>
+        <v>0.1547</v>
       </c>
       <c r="D166">
-        <v>0.2611</v>
+        <v>0.2593</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3453,13 +3453,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.4156</v>
+        <v>0.4137</v>
       </c>
       <c r="C167">
-        <v>0.1566</v>
+        <v>0.1565</v>
       </c>
       <c r="D167">
-        <v>0.259</v>
+        <v>0.2572</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3467,13 +3467,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.4164</v>
+        <v>0.4144</v>
       </c>
       <c r="C168">
-        <v>0.1595</v>
+        <v>0.1593</v>
       </c>
       <c r="D168">
-        <v>0.2569</v>
+        <v>0.2551</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3481,13 +3481,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.4165</v>
+        <v>0.4145</v>
       </c>
       <c r="C169">
-        <v>0.1618</v>
+        <v>0.1617</v>
       </c>
       <c r="D169">
-        <v>0.2547</v>
+        <v>0.2529</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3495,13 +3495,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.4163</v>
+        <v>0.4143</v>
       </c>
       <c r="C170">
-        <v>0.1638</v>
+        <v>0.1636</v>
       </c>
       <c r="D170">
-        <v>0.2525</v>
+        <v>0.2506</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3509,13 +3509,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.4159</v>
+        <v>0.4139</v>
       </c>
       <c r="C171">
-        <v>0.1656</v>
+        <v>0.1654</v>
       </c>
       <c r="D171">
-        <v>0.2503</v>
+        <v>0.2485</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3523,13 +3523,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.4159</v>
+        <v>0.4139</v>
       </c>
       <c r="C172">
-        <v>0.1675</v>
+        <v>0.1673</v>
       </c>
       <c r="D172">
-        <v>0.2484</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3537,13 +3537,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.416</v>
+        <v>0.4139</v>
       </c>
       <c r="C173">
-        <v>0.1693</v>
+        <v>0.1692</v>
       </c>
       <c r="D173">
-        <v>0.2467</v>
+        <v>0.2447</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3551,13 +3551,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.4153</v>
+        <v>0.4132</v>
       </c>
       <c r="C174">
-        <v>0.1705</v>
+        <v>0.1703</v>
       </c>
       <c r="D174">
-        <v>0.2448</v>
+        <v>0.2429</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3565,13 +3565,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.4146</v>
+        <v>0.4124</v>
       </c>
       <c r="C175">
-        <v>0.1715</v>
+        <v>0.1713</v>
       </c>
       <c r="D175">
-        <v>0.2431</v>
+        <v>0.2411</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3579,13 +3579,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.4138</v>
+        <v>0.4116</v>
       </c>
       <c r="C176">
-        <v>0.1726</v>
+        <v>0.1724</v>
       </c>
       <c r="D176">
-        <v>0.2413</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3593,13 +3593,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.4133</v>
+        <v>0.4111</v>
       </c>
       <c r="C177">
-        <v>0.1738</v>
+        <v>0.1736</v>
       </c>
       <c r="D177">
-        <v>0.2395</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3607,13 +3607,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.4137</v>
+        <v>0.4115</v>
       </c>
       <c r="C178">
-        <v>0.1754</v>
+        <v>0.1752</v>
       </c>
       <c r="D178">
-        <v>0.2383</v>
+        <v>0.2363</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3621,13 +3621,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.4145</v>
+        <v>0.4123</v>
       </c>
       <c r="C179">
-        <v>0.177</v>
+        <v>0.1768</v>
       </c>
       <c r="D179">
-        <v>0.2375</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3635,13 +3635,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.4174</v>
+        <v>0.4151</v>
       </c>
       <c r="C180">
-        <v>0.1803</v>
+        <v>0.1801</v>
       </c>
       <c r="D180">
-        <v>0.2371</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3649,13 +3649,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.4196</v>
+        <v>0.4173</v>
       </c>
       <c r="C181">
-        <v>0.1829</v>
+        <v>0.1827</v>
       </c>
       <c r="D181">
-        <v>0.2366</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3663,13 +3663,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.4223</v>
+        <v>0.4201</v>
       </c>
       <c r="C182">
-        <v>0.1861</v>
+        <v>0.1859</v>
       </c>
       <c r="D182">
-        <v>0.2362</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3677,13 +3677,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.424</v>
+        <v>0.4218</v>
       </c>
       <c r="C183">
-        <v>0.1881</v>
+        <v>0.1879</v>
       </c>
       <c r="D183">
-        <v>0.2359</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3691,13 +3691,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.4256</v>
+        <v>0.4234</v>
       </c>
       <c r="C184">
-        <v>0.1901</v>
+        <v>0.1899</v>
       </c>
       <c r="D184">
-        <v>0.2355</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3705,13 +3705,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.4265</v>
+        <v>0.4243</v>
       </c>
       <c r="C185">
-        <v>0.1914</v>
+        <v>0.1912</v>
       </c>
       <c r="D185">
-        <v>0.2351</v>
+        <v>0.2331</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3719,13 +3719,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.4274</v>
+        <v>0.4253</v>
       </c>
       <c r="C186">
-        <v>0.1928</v>
+        <v>0.1926</v>
       </c>
       <c r="D186">
-        <v>0.2346</v>
+        <v>0.2327</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3733,13 +3733,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.4275</v>
+        <v>0.4253</v>
       </c>
       <c r="C187">
-        <v>0.1936</v>
+        <v>0.1934</v>
       </c>
       <c r="D187">
-        <v>0.2339</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3747,13 +3747,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.4262</v>
+        <v>0.4241</v>
       </c>
       <c r="C188">
-        <v>0.1931</v>
+        <v>0.1929</v>
       </c>
       <c r="D188">
-        <v>0.2331</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3761,13 +3761,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.4255</v>
+        <v>0.4234</v>
       </c>
       <c r="C189">
-        <v>0.1929</v>
+        <v>0.1927</v>
       </c>
       <c r="D189">
-        <v>0.2326</v>
+        <v>0.2307</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3775,13 +3775,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.4271</v>
+        <v>0.425</v>
       </c>
       <c r="C190">
-        <v>0.1946</v>
+        <v>0.1945</v>
       </c>
       <c r="D190">
-        <v>0.2324</v>
+        <v>0.2305</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3789,13 +3789,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.4287</v>
+        <v>0.4267</v>
       </c>
       <c r="C191">
-        <v>0.1963</v>
+        <v>0.1961</v>
       </c>
       <c r="D191">
-        <v>0.2324</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3803,13 +3803,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.4298</v>
+        <v>0.4277</v>
       </c>
       <c r="C192">
-        <v>0.1977</v>
+        <v>0.1976</v>
       </c>
       <c r="D192">
-        <v>0.232</v>
+        <v>0.2302</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3817,13 +3817,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.4312</v>
+        <v>0.4292</v>
       </c>
       <c r="C193">
-        <v>0.1996</v>
+        <v>0.1994</v>
       </c>
       <c r="D193">
-        <v>0.2315</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3831,13 +3831,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4341</v>
+        <v>0.4321</v>
       </c>
       <c r="C194">
-        <v>0.2029</v>
+        <v>0.2027</v>
       </c>
       <c r="D194">
-        <v>0.2312</v>
+        <v>0.2295</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3845,13 +3845,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.4367</v>
+        <v>0.4347</v>
       </c>
       <c r="C195">
-        <v>0.2057</v>
+        <v>0.2055</v>
       </c>
       <c r="D195">
-        <v>0.231</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3859,13 +3859,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4391</v>
+        <v>0.4372</v>
       </c>
       <c r="C196">
-        <v>0.2084</v>
+        <v>0.2082</v>
       </c>
       <c r="D196">
-        <v>0.2307</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3873,13 +3873,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4419</v>
+        <v>0.4401</v>
       </c>
       <c r="C197">
-        <v>0.2111</v>
+        <v>0.2109</v>
       </c>
       <c r="D197">
-        <v>0.2309</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3887,13 +3887,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.4443</v>
+        <v>0.4425</v>
       </c>
       <c r="C198">
-        <v>0.2135</v>
+        <v>0.2133</v>
       </c>
       <c r="D198">
-        <v>0.2309</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3901,13 +3901,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4463</v>
+        <v>0.4445</v>
       </c>
       <c r="C199">
-        <v>0.2155</v>
+        <v>0.2153</v>
       </c>
       <c r="D199">
-        <v>0.2308</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3915,13 +3915,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4461</v>
+        <v>0.4443</v>
       </c>
       <c r="C200">
-        <v>0.2157</v>
+        <v>0.2155</v>
       </c>
       <c r="D200">
-        <v>0.2304</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3929,13 +3929,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4461</v>
+        <v>0.4444</v>
       </c>
       <c r="C201">
-        <v>0.216</v>
+        <v>0.2158</v>
       </c>
       <c r="D201">
-        <v>0.2301</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3943,13 +3943,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4459</v>
+        <v>0.4442</v>
       </c>
       <c r="C202">
-        <v>0.2162</v>
+        <v>0.216</v>
       </c>
       <c r="D202">
-        <v>0.2297</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3957,13 +3957,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4457</v>
+        <v>0.444</v>
       </c>
       <c r="C203">
-        <v>0.2164</v>
+        <v>0.2162</v>
       </c>
       <c r="D203">
-        <v>0.2293</v>
+        <v>0.2278</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3971,13 +3971,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4452</v>
+        <v>0.4435</v>
       </c>
       <c r="C204">
-        <v>0.2164</v>
+        <v>0.2162</v>
       </c>
       <c r="D204">
-        <v>0.2287</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3985,13 +3985,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4453</v>
+        <v>0.4436</v>
       </c>
       <c r="C205">
-        <v>0.2171</v>
+        <v>0.2169</v>
       </c>
       <c r="D205">
-        <v>0.2282</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3999,13 +3999,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.445</v>
+        <v>0.4434</v>
       </c>
       <c r="C206">
-        <v>0.2173</v>
+        <v>0.2171</v>
       </c>
       <c r="D206">
-        <v>0.2277</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4013,13 +4013,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4448</v>
+        <v>0.4432</v>
       </c>
       <c r="C207">
-        <v>0.2177</v>
+        <v>0.2175</v>
       </c>
       <c r="D207">
-        <v>0.2271</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4027,13 +4027,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4443</v>
+        <v>0.4428</v>
       </c>
       <c r="C208">
-        <v>0.2176</v>
+        <v>0.2174</v>
       </c>
       <c r="D208">
-        <v>0.2267</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4041,13 +4041,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4457</v>
+        <v>0.4442</v>
       </c>
       <c r="C209">
-        <v>0.2193</v>
+        <v>0.2191</v>
       </c>
       <c r="D209">
-        <v>0.2264</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4055,13 +4055,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4453</v>
+        <v>0.4437</v>
       </c>
       <c r="C210">
-        <v>0.2194</v>
+        <v>0.2192</v>
       </c>
       <c r="D210">
-        <v>0.2259</v>
+        <v>0.2245</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4069,13 +4069,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4445</v>
+        <v>0.443</v>
       </c>
       <c r="C211">
-        <v>0.2191</v>
+        <v>0.2189</v>
       </c>
       <c r="D211">
-        <v>0.2254</v>
+        <v>0.2241</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4083,13 +4083,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4441</v>
+        <v>0.4426</v>
       </c>
       <c r="C212">
-        <v>0.2189</v>
+        <v>0.2187</v>
       </c>
       <c r="D212">
-        <v>0.2252</v>
+        <v>0.2239</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4097,13 +4097,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4438</v>
+        <v>0.4423</v>
       </c>
       <c r="C213">
-        <v>0.2186</v>
+        <v>0.2184</v>
       </c>
       <c r="D213">
-        <v>0.2252</v>
+        <v>0.2239</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4111,13 +4111,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4427</v>
+        <v>0.4413</v>
       </c>
       <c r="C214">
-        <v>0.2176</v>
+        <v>0.2174</v>
       </c>
       <c r="D214">
-        <v>0.2252</v>
+        <v>0.2239</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4125,13 +4125,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4424</v>
+        <v>0.441</v>
       </c>
       <c r="C215">
-        <v>0.2169</v>
+        <v>0.2168</v>
       </c>
       <c r="D215">
-        <v>0.2255</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4139,13 +4139,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4427</v>
+        <v>0.4413</v>
       </c>
       <c r="C216">
-        <v>0.2166</v>
+        <v>0.2165</v>
       </c>
       <c r="D216">
-        <v>0.2261</v>
+        <v>0.2248</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4153,13 +4153,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.443</v>
+        <v>0.4416</v>
       </c>
       <c r="C217">
-        <v>0.2163</v>
+        <v>0.2162</v>
       </c>
       <c r="D217">
-        <v>0.2267</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4167,13 +4167,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4435</v>
+        <v>0.442</v>
       </c>
       <c r="C218">
-        <v>0.2163</v>
+        <v>0.2162</v>
       </c>
       <c r="D218">
-        <v>0.2271</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4181,13 +4181,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4433</v>
+        <v>0.4419</v>
       </c>
       <c r="C219">
-        <v>0.216</v>
+        <v>0.2158</v>
       </c>
       <c r="D219">
-        <v>0.2273</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4195,13 +4195,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4431</v>
+        <v>0.4417</v>
       </c>
       <c r="C220">
-        <v>0.2156</v>
+        <v>0.2154</v>
       </c>
       <c r="D220">
-        <v>0.2275</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4209,13 +4209,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4436</v>
+        <v>0.4421</v>
       </c>
       <c r="C221">
-        <v>0.2155</v>
+        <v>0.2153</v>
       </c>
       <c r="D221">
-        <v>0.2281</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4223,13 +4223,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.4446</v>
+        <v>0.4431</v>
       </c>
       <c r="C222">
-        <v>0.2154</v>
+        <v>0.2153</v>
       </c>
       <c r="D222">
-        <v>0.2291</v>
+        <v>0.2278</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4237,13 +4237,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.446</v>
+        <v>0.4445</v>
       </c>
       <c r="C223">
-        <v>0.2156</v>
+        <v>0.2155</v>
       </c>
       <c r="D223">
-        <v>0.2304</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4251,13 +4251,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.4476</v>
+        <v>0.446</v>
       </c>
       <c r="C224">
-        <v>0.2159</v>
+        <v>0.2158</v>
       </c>
       <c r="D224">
-        <v>0.2316</v>
+        <v>0.2303</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4265,13 +4265,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.4489</v>
+        <v>0.4473</v>
       </c>
       <c r="C225">
-        <v>0.2161</v>
+        <v>0.2159</v>
       </c>
       <c r="D225">
-        <v>0.2328</v>
+        <v>0.2314</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4279,13 +4279,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.4502</v>
+        <v>0.4486</v>
       </c>
       <c r="C226">
-        <v>0.2164</v>
+        <v>0.2162</v>
       </c>
       <c r="D226">
-        <v>0.2338</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4293,13 +4293,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.4515</v>
+        <v>0.45</v>
       </c>
       <c r="C227">
-        <v>0.2166</v>
+        <v>0.2165</v>
       </c>
       <c r="D227">
-        <v>0.2349</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4307,13 +4307,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4532</v>
+        <v>0.4516</v>
       </c>
       <c r="C228">
-        <v>0.2173</v>
+        <v>0.2172</v>
       </c>
       <c r="D228">
-        <v>0.2359</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4321,13 +4321,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4528</v>
+        <v>0.4512</v>
       </c>
       <c r="C229">
-        <v>0.2162</v>
+        <v>0.2161</v>
       </c>
       <c r="D229">
-        <v>0.2366</v>
+        <v>0.2351</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4335,13 +4335,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4521</v>
+        <v>0.4505</v>
       </c>
       <c r="C230">
-        <v>0.2152</v>
+        <v>0.215</v>
       </c>
       <c r="D230">
-        <v>0.2369</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4349,13 +4349,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.452</v>
+        <v>0.4504</v>
       </c>
       <c r="C231">
-        <v>0.2147</v>
+        <v>0.2145</v>
       </c>
       <c r="D231">
-        <v>0.2373</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4363,13 +4363,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4515</v>
+        <v>0.4499</v>
       </c>
       <c r="C232">
-        <v>0.2141</v>
+        <v>0.2139</v>
       </c>
       <c r="D232">
-        <v>0.2374</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4377,13 +4377,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.451</v>
+        <v>0.4494</v>
       </c>
       <c r="C233">
-        <v>0.2137</v>
+        <v>0.2135</v>
       </c>
       <c r="D233">
-        <v>0.2373</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4391,13 +4391,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4507</v>
+        <v>0.449</v>
       </c>
       <c r="C234">
-        <v>0.2132</v>
+        <v>0.2131</v>
       </c>
       <c r="D234">
-        <v>0.2374</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4405,13 +4405,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4499</v>
+        <v>0.4483</v>
       </c>
       <c r="C235">
-        <v>0.2125</v>
+        <v>0.2123</v>
       </c>
       <c r="D235">
-        <v>0.2374</v>
+        <v>0.2359</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4419,13 +4419,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4491</v>
+        <v>0.4474</v>
       </c>
       <c r="C236">
-        <v>0.2115</v>
+        <v>0.2114</v>
       </c>
       <c r="D236">
-        <v>0.2375</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4433,13 +4433,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4467</v>
+        <v>0.445</v>
       </c>
       <c r="C237">
-        <v>0.2098</v>
+        <v>0.2096</v>
       </c>
       <c r="D237">
-        <v>0.2369</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4447,13 +4447,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4436</v>
+        <v>0.442</v>
       </c>
       <c r="C238">
-        <v>0.2076</v>
+        <v>0.2074</v>
       </c>
       <c r="D238">
-        <v>0.236</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4461,13 +4461,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4407</v>
+        <v>0.4391</v>
       </c>
       <c r="C239">
-        <v>0.2057</v>
+        <v>0.2056</v>
       </c>
       <c r="D239">
-        <v>0.235</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4475,13 +4475,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4375</v>
+        <v>0.4359</v>
       </c>
       <c r="C240">
-        <v>0.2038</v>
+        <v>0.2036</v>
       </c>
       <c r="D240">
-        <v>0.2337</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4489,13 +4489,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.4334</v>
+        <v>0.4318</v>
       </c>
       <c r="C241">
-        <v>0.2016</v>
+        <v>0.2014</v>
       </c>
       <c r="D241">
-        <v>0.2318</v>
+        <v>0.2304</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4503,13 +4503,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4293</v>
+        <v>0.4277</v>
       </c>
       <c r="C242">
-        <v>0.1997</v>
+        <v>0.1996</v>
       </c>
       <c r="D242">
-        <v>0.2296</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4517,13 +4517,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4247</v>
+        <v>0.4231</v>
       </c>
       <c r="C243">
-        <v>0.1978</v>
+        <v>0.1977</v>
       </c>
       <c r="D243">
-        <v>0.2269</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4531,13 +4531,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4204</v>
+        <v>0.4188</v>
       </c>
       <c r="C244">
-        <v>0.1958</v>
+        <v>0.1957</v>
       </c>
       <c r="D244">
-        <v>0.2245</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4545,13 +4545,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4167</v>
+        <v>0.4152</v>
       </c>
       <c r="C245">
-        <v>0.1942</v>
+        <v>0.1941</v>
       </c>
       <c r="D245">
-        <v>0.2225</v>
+        <v>0.2211</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4559,13 +4559,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4139</v>
+        <v>0.4123</v>
       </c>
       <c r="C246">
-        <v>0.1931</v>
+        <v>0.1929</v>
       </c>
       <c r="D246">
-        <v>0.2208</v>
+        <v>0.2194</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2018 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2018 - Diaria.xlsx
@@ -1143,13 +1143,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2158</v>
+        <v>0.2161</v>
       </c>
       <c r="C2">
         <v>0.09420000000000001</v>
       </c>
       <c r="D2">
-        <v>0.1216</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1157,13 +1157,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2117</v>
+        <v>0.212</v>
       </c>
       <c r="C3">
-        <v>0.09320000000000001</v>
+        <v>0.09329999999999999</v>
       </c>
       <c r="D3">
-        <v>0.1184</v>
+        <v>0.1187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1171,13 +1171,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2074</v>
+        <v>0.2077</v>
       </c>
       <c r="C4">
         <v>0.0922</v>
       </c>
       <c r="D4">
-        <v>0.1152</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1185,13 +1185,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2028</v>
+        <v>0.2032</v>
       </c>
       <c r="C5">
         <v>0.0907</v>
       </c>
       <c r="D5">
-        <v>0.1122</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1199,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.1985</v>
+        <v>0.1988</v>
       </c>
       <c r="C6">
-        <v>0.0892</v>
+        <v>0.0893</v>
       </c>
       <c r="D6">
-        <v>0.1093</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1213,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1942</v>
+        <v>0.1945</v>
       </c>
       <c r="C7">
-        <v>0.0876</v>
+        <v>0.0877</v>
       </c>
       <c r="D7">
-        <v>0.1065</v>
+        <v>0.1068</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.1896</v>
+        <v>0.19</v>
       </c>
       <c r="C8">
         <v>0.0861</v>
       </c>
       <c r="D8">
-        <v>0.1036</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1241,13 +1241,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.1857</v>
+        <v>0.1861</v>
       </c>
       <c r="C9">
-        <v>0.08450000000000001</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="D9">
-        <v>0.1012</v>
+        <v>0.1014</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1255,13 +1255,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.1813</v>
+        <v>0.1817</v>
       </c>
       <c r="C10">
-        <v>0.0825</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="D10">
-        <v>0.0988</v>
+        <v>0.09909999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1269,13 +1269,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1764</v>
+        <v>0.1768</v>
       </c>
       <c r="C11">
-        <v>0.0801</v>
+        <v>0.08019999999999999</v>
       </c>
       <c r="D11">
-        <v>0.0964</v>
+        <v>0.09669999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1283,13 +1283,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.1713</v>
+        <v>0.1717</v>
       </c>
       <c r="C12">
-        <v>0.0772</v>
+        <v>0.07729999999999999</v>
       </c>
       <c r="D12">
-        <v>0.0941</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1297,13 +1297,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.1668</v>
+        <v>0.1673</v>
       </c>
       <c r="C13">
-        <v>0.075</v>
+        <v>0.0751</v>
       </c>
       <c r="D13">
-        <v>0.09180000000000001</v>
+        <v>0.0922</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1311,13 +1311,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.1606</v>
+        <v>0.161</v>
       </c>
       <c r="C14">
-        <v>0.0711</v>
+        <v>0.0712</v>
       </c>
       <c r="D14">
-        <v>0.0895</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1325,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.1552</v>
+        <v>0.1556</v>
       </c>
       <c r="C15">
-        <v>0.0678</v>
+        <v>0.0679</v>
       </c>
       <c r="D15">
-        <v>0.08740000000000001</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1339,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.1504</v>
+        <v>0.1509</v>
       </c>
       <c r="C16">
-        <v>0.0648</v>
+        <v>0.0649</v>
       </c>
       <c r="D16">
-        <v>0.0857</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1353,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.1464</v>
+        <v>0.1468</v>
       </c>
       <c r="C17">
-        <v>0.0621</v>
+        <v>0.0622</v>
       </c>
       <c r="D17">
-        <v>0.0843</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1367,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.1435</v>
+        <v>0.1439</v>
       </c>
       <c r="C18">
-        <v>0.06</v>
+        <v>0.0602</v>
       </c>
       <c r="D18">
-        <v>0.0834</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1381,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.1409</v>
+        <v>0.1413</v>
       </c>
       <c r="C19">
-        <v>0.0579</v>
+        <v>0.058</v>
       </c>
       <c r="D19">
-        <v>0.083</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1395,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.1394</v>
+        <v>0.1399</v>
       </c>
       <c r="C20">
-        <v>0.0566</v>
+        <v>0.0567</v>
       </c>
       <c r="D20">
-        <v>0.0829</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1409,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.138</v>
+        <v>0.1385</v>
       </c>
       <c r="C21">
-        <v>0.0546</v>
+        <v>0.0548</v>
       </c>
       <c r="D21">
-        <v>0.0834</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1423,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.138</v>
+        <v>0.1385</v>
       </c>
       <c r="C22">
-        <v>0.0538</v>
+        <v>0.0539</v>
       </c>
       <c r="D22">
-        <v>0.0843</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1437,13 +1437,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.1383</v>
+        <v>0.1388</v>
       </c>
       <c r="C23">
-        <v>0.0531</v>
+        <v>0.0532</v>
       </c>
       <c r="D23">
-        <v>0.0852</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1451,13 +1451,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.1387</v>
+        <v>0.1392</v>
       </c>
       <c r="C24">
-        <v>0.0524</v>
+        <v>0.0525</v>
       </c>
       <c r="D24">
-        <v>0.0864</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1465,13 +1465,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.14</v>
+        <v>0.1405</v>
       </c>
       <c r="C25">
-        <v>0.0522</v>
+        <v>0.0523</v>
       </c>
       <c r="D25">
-        <v>0.08790000000000001</v>
+        <v>0.0882</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1479,13 +1479,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.1408</v>
+        <v>0.1413</v>
       </c>
       <c r="C26">
-        <v>0.0515</v>
+        <v>0.0516</v>
       </c>
       <c r="D26">
-        <v>0.0893</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1493,13 +1493,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.1421</v>
+        <v>0.1426</v>
       </c>
       <c r="C27">
-        <v>0.0511</v>
+        <v>0.0512</v>
       </c>
       <c r="D27">
-        <v>0.0911</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1507,13 +1507,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.1436</v>
+        <v>0.144</v>
       </c>
       <c r="C28">
-        <v>0.0506</v>
+        <v>0.0507</v>
       </c>
       <c r="D28">
-        <v>0.0929</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1521,13 +1521,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.1455</v>
+        <v>0.1459</v>
       </c>
       <c r="C29">
-        <v>0.0509</v>
+        <v>0.051</v>
       </c>
       <c r="D29">
-        <v>0.0946</v>
+        <v>0.0949</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1535,13 +1535,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.1479</v>
+        <v>0.1483</v>
       </c>
       <c r="C30">
-        <v>0.0515</v>
+        <v>0.0516</v>
       </c>
       <c r="D30">
-        <v>0.0964</v>
+        <v>0.09669999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1549,13 +1549,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.15</v>
+        <v>0.1504</v>
       </c>
       <c r="C31">
         <v>0.0518</v>
       </c>
       <c r="D31">
-        <v>0.0982</v>
+        <v>0.09859999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1563,13 +1563,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.1527</v>
+        <v>0.1531</v>
       </c>
       <c r="C32">
         <v>0.0526</v>
       </c>
       <c r="D32">
-        <v>0.1001</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1577,13 +1577,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.1547</v>
+        <v>0.1552</v>
       </c>
       <c r="C33">
-        <v>0.053</v>
+        <v>0.0531</v>
       </c>
       <c r="D33">
-        <v>0.1018</v>
+        <v>0.1021</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1591,13 +1591,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.1567</v>
+        <v>0.1571</v>
       </c>
       <c r="C34">
-        <v>0.0535</v>
+        <v>0.0536</v>
       </c>
       <c r="D34">
-        <v>0.1032</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1605,13 +1605,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.158</v>
+        <v>0.1584</v>
       </c>
       <c r="C35">
-        <v>0.0536</v>
+        <v>0.0537</v>
       </c>
       <c r="D35">
-        <v>0.1044</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1619,13 +1619,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.1589</v>
+        <v>0.1593</v>
       </c>
       <c r="C36">
-        <v>0.0535</v>
+        <v>0.0536</v>
       </c>
       <c r="D36">
-        <v>0.1053</v>
+        <v>0.1057</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1633,13 +1633,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.1595</v>
+        <v>0.1599</v>
       </c>
       <c r="C37">
-        <v>0.0534</v>
+        <v>0.0535</v>
       </c>
       <c r="D37">
-        <v>0.1061</v>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1647,13 +1647,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.1591</v>
+        <v>0.1595</v>
       </c>
       <c r="C38">
-        <v>0.0527</v>
+        <v>0.0528</v>
       </c>
       <c r="D38">
-        <v>0.1065</v>
+        <v>0.1068</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1661,13 +1661,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.1586</v>
+        <v>0.159</v>
       </c>
       <c r="C39">
-        <v>0.052</v>
+        <v>0.0521</v>
       </c>
       <c r="D39">
-        <v>0.1066</v>
+        <v>0.1069</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1675,13 +1675,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.1578</v>
+        <v>0.1582</v>
       </c>
       <c r="C40">
-        <v>0.0512</v>
+        <v>0.0513</v>
       </c>
       <c r="D40">
-        <v>0.1066</v>
+        <v>0.1069</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1689,13 +1689,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.1568</v>
+        <v>0.1572</v>
       </c>
       <c r="C41">
-        <v>0.0506</v>
+        <v>0.0507</v>
       </c>
       <c r="D41">
-        <v>0.1062</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1703,13 +1703,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.1553</v>
+        <v>0.1557</v>
       </c>
       <c r="C42">
         <v>0.0498</v>
       </c>
       <c r="D42">
-        <v>0.1056</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1717,13 +1717,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.1532</v>
+        <v>0.1536</v>
       </c>
       <c r="C43">
-        <v>0.0485</v>
+        <v>0.0486</v>
       </c>
       <c r="D43">
-        <v>0.1047</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1731,13 +1731,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.1512</v>
+        <v>0.1516</v>
       </c>
       <c r="C44">
-        <v>0.0474</v>
+        <v>0.0475</v>
       </c>
       <c r="D44">
-        <v>0.1038</v>
+        <v>0.1041</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1745,13 +1745,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.1485</v>
+        <v>0.1489</v>
       </c>
       <c r="C45">
         <v>0.0461</v>
       </c>
       <c r="D45">
-        <v>0.1024</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1759,13 +1759,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.1461</v>
+        <v>0.1465</v>
       </c>
       <c r="C46">
-        <v>0.045</v>
+        <v>0.0451</v>
       </c>
       <c r="D46">
-        <v>0.1011</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1773,13 +1773,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.1434</v>
+        <v>0.1439</v>
       </c>
       <c r="C47">
-        <v>0.0438</v>
+        <v>0.0439</v>
       </c>
       <c r="D47">
-        <v>0.0997</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1787,13 +1787,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.1413</v>
+        <v>0.1417</v>
       </c>
       <c r="C48">
-        <v>0.043</v>
+        <v>0.0431</v>
       </c>
       <c r="D48">
-        <v>0.0983</v>
+        <v>0.0987</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1801,13 +1801,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.1387</v>
+        <v>0.1391</v>
       </c>
       <c r="C49">
-        <v>0.0417</v>
+        <v>0.0418</v>
       </c>
       <c r="D49">
-        <v>0.0969</v>
+        <v>0.0973</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1815,13 +1815,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.1363</v>
+        <v>0.1367</v>
       </c>
       <c r="C50">
-        <v>0.0406</v>
+        <v>0.0407</v>
       </c>
       <c r="D50">
-        <v>0.0956</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1829,13 +1829,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.1342</v>
+        <v>0.1346</v>
       </c>
       <c r="C51">
-        <v>0.0398</v>
+        <v>0.0399</v>
       </c>
       <c r="D51">
-        <v>0.0944</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1843,13 +1843,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.132</v>
+        <v>0.1324</v>
       </c>
       <c r="C52">
-        <v>0.0388</v>
+        <v>0.0389</v>
       </c>
       <c r="D52">
-        <v>0.09320000000000001</v>
+        <v>0.0935</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1857,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.13</v>
+        <v>0.1305</v>
       </c>
       <c r="C53">
-        <v>0.038</v>
+        <v>0.0381</v>
       </c>
       <c r="D53">
-        <v>0.092</v>
+        <v>0.0924</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1871,13 +1871,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.1284</v>
+        <v>0.1289</v>
       </c>
       <c r="C54">
-        <v>0.0374</v>
+        <v>0.0375</v>
       </c>
       <c r="D54">
-        <v>0.091</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1885,13 +1885,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.1271</v>
+        <v>0.1275</v>
       </c>
       <c r="C55">
-        <v>0.037</v>
+        <v>0.0371</v>
       </c>
       <c r="D55">
-        <v>0.0901</v>
+        <v>0.0905</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1899,13 +1899,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.1262</v>
+        <v>0.1266</v>
       </c>
       <c r="C56">
-        <v>0.0367</v>
+        <v>0.0368</v>
       </c>
       <c r="D56">
-        <v>0.08939999999999999</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1913,13 +1913,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.1254</v>
+        <v>0.1259</v>
       </c>
       <c r="C57">
-        <v>0.0366</v>
+        <v>0.0367</v>
       </c>
       <c r="D57">
-        <v>0.0888</v>
+        <v>0.0892</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1927,13 +1927,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.1255</v>
+        <v>0.126</v>
       </c>
       <c r="C58">
-        <v>0.037</v>
+        <v>0.0371</v>
       </c>
       <c r="D58">
-        <v>0.0885</v>
+        <v>0.0888</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1941,13 +1941,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.1261</v>
+        <v>0.1266</v>
       </c>
       <c r="C59">
-        <v>0.0379</v>
+        <v>0.038</v>
       </c>
       <c r="D59">
-        <v>0.0882</v>
+        <v>0.0886</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1955,13 +1955,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.1265</v>
+        <v>0.1269</v>
       </c>
       <c r="C60">
-        <v>0.0385</v>
+        <v>0.0386</v>
       </c>
       <c r="D60">
-        <v>0.08790000000000001</v>
+        <v>0.0883</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1969,13 +1969,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.1269</v>
+        <v>0.1274</v>
       </c>
       <c r="C61">
-        <v>0.0393</v>
+        <v>0.0394</v>
       </c>
       <c r="D61">
-        <v>0.0876</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1983,13 +1983,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.1276</v>
+        <v>0.128</v>
       </c>
       <c r="C62">
-        <v>0.0402</v>
+        <v>0.0403</v>
       </c>
       <c r="D62">
-        <v>0.08740000000000001</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1997,13 +1997,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.1285</v>
+        <v>0.1289</v>
       </c>
       <c r="C63">
-        <v>0.0412</v>
+        <v>0.0413</v>
       </c>
       <c r="D63">
-        <v>0.0873</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2011,13 +2011,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.1297</v>
+        <v>0.1302</v>
       </c>
       <c r="C64">
-        <v>0.0424</v>
+        <v>0.0425</v>
       </c>
       <c r="D64">
-        <v>0.0873</v>
+        <v>0.0877</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2025,13 +2025,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.1305</v>
+        <v>0.1309</v>
       </c>
       <c r="C65">
-        <v>0.0432</v>
+        <v>0.0433</v>
       </c>
       <c r="D65">
-        <v>0.0873</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2039,13 +2039,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.1309</v>
+        <v>0.1313</v>
       </c>
       <c r="C66">
-        <v>0.0438</v>
+        <v>0.0439</v>
       </c>
       <c r="D66">
-        <v>0.08699999999999999</v>
+        <v>0.08740000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.1316</v>
+        <v>0.132</v>
       </c>
       <c r="C67">
         <v>0.0447</v>
       </c>
       <c r="D67">
-        <v>0.08690000000000001</v>
+        <v>0.0872</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2067,13 +2067,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.1316</v>
+        <v>0.1321</v>
       </c>
       <c r="C68">
         <v>0.0451</v>
       </c>
       <c r="D68">
-        <v>0.0866</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2081,13 +2081,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.1317</v>
+        <v>0.1321</v>
       </c>
       <c r="C69">
-        <v>0.0454</v>
+        <v>0.0455</v>
       </c>
       <c r="D69">
-        <v>0.0863</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2095,13 +2095,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.1314</v>
+        <v>0.1319</v>
       </c>
       <c r="C70">
         <v>0.0456</v>
       </c>
       <c r="D70">
-        <v>0.0859</v>
+        <v>0.0862</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2109,13 +2109,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.1313</v>
+        <v>0.1317</v>
       </c>
       <c r="C71">
-        <v>0.0458</v>
+        <v>0.0459</v>
       </c>
       <c r="D71">
-        <v>0.08550000000000001</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2123,13 +2123,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.1314</v>
+        <v>0.1318</v>
       </c>
       <c r="C72">
         <v>0.0462</v>
       </c>
       <c r="D72">
-        <v>0.0852</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2137,13 +2137,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.1317</v>
+        <v>0.1322</v>
       </c>
       <c r="C73">
-        <v>0.0466</v>
+        <v>0.0467</v>
       </c>
       <c r="D73">
-        <v>0.0851</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2151,13 +2151,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.1319</v>
+        <v>0.1324</v>
       </c>
       <c r="C74">
-        <v>0.0469</v>
+        <v>0.047</v>
       </c>
       <c r="D74">
-        <v>0.0851</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2165,13 +2165,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.1323</v>
+        <v>0.1327</v>
       </c>
       <c r="C75">
         <v>0.0473</v>
       </c>
       <c r="D75">
-        <v>0.08500000000000001</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.1322</v>
+        <v>0.1326</v>
       </c>
       <c r="C76">
-        <v>0.0474</v>
+        <v>0.0475</v>
       </c>
       <c r="D76">
-        <v>0.0848</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2193,13 +2193,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.1324</v>
+        <v>0.1328</v>
       </c>
       <c r="C77">
-        <v>0.0478</v>
+        <v>0.0479</v>
       </c>
       <c r="D77">
-        <v>0.08459999999999999</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2207,13 +2207,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.132</v>
+        <v>0.1324</v>
       </c>
       <c r="C78">
-        <v>0.0478</v>
+        <v>0.0479</v>
       </c>
       <c r="D78">
-        <v>0.0842</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2221,13 +2221,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1315</v>
+        <v>0.1319</v>
       </c>
       <c r="C79">
-        <v>0.0476</v>
+        <v>0.0477</v>
       </c>
       <c r="D79">
-        <v>0.0839</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2235,13 +2235,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.1322</v>
+        <v>0.1326</v>
       </c>
       <c r="C80">
-        <v>0.0484</v>
+        <v>0.0485</v>
       </c>
       <c r="D80">
-        <v>0.0838</v>
+        <v>0.08409999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2249,13 +2249,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1329</v>
+        <v>0.1334</v>
       </c>
       <c r="C81">
         <v>0.0491</v>
       </c>
       <c r="D81">
-        <v>0.0839</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2263,13 +2263,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1349</v>
+        <v>0.1353</v>
       </c>
       <c r="C82">
         <v>0.0504</v>
       </c>
       <c r="D82">
-        <v>0.08450000000000001</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2277,13 +2277,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.1367</v>
+        <v>0.1371</v>
       </c>
       <c r="C83">
         <v>0.0515</v>
       </c>
       <c r="D83">
-        <v>0.0852</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2291,13 +2291,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1389</v>
+        <v>0.1393</v>
       </c>
       <c r="C84">
         <v>0.0529</v>
       </c>
       <c r="D84">
-        <v>0.08599999999999999</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2305,13 +2305,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.142</v>
+        <v>0.1423</v>
       </c>
       <c r="C85">
-        <v>0.055</v>
+        <v>0.0551</v>
       </c>
       <c r="D85">
-        <v>0.08690000000000001</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2319,13 +2319,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.146</v>
+        <v>0.1464</v>
       </c>
       <c r="C86">
         <v>0.0579</v>
       </c>
       <c r="D86">
-        <v>0.0881</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2333,13 +2333,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.1494</v>
+        <v>0.1498</v>
       </c>
       <c r="C87">
         <v>0.0602</v>
       </c>
       <c r="D87">
-        <v>0.0893</v>
+        <v>0.0896</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2347,13 +2347,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.1529</v>
+        <v>0.1533</v>
       </c>
       <c r="C88">
         <v>0.0623</v>
       </c>
       <c r="D88">
-        <v>0.0906</v>
+        <v>0.09089999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2361,13 +2361,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.157</v>
+        <v>0.1574</v>
       </c>
       <c r="C89">
         <v>0.065</v>
       </c>
       <c r="D89">
-        <v>0.092</v>
+        <v>0.0924</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2375,13 +2375,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.1614</v>
+        <v>0.1617</v>
       </c>
       <c r="C90">
         <v>0.0678</v>
       </c>
       <c r="D90">
-        <v>0.0936</v>
+        <v>0.0939</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2389,13 +2389,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.1658</v>
+        <v>0.1662</v>
       </c>
       <c r="C91">
         <v>0.0706</v>
       </c>
       <c r="D91">
-        <v>0.09520000000000001</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2403,13 +2403,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.1705</v>
+        <v>0.1709</v>
       </c>
       <c r="C92">
         <v>0.0736</v>
       </c>
       <c r="D92">
-        <v>0.097</v>
+        <v>0.0973</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2417,13 +2417,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.175</v>
+        <v>0.1754</v>
       </c>
       <c r="C93">
         <v>0.07630000000000001</v>
       </c>
       <c r="D93">
-        <v>0.0988</v>
+        <v>0.09909999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2431,13 +2431,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.1797</v>
+        <v>0.18</v>
       </c>
       <c r="C94">
         <v>0.079</v>
       </c>
       <c r="D94">
-        <v>0.1006</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2445,13 +2445,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.1848</v>
+        <v>0.1851</v>
       </c>
       <c r="C95">
         <v>0.0819</v>
       </c>
       <c r="D95">
-        <v>0.1029</v>
+        <v>0.1032</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2459,13 +2459,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.19</v>
+        <v>0.1903</v>
       </c>
       <c r="C96">
-        <v>0.0847</v>
+        <v>0.0848</v>
       </c>
       <c r="D96">
-        <v>0.1052</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2473,13 +2473,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.1951</v>
+        <v>0.1954</v>
       </c>
       <c r="C97">
         <v>0.0873</v>
       </c>
       <c r="D97">
-        <v>0.1077</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2487,13 +2487,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2009</v>
+        <v>0.2012</v>
       </c>
       <c r="C98">
         <v>0.0901</v>
       </c>
       <c r="D98">
-        <v>0.1107</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2501,13 +2501,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2078</v>
+        <v>0.2082</v>
       </c>
       <c r="C99">
         <v>0.0939</v>
       </c>
       <c r="D99">
-        <v>0.1139</v>
+        <v>0.1143</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2515,13 +2515,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2136</v>
+        <v>0.2139</v>
       </c>
       <c r="C100">
         <v>0.09660000000000001</v>
       </c>
       <c r="D100">
-        <v>0.117</v>
+        <v>0.1173</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2529,13 +2529,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2193</v>
+        <v>0.2196</v>
       </c>
       <c r="C101">
         <v>0.0992</v>
       </c>
       <c r="D101">
-        <v>0.1201</v>
+        <v>0.1204</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2543,13 +2543,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2238</v>
+        <v>0.2241</v>
       </c>
       <c r="C102">
         <v>0.1012</v>
       </c>
       <c r="D102">
-        <v>0.1226</v>
+        <v>0.1229</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2557,13 +2557,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2285</v>
+        <v>0.2289</v>
       </c>
       <c r="C103">
         <v>0.1033</v>
       </c>
       <c r="D103">
-        <v>0.1252</v>
+        <v>0.1256</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2571,13 +2571,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2332</v>
+        <v>0.2336</v>
       </c>
       <c r="C104">
         <v>0.1054</v>
       </c>
       <c r="D104">
-        <v>0.1279</v>
+        <v>0.1282</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2585,13 +2585,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2371</v>
+        <v>0.2375</v>
       </c>
       <c r="C105">
         <v>0.1067</v>
       </c>
       <c r="D105">
-        <v>0.1305</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2599,13 +2599,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2403</v>
+        <v>0.2406</v>
       </c>
       <c r="C106">
-        <v>0.1072</v>
+        <v>0.1073</v>
       </c>
       <c r="D106">
-        <v>0.133</v>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2613,13 +2613,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2433</v>
+        <v>0.2437</v>
       </c>
       <c r="C107">
         <v>0.1078</v>
       </c>
       <c r="D107">
-        <v>0.1355</v>
+        <v>0.1358</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2627,13 +2627,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2461</v>
+        <v>0.2465</v>
       </c>
       <c r="C108">
-        <v>0.1082</v>
+        <v>0.1083</v>
       </c>
       <c r="D108">
-        <v>0.1379</v>
+        <v>0.1382</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2641,13 +2641,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2483</v>
+        <v>0.2487</v>
       </c>
       <c r="C109">
-        <v>0.108</v>
+        <v>0.1081</v>
       </c>
       <c r="D109">
-        <v>0.1403</v>
+        <v>0.1406</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2655,13 +2655,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2502</v>
+        <v>0.2506</v>
       </c>
       <c r="C110">
         <v>0.1076</v>
       </c>
       <c r="D110">
-        <v>0.1427</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2669,13 +2669,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.252</v>
+        <v>0.2524</v>
       </c>
       <c r="C111">
-        <v>0.1069</v>
+        <v>0.107</v>
       </c>
       <c r="D111">
-        <v>0.1451</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2683,13 +2683,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.254</v>
+        <v>0.2544</v>
       </c>
       <c r="C112">
-        <v>0.1065</v>
+        <v>0.1066</v>
       </c>
       <c r="D112">
-        <v>0.1475</v>
+        <v>0.1478</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2697,13 +2697,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.256</v>
+        <v>0.2564</v>
       </c>
       <c r="C113">
-        <v>0.1062</v>
+        <v>0.1063</v>
       </c>
       <c r="D113">
-        <v>0.1498</v>
+        <v>0.1501</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2711,13 +2711,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2584</v>
+        <v>0.2588</v>
       </c>
       <c r="C114">
-        <v>0.1061</v>
+        <v>0.1062</v>
       </c>
       <c r="D114">
-        <v>0.1523</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2725,13 +2725,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.261</v>
+        <v>0.2614</v>
       </c>
       <c r="C115">
-        <v>0.1064</v>
+        <v>0.1065</v>
       </c>
       <c r="D115">
-        <v>0.1546</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2739,13 +2739,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2643</v>
+        <v>0.2647</v>
       </c>
       <c r="C116">
-        <v>0.1071</v>
+        <v>0.1072</v>
       </c>
       <c r="D116">
-        <v>0.1572</v>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2753,13 +2753,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.2676</v>
+        <v>0.268</v>
       </c>
       <c r="C117">
-        <v>0.1079</v>
+        <v>0.108</v>
       </c>
       <c r="D117">
-        <v>0.1597</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2767,13 +2767,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2705</v>
+        <v>0.2709</v>
       </c>
       <c r="C118">
-        <v>0.1086</v>
+        <v>0.1087</v>
       </c>
       <c r="D118">
-        <v>0.1619</v>
+        <v>0.1622</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2781,13 +2781,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2724</v>
+        <v>0.2729</v>
       </c>
       <c r="C119">
-        <v>0.1084</v>
+        <v>0.1085</v>
       </c>
       <c r="D119">
-        <v>0.1641</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2795,13 +2795,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.2745</v>
+        <v>0.275</v>
       </c>
       <c r="C120">
-        <v>0.1082</v>
+        <v>0.1084</v>
       </c>
       <c r="D120">
-        <v>0.1663</v>
+        <v>0.1666</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2809,13 +2809,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.2768</v>
+        <v>0.2773</v>
       </c>
       <c r="C121">
-        <v>0.1083</v>
+        <v>0.1084</v>
       </c>
       <c r="D121">
-        <v>0.1686</v>
+        <v>0.1689</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2823,13 +2823,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.2796</v>
+        <v>0.28</v>
       </c>
       <c r="C122">
-        <v>0.1086</v>
+        <v>0.1088</v>
       </c>
       <c r="D122">
-        <v>0.171</v>
+        <v>0.1713</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2837,13 +2837,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2823</v>
+        <v>0.2827</v>
       </c>
       <c r="C123">
-        <v>0.1089</v>
+        <v>0.109</v>
       </c>
       <c r="D123">
-        <v>0.1734</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2851,13 +2851,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.2846</v>
+        <v>0.2851</v>
       </c>
       <c r="C124">
-        <v>0.1087</v>
+        <v>0.1088</v>
       </c>
       <c r="D124">
-        <v>0.1759</v>
+        <v>0.1762</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2865,13 +2865,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2877</v>
+        <v>0.2882</v>
       </c>
       <c r="C125">
-        <v>0.1093</v>
+        <v>0.1094</v>
       </c>
       <c r="D125">
-        <v>0.1785</v>
+        <v>0.1788</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2879,13 +2879,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.2916</v>
+        <v>0.292</v>
       </c>
       <c r="C126">
-        <v>0.1104</v>
+        <v>0.1105</v>
       </c>
       <c r="D126">
-        <v>0.1812</v>
+        <v>0.1815</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2893,13 +2893,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.2955</v>
+        <v>0.296</v>
       </c>
       <c r="C127">
-        <v>0.1114</v>
+        <v>0.1116</v>
       </c>
       <c r="D127">
-        <v>0.1841</v>
+        <v>0.1844</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2907,13 +2907,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3</v>
+        <v>0.3004</v>
       </c>
       <c r="C128">
-        <v>0.1129</v>
+        <v>0.113</v>
       </c>
       <c r="D128">
-        <v>0.187</v>
+        <v>0.1874</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2921,13 +2921,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3049</v>
+        <v>0.3053</v>
       </c>
       <c r="C129">
-        <v>0.1147</v>
+        <v>0.1148</v>
       </c>
       <c r="D129">
-        <v>0.1901</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2935,13 +2935,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3099</v>
+        <v>0.3103</v>
       </c>
       <c r="C130">
-        <v>0.1167</v>
+        <v>0.1168</v>
       </c>
       <c r="D130">
-        <v>0.1932</v>
+        <v>0.1936</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2949,13 +2949,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3149</v>
+        <v>0.3153</v>
       </c>
       <c r="C131">
-        <v>0.1185</v>
+        <v>0.1186</v>
       </c>
       <c r="D131">
-        <v>0.1963</v>
+        <v>0.1967</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2963,13 +2963,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.3195</v>
+        <v>0.32</v>
       </c>
       <c r="C132">
-        <v>0.12</v>
+        <v>0.1201</v>
       </c>
       <c r="D132">
-        <v>0.1995</v>
+        <v>0.1999</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2977,13 +2977,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3247</v>
+        <v>0.3251</v>
       </c>
       <c r="C133">
-        <v>0.1218</v>
+        <v>0.1219</v>
       </c>
       <c r="D133">
-        <v>0.2028</v>
+        <v>0.2032</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2991,13 +2991,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.3296</v>
+        <v>0.33</v>
       </c>
       <c r="C134">
-        <v>0.1235</v>
+        <v>0.1236</v>
       </c>
       <c r="D134">
-        <v>0.2061</v>
+        <v>0.2064</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3005,13 +3005,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.335</v>
+        <v>0.3354</v>
       </c>
       <c r="C135">
         <v>0.1251</v>
       </c>
       <c r="D135">
-        <v>0.2099</v>
+        <v>0.2103</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3019,13 +3019,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3404</v>
+        <v>0.3408</v>
       </c>
       <c r="C136">
         <v>0.1262</v>
       </c>
       <c r="D136">
-        <v>0.2142</v>
+        <v>0.2146</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3033,13 +3033,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3463</v>
+        <v>0.3467</v>
       </c>
       <c r="C137">
         <v>0.1274</v>
       </c>
       <c r="D137">
-        <v>0.2189</v>
+        <v>0.2193</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3047,13 +3047,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.352</v>
+        <v>0.3525</v>
       </c>
       <c r="C138">
-        <v>0.1283</v>
+        <v>0.1284</v>
       </c>
       <c r="D138">
-        <v>0.2237</v>
+        <v>0.2241</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3061,13 +3061,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3584</v>
+        <v>0.3588</v>
       </c>
       <c r="C139">
         <v>0.13</v>
       </c>
       <c r="D139">
-        <v>0.2284</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3075,13 +3075,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3647</v>
+        <v>0.3651</v>
       </c>
       <c r="C140">
-        <v>0.1318</v>
+        <v>0.1319</v>
       </c>
       <c r="D140">
-        <v>0.2329</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3089,13 +3089,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.3706</v>
+        <v>0.371</v>
       </c>
       <c r="C141">
         <v>0.1335</v>
       </c>
       <c r="D141">
-        <v>0.2371</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3103,13 +3103,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3767</v>
+        <v>0.3772</v>
       </c>
       <c r="C142">
         <v>0.1355</v>
       </c>
       <c r="D142">
-        <v>0.2412</v>
+        <v>0.2416</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3117,13 +3117,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3824</v>
+        <v>0.3829</v>
       </c>
       <c r="C143">
         <v>0.1373</v>
       </c>
       <c r="D143">
-        <v>0.2452</v>
+        <v>0.2456</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3131,13 +3131,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3884</v>
+        <v>0.3888</v>
       </c>
       <c r="C144">
         <v>0.1393</v>
       </c>
       <c r="D144">
-        <v>0.2491</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3145,13 +3145,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3935</v>
+        <v>0.394</v>
       </c>
       <c r="C145">
         <v>0.1407</v>
       </c>
       <c r="D145">
-        <v>0.2528</v>
+        <v>0.2533</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3159,13 +3159,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3981</v>
+        <v>0.3985</v>
       </c>
       <c r="C146">
-        <v>0.1415</v>
+        <v>0.1416</v>
       </c>
       <c r="D146">
-        <v>0.2565</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3173,13 +3173,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.4027</v>
+        <v>0.4032</v>
       </c>
       <c r="C147">
-        <v>0.1426</v>
+        <v>0.1427</v>
       </c>
       <c r="D147">
-        <v>0.2601</v>
+        <v>0.2605</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3187,13 +3187,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.4071</v>
+        <v>0.4075</v>
       </c>
       <c r="C148">
         <v>0.1436</v>
       </c>
       <c r="D148">
-        <v>0.2635</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3201,13 +3201,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.4112</v>
+        <v>0.4116</v>
       </c>
       <c r="C149">
         <v>0.1445</v>
       </c>
       <c r="D149">
-        <v>0.2666</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3215,13 +3215,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.4148</v>
+        <v>0.4152</v>
       </c>
       <c r="C150">
         <v>0.1453</v>
       </c>
       <c r="D150">
-        <v>0.2695</v>
+        <v>0.2699</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3229,13 +3229,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.4182</v>
+        <v>0.4187</v>
       </c>
       <c r="C151">
         <v>0.1462</v>
       </c>
       <c r="D151">
-        <v>0.272</v>
+        <v>0.2725</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3243,13 +3243,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.4212</v>
+        <v>0.4216</v>
       </c>
       <c r="C152">
         <v>0.147</v>
       </c>
       <c r="D152">
-        <v>0.2742</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3257,13 +3257,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.4234</v>
+        <v>0.4238</v>
       </c>
       <c r="C153">
-        <v>0.1474</v>
+        <v>0.1475</v>
       </c>
       <c r="D153">
-        <v>0.276</v>
+        <v>0.2764</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3271,13 +3271,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.4253</v>
+        <v>0.4258</v>
       </c>
       <c r="C154">
-        <v>0.1479</v>
+        <v>0.148</v>
       </c>
       <c r="D154">
-        <v>0.2774</v>
+        <v>0.2778</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3285,13 +3285,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.4262</v>
+        <v>0.4266</v>
       </c>
       <c r="C155">
         <v>0.1484</v>
       </c>
       <c r="D155">
-        <v>0.2778</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3299,13 +3299,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.4266</v>
+        <v>0.427</v>
       </c>
       <c r="C156">
-        <v>0.1491</v>
+        <v>0.1492</v>
       </c>
       <c r="D156">
-        <v>0.2775</v>
+        <v>0.2779</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3313,13 +3313,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.4263</v>
+        <v>0.4267</v>
       </c>
       <c r="C157">
-        <v>0.1498</v>
+        <v>0.1499</v>
       </c>
       <c r="D157">
-        <v>0.2765</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3327,13 +3327,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.4256</v>
+        <v>0.426</v>
       </c>
       <c r="C158">
-        <v>0.1506</v>
+        <v>0.1507</v>
       </c>
       <c r="D158">
-        <v>0.275</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3341,13 +3341,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.4241</v>
+        <v>0.4246</v>
       </c>
       <c r="C159">
         <v>0.1509</v>
       </c>
       <c r="D159">
-        <v>0.2733</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3355,13 +3355,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.4226</v>
+        <v>0.423</v>
       </c>
       <c r="C160">
         <v>0.1511</v>
       </c>
       <c r="D160">
-        <v>0.2716</v>
+        <v>0.2719</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3369,13 +3369,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.4213</v>
+        <v>0.4217</v>
       </c>
       <c r="C161">
         <v>0.1515</v>
       </c>
       <c r="D161">
-        <v>0.2698</v>
+        <v>0.2701</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3383,13 +3383,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.4187</v>
+        <v>0.4191</v>
       </c>
       <c r="C162">
         <v>0.151</v>
       </c>
       <c r="D162">
-        <v>0.2678</v>
+        <v>0.2681</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3397,13 +3397,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.4176</v>
+        <v>0.418</v>
       </c>
       <c r="C163">
         <v>0.1518</v>
       </c>
       <c r="D163">
-        <v>0.2658</v>
+        <v>0.2661</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3411,13 +3411,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.4162</v>
+        <v>0.4166</v>
       </c>
       <c r="C164">
-        <v>0.1525</v>
+        <v>0.1526</v>
       </c>
       <c r="D164">
-        <v>0.2637</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3425,13 +3425,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.4151</v>
+        <v>0.4155</v>
       </c>
       <c r="C165">
-        <v>0.1535</v>
+        <v>0.1536</v>
       </c>
       <c r="D165">
-        <v>0.2616</v>
+        <v>0.2619</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3439,13 +3439,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.414</v>
+        <v>0.4144</v>
       </c>
       <c r="C166">
-        <v>0.1547</v>
+        <v>0.1548</v>
       </c>
       <c r="D166">
-        <v>0.2593</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3453,13 +3453,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.4137</v>
+        <v>0.4141</v>
       </c>
       <c r="C167">
-        <v>0.1565</v>
+        <v>0.1566</v>
       </c>
       <c r="D167">
-        <v>0.2572</v>
+        <v>0.2576</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3467,13 +3467,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.4144</v>
+        <v>0.4148</v>
       </c>
       <c r="C168">
-        <v>0.1593</v>
+        <v>0.1594</v>
       </c>
       <c r="D168">
-        <v>0.2551</v>
+        <v>0.2554</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3481,13 +3481,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.4145</v>
+        <v>0.4149</v>
       </c>
       <c r="C169">
         <v>0.1617</v>
       </c>
       <c r="D169">
-        <v>0.2529</v>
+        <v>0.2532</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3495,13 +3495,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.4143</v>
+        <v>0.4146</v>
       </c>
       <c r="C170">
-        <v>0.1636</v>
+        <v>0.1637</v>
       </c>
       <c r="D170">
-        <v>0.2506</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3509,13 +3509,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.4139</v>
+        <v>0.4142</v>
       </c>
       <c r="C171">
-        <v>0.1654</v>
+        <v>0.1655</v>
       </c>
       <c r="D171">
-        <v>0.2485</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3523,13 +3523,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.4139</v>
+        <v>0.4143</v>
       </c>
       <c r="C172">
-        <v>0.1673</v>
+        <v>0.1674</v>
       </c>
       <c r="D172">
-        <v>0.2465</v>
+        <v>0.2469</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3537,13 +3537,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.4139</v>
+        <v>0.4143</v>
       </c>
       <c r="C173">
         <v>0.1692</v>
       </c>
       <c r="D173">
-        <v>0.2447</v>
+        <v>0.2451</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3551,13 +3551,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.4132</v>
+        <v>0.4136</v>
       </c>
       <c r="C174">
-        <v>0.1703</v>
+        <v>0.1704</v>
       </c>
       <c r="D174">
-        <v>0.2429</v>
+        <v>0.2432</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3565,13 +3565,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.4124</v>
+        <v>0.4128</v>
       </c>
       <c r="C175">
-        <v>0.1713</v>
+        <v>0.1714</v>
       </c>
       <c r="D175">
-        <v>0.2411</v>
+        <v>0.2414</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3579,13 +3579,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.4116</v>
+        <v>0.412</v>
       </c>
       <c r="C176">
         <v>0.1724</v>
       </c>
       <c r="D176">
-        <v>0.2393</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3593,13 +3593,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.4111</v>
+        <v>0.4115</v>
       </c>
       <c r="C177">
-        <v>0.1736</v>
+        <v>0.1737</v>
       </c>
       <c r="D177">
-        <v>0.2375</v>
+        <v>0.2378</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3607,13 +3607,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.4115</v>
+        <v>0.4119</v>
       </c>
       <c r="C178">
-        <v>0.1752</v>
+        <v>0.1753</v>
       </c>
       <c r="D178">
-        <v>0.2363</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3621,13 +3621,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.4123</v>
+        <v>0.4127</v>
       </c>
       <c r="C179">
-        <v>0.1768</v>
+        <v>0.1769</v>
       </c>
       <c r="D179">
-        <v>0.2355</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3635,13 +3635,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.4151</v>
+        <v>0.4156</v>
       </c>
       <c r="C180">
-        <v>0.1801</v>
+        <v>0.1802</v>
       </c>
       <c r="D180">
-        <v>0.2351</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3649,13 +3649,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.4173</v>
+        <v>0.4178</v>
       </c>
       <c r="C181">
-        <v>0.1827</v>
+        <v>0.1828</v>
       </c>
       <c r="D181">
-        <v>0.2346</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3663,13 +3663,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.4201</v>
+        <v>0.4205</v>
       </c>
       <c r="C182">
         <v>0.1859</v>
       </c>
       <c r="D182">
-        <v>0.2342</v>
+        <v>0.2345</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3677,13 +3677,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.4218</v>
+        <v>0.4222</v>
       </c>
       <c r="C183">
-        <v>0.1879</v>
+        <v>0.188</v>
       </c>
       <c r="D183">
-        <v>0.2339</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3691,13 +3691,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.4234</v>
+        <v>0.4238</v>
       </c>
       <c r="C184">
-        <v>0.1899</v>
+        <v>0.19</v>
       </c>
       <c r="D184">
-        <v>0.2335</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3705,13 +3705,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.4243</v>
+        <v>0.4248</v>
       </c>
       <c r="C185">
-        <v>0.1912</v>
+        <v>0.1913</v>
       </c>
       <c r="D185">
-        <v>0.2331</v>
+        <v>0.2335</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3719,13 +3719,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.4253</v>
+        <v>0.4257</v>
       </c>
       <c r="C186">
-        <v>0.1926</v>
+        <v>0.1927</v>
       </c>
       <c r="D186">
-        <v>0.2327</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3733,13 +3733,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.4253</v>
+        <v>0.4258</v>
       </c>
       <c r="C187">
         <v>0.1934</v>
       </c>
       <c r="D187">
-        <v>0.232</v>
+        <v>0.2324</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3747,13 +3747,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.4241</v>
+        <v>0.4246</v>
       </c>
       <c r="C188">
-        <v>0.1929</v>
+        <v>0.193</v>
       </c>
       <c r="D188">
-        <v>0.2312</v>
+        <v>0.2316</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3761,13 +3761,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.4234</v>
+        <v>0.4239</v>
       </c>
       <c r="C189">
-        <v>0.1927</v>
+        <v>0.1928</v>
       </c>
       <c r="D189">
-        <v>0.2307</v>
+        <v>0.2311</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3775,13 +3775,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.425</v>
+        <v>0.4255</v>
       </c>
       <c r="C190">
-        <v>0.1945</v>
+        <v>0.1946</v>
       </c>
       <c r="D190">
-        <v>0.2305</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3789,13 +3789,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.4267</v>
+        <v>0.4272</v>
       </c>
       <c r="C191">
-        <v>0.1961</v>
+        <v>0.1962</v>
       </c>
       <c r="D191">
-        <v>0.2306</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3803,13 +3803,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.4277</v>
+        <v>0.4283</v>
       </c>
       <c r="C192">
-        <v>0.1976</v>
+        <v>0.1977</v>
       </c>
       <c r="D192">
-        <v>0.2302</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3817,13 +3817,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.4292</v>
+        <v>0.4297</v>
       </c>
       <c r="C193">
-        <v>0.1994</v>
+        <v>0.1996</v>
       </c>
       <c r="D193">
-        <v>0.2297</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3831,13 +3831,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4321</v>
+        <v>0.4327</v>
       </c>
       <c r="C194">
-        <v>0.2027</v>
+        <v>0.2028</v>
       </c>
       <c r="D194">
-        <v>0.2295</v>
+        <v>0.2299</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3845,13 +3845,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.4347</v>
+        <v>0.4353</v>
       </c>
       <c r="C195">
-        <v>0.2055</v>
+        <v>0.2056</v>
       </c>
       <c r="D195">
-        <v>0.2292</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3859,13 +3859,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4372</v>
+        <v>0.4378</v>
       </c>
       <c r="C196">
-        <v>0.2082</v>
+        <v>0.2084</v>
       </c>
       <c r="D196">
-        <v>0.229</v>
+        <v>0.2294</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3873,13 +3873,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4401</v>
+        <v>0.4406</v>
       </c>
       <c r="C197">
-        <v>0.2109</v>
+        <v>0.211</v>
       </c>
       <c r="D197">
-        <v>0.2292</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3887,13 +3887,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.4425</v>
+        <v>0.443</v>
       </c>
       <c r="C198">
-        <v>0.2133</v>
+        <v>0.2134</v>
       </c>
       <c r="D198">
-        <v>0.2292</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3901,13 +3901,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4445</v>
+        <v>0.4451</v>
       </c>
       <c r="C199">
-        <v>0.2153</v>
+        <v>0.2155</v>
       </c>
       <c r="D199">
-        <v>0.2292</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3915,13 +3915,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4443</v>
+        <v>0.4449</v>
       </c>
       <c r="C200">
-        <v>0.2155</v>
+        <v>0.2156</v>
       </c>
       <c r="D200">
-        <v>0.2288</v>
+        <v>0.2292</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3929,13 +3929,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4444</v>
+        <v>0.4449</v>
       </c>
       <c r="C201">
-        <v>0.2158</v>
+        <v>0.216</v>
       </c>
       <c r="D201">
-        <v>0.2285</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3943,13 +3943,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4442</v>
+        <v>0.4448</v>
       </c>
       <c r="C202">
-        <v>0.216</v>
+        <v>0.2162</v>
       </c>
       <c r="D202">
-        <v>0.2282</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3957,13 +3957,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.444</v>
+        <v>0.4446</v>
       </c>
       <c r="C203">
-        <v>0.2162</v>
+        <v>0.2164</v>
       </c>
       <c r="D203">
-        <v>0.2278</v>
+        <v>0.2282</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3971,13 +3971,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4435</v>
+        <v>0.4441</v>
       </c>
       <c r="C204">
-        <v>0.2162</v>
+        <v>0.2164</v>
       </c>
       <c r="D204">
-        <v>0.2273</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3985,13 +3985,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4436</v>
+        <v>0.4442</v>
       </c>
       <c r="C205">
-        <v>0.2169</v>
+        <v>0.2171</v>
       </c>
       <c r="D205">
-        <v>0.2267</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3999,13 +3999,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.4434</v>
+        <v>0.444</v>
       </c>
       <c r="C206">
-        <v>0.2171</v>
+        <v>0.2173</v>
       </c>
       <c r="D206">
-        <v>0.2262</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4013,13 +4013,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4432</v>
+        <v>0.4438</v>
       </c>
       <c r="C207">
-        <v>0.2175</v>
+        <v>0.2177</v>
       </c>
       <c r="D207">
-        <v>0.2257</v>
+        <v>0.2261</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4027,13 +4027,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4428</v>
+        <v>0.4434</v>
       </c>
       <c r="C208">
-        <v>0.2174</v>
+        <v>0.2176</v>
       </c>
       <c r="D208">
-        <v>0.2253</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4041,13 +4041,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4442</v>
+        <v>0.4448</v>
       </c>
       <c r="C209">
-        <v>0.2191</v>
+        <v>0.2193</v>
       </c>
       <c r="D209">
-        <v>0.225</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4055,13 +4055,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4437</v>
+        <v>0.4443</v>
       </c>
       <c r="C210">
-        <v>0.2192</v>
+        <v>0.2194</v>
       </c>
       <c r="D210">
-        <v>0.2245</v>
+        <v>0.2249</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4069,13 +4069,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.443</v>
+        <v>0.4436</v>
       </c>
       <c r="C211">
-        <v>0.2189</v>
+        <v>0.2191</v>
       </c>
       <c r="D211">
-        <v>0.2241</v>
+        <v>0.2244</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4083,13 +4083,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4426</v>
+        <v>0.4431</v>
       </c>
       <c r="C212">
-        <v>0.2187</v>
+        <v>0.2189</v>
       </c>
       <c r="D212">
-        <v>0.2239</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4097,13 +4097,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4423</v>
+        <v>0.4429</v>
       </c>
       <c r="C213">
-        <v>0.2184</v>
+        <v>0.2186</v>
       </c>
       <c r="D213">
-        <v>0.2239</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4111,13 +4111,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4413</v>
+        <v>0.4418</v>
       </c>
       <c r="C214">
-        <v>0.2174</v>
+        <v>0.2176</v>
       </c>
       <c r="D214">
-        <v>0.2239</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4125,13 +4125,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.441</v>
+        <v>0.4415</v>
       </c>
       <c r="C215">
-        <v>0.2168</v>
+        <v>0.2169</v>
       </c>
       <c r="D215">
-        <v>0.2242</v>
+        <v>0.2246</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4139,13 +4139,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4413</v>
+        <v>0.4418</v>
       </c>
       <c r="C216">
-        <v>0.2165</v>
+        <v>0.2166</v>
       </c>
       <c r="D216">
-        <v>0.2248</v>
+        <v>0.2251</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4153,13 +4153,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.4416</v>
+        <v>0.4421</v>
       </c>
       <c r="C217">
-        <v>0.2162</v>
+        <v>0.2163</v>
       </c>
       <c r="D217">
-        <v>0.2254</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4167,13 +4167,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.442</v>
+        <v>0.4425</v>
       </c>
       <c r="C218">
-        <v>0.2162</v>
+        <v>0.2163</v>
       </c>
       <c r="D218">
-        <v>0.2259</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4181,13 +4181,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4419</v>
+        <v>0.4423</v>
       </c>
       <c r="C219">
-        <v>0.2158</v>
+        <v>0.216</v>
       </c>
       <c r="D219">
-        <v>0.2261</v>
+        <v>0.2264</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4195,13 +4195,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4417</v>
+        <v>0.4421</v>
       </c>
       <c r="C220">
-        <v>0.2154</v>
+        <v>0.2156</v>
       </c>
       <c r="D220">
-        <v>0.2262</v>
+        <v>0.2265</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4209,13 +4209,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4421</v>
+        <v>0.4426</v>
       </c>
       <c r="C221">
-        <v>0.2153</v>
+        <v>0.2155</v>
       </c>
       <c r="D221">
-        <v>0.2268</v>
+        <v>0.2271</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4223,13 +4223,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.4431</v>
+        <v>0.4435</v>
       </c>
       <c r="C222">
-        <v>0.2153</v>
+        <v>0.2154</v>
       </c>
       <c r="D222">
-        <v>0.2278</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4237,13 +4237,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.4445</v>
+        <v>0.445</v>
       </c>
       <c r="C223">
-        <v>0.2155</v>
+        <v>0.2156</v>
       </c>
       <c r="D223">
-        <v>0.229</v>
+        <v>0.2294</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4251,13 +4251,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.446</v>
+        <v>0.4465</v>
       </c>
       <c r="C224">
-        <v>0.2158</v>
+        <v>0.2159</v>
       </c>
       <c r="D224">
-        <v>0.2303</v>
+        <v>0.2306</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4265,13 +4265,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.4473</v>
+        <v>0.4478</v>
       </c>
       <c r="C225">
-        <v>0.2159</v>
+        <v>0.2161</v>
       </c>
       <c r="D225">
-        <v>0.2314</v>
+        <v>0.2317</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4279,13 +4279,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.4486</v>
+        <v>0.4491</v>
       </c>
       <c r="C226">
-        <v>0.2162</v>
+        <v>0.2163</v>
       </c>
       <c r="D226">
-        <v>0.2324</v>
+        <v>0.2327</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4293,13 +4293,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.45</v>
+        <v>0.4504</v>
       </c>
       <c r="C227">
-        <v>0.2165</v>
+        <v>0.2166</v>
       </c>
       <c r="D227">
-        <v>0.2335</v>
+        <v>0.2338</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4307,13 +4307,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4516</v>
+        <v>0.4521</v>
       </c>
       <c r="C228">
-        <v>0.2172</v>
+        <v>0.2173</v>
       </c>
       <c r="D228">
-        <v>0.2344</v>
+        <v>0.2348</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4321,13 +4321,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4512</v>
+        <v>0.4517</v>
       </c>
       <c r="C229">
-        <v>0.2161</v>
+        <v>0.2162</v>
       </c>
       <c r="D229">
-        <v>0.2351</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4335,13 +4335,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.4505</v>
+        <v>0.451</v>
       </c>
       <c r="C230">
-        <v>0.215</v>
+        <v>0.2152</v>
       </c>
       <c r="D230">
-        <v>0.2355</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4349,13 +4349,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.4504</v>
+        <v>0.4509</v>
       </c>
       <c r="C231">
-        <v>0.2145</v>
+        <v>0.2147</v>
       </c>
       <c r="D231">
-        <v>0.2358</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4363,13 +4363,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4499</v>
+        <v>0.4504</v>
       </c>
       <c r="C232">
-        <v>0.2139</v>
+        <v>0.2141</v>
       </c>
       <c r="D232">
-        <v>0.2359</v>
+        <v>0.2363</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4377,13 +4377,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4494</v>
+        <v>0.4499</v>
       </c>
       <c r="C233">
-        <v>0.2135</v>
+        <v>0.2137</v>
       </c>
       <c r="D233">
-        <v>0.2358</v>
+        <v>0.2362</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4391,13 +4391,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.449</v>
+        <v>0.4495</v>
       </c>
       <c r="C234">
-        <v>0.2131</v>
+        <v>0.2132</v>
       </c>
       <c r="D234">
-        <v>0.2359</v>
+        <v>0.2363</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4405,13 +4405,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4483</v>
+        <v>0.4488</v>
       </c>
       <c r="C235">
-        <v>0.2123</v>
+        <v>0.2125</v>
       </c>
       <c r="D235">
-        <v>0.2359</v>
+        <v>0.2363</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4419,13 +4419,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4474</v>
+        <v>0.4479</v>
       </c>
       <c r="C236">
-        <v>0.2114</v>
+        <v>0.2115</v>
       </c>
       <c r="D236">
-        <v>0.236</v>
+        <v>0.2364</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4433,13 +4433,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.445</v>
+        <v>0.4456</v>
       </c>
       <c r="C237">
-        <v>0.2096</v>
+        <v>0.2098</v>
       </c>
       <c r="D237">
-        <v>0.2354</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4447,13 +4447,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.442</v>
+        <v>0.4425</v>
       </c>
       <c r="C238">
-        <v>0.2074</v>
+        <v>0.2076</v>
       </c>
       <c r="D238">
-        <v>0.2346</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4461,13 +4461,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4391</v>
+        <v>0.4396</v>
       </c>
       <c r="C239">
-        <v>0.2056</v>
+        <v>0.2057</v>
       </c>
       <c r="D239">
-        <v>0.2335</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4475,13 +4475,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4359</v>
+        <v>0.4364</v>
       </c>
       <c r="C240">
-        <v>0.2036</v>
+        <v>0.2038</v>
       </c>
       <c r="D240">
-        <v>0.2322</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4489,13 +4489,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.4318</v>
+        <v>0.4323</v>
       </c>
       <c r="C241">
-        <v>0.2014</v>
+        <v>0.2016</v>
       </c>
       <c r="D241">
-        <v>0.2304</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4503,13 +4503,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4277</v>
+        <v>0.4283</v>
       </c>
       <c r="C242">
-        <v>0.1996</v>
+        <v>0.1997</v>
       </c>
       <c r="D242">
-        <v>0.2282</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4517,13 +4517,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4231</v>
+        <v>0.4237</v>
       </c>
       <c r="C243">
-        <v>0.1977</v>
+        <v>0.1978</v>
       </c>
       <c r="D243">
-        <v>0.2255</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4531,13 +4531,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4188</v>
+        <v>0.4193</v>
       </c>
       <c r="C244">
-        <v>0.1957</v>
+        <v>0.1958</v>
       </c>
       <c r="D244">
-        <v>0.2231</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4545,13 +4545,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4152</v>
+        <v>0.4157</v>
       </c>
       <c r="C245">
-        <v>0.1941</v>
+        <v>0.1942</v>
       </c>
       <c r="D245">
-        <v>0.2211</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4559,13 +4559,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4123</v>
+        <v>0.4129</v>
       </c>
       <c r="C246">
-        <v>0.1929</v>
+        <v>0.1931</v>
       </c>
       <c r="D246">
-        <v>0.2194</v>
+        <v>0.2198</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2018 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2018 - Diaria.xlsx
@@ -1143,13 +1143,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2161</v>
+        <v>0.2152</v>
       </c>
       <c r="C2">
         <v>0.09420000000000001</v>
       </c>
       <c r="D2">
-        <v>0.1219</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1157,13 +1157,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.212</v>
+        <v>0.2111</v>
       </c>
       <c r="C3">
         <v>0.09329999999999999</v>
       </c>
       <c r="D3">
-        <v>0.1187</v>
+        <v>0.1178</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1171,13 +1171,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2077</v>
+        <v>0.2067</v>
       </c>
       <c r="C4">
         <v>0.0922</v>
       </c>
       <c r="D4">
-        <v>0.1155</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1185,13 +1185,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2032</v>
+        <v>0.2022</v>
       </c>
       <c r="C5">
         <v>0.0907</v>
       </c>
       <c r="D5">
-        <v>0.1125</v>
+        <v>0.1115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1199,13 +1199,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.1988</v>
+        <v>0.1978</v>
       </c>
       <c r="C6">
-        <v>0.0893</v>
+        <v>0.0892</v>
       </c>
       <c r="D6">
-        <v>0.1095</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1213,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1945</v>
+        <v>0.1935</v>
       </c>
       <c r="C7">
         <v>0.0877</v>
       </c>
       <c r="D7">
-        <v>0.1068</v>
+        <v>0.1058</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.19</v>
+        <v>0.1889</v>
       </c>
       <c r="C8">
         <v>0.0861</v>
       </c>
       <c r="D8">
-        <v>0.1038</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1241,13 +1241,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.1861</v>
+        <v>0.185</v>
       </c>
       <c r="C9">
         <v>0.08459999999999999</v>
       </c>
       <c r="D9">
-        <v>0.1014</v>
+        <v>0.1004</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1255,13 +1255,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.1817</v>
+        <v>0.1806</v>
       </c>
       <c r="C10">
         <v>0.08260000000000001</v>
       </c>
       <c r="D10">
-        <v>0.09909999999999999</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1269,13 +1269,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.1768</v>
+        <v>0.1757</v>
       </c>
       <c r="C11">
-        <v>0.08019999999999999</v>
+        <v>0.0801</v>
       </c>
       <c r="D11">
-        <v>0.09669999999999999</v>
+        <v>0.0956</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1283,13 +1283,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.1717</v>
+        <v>0.1706</v>
       </c>
       <c r="C12">
         <v>0.07729999999999999</v>
       </c>
       <c r="D12">
-        <v>0.0944</v>
+        <v>0.09329999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1297,13 +1297,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.1673</v>
+        <v>0.1661</v>
       </c>
       <c r="C13">
         <v>0.0751</v>
       </c>
       <c r="D13">
-        <v>0.0922</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1311,13 +1311,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.161</v>
+        <v>0.1599</v>
       </c>
       <c r="C14">
         <v>0.0712</v>
       </c>
       <c r="D14">
-        <v>0.0898</v>
+        <v>0.0887</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1325,13 +1325,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.1556</v>
+        <v>0.1545</v>
       </c>
       <c r="C15">
         <v>0.0679</v>
       </c>
       <c r="D15">
-        <v>0.0878</v>
+        <v>0.0867</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1339,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.1509</v>
+        <v>0.1498</v>
       </c>
       <c r="C16">
         <v>0.0649</v>
       </c>
       <c r="D16">
-        <v>0.08599999999999999</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1353,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.1468</v>
+        <v>0.1457</v>
       </c>
       <c r="C17">
         <v>0.0622</v>
       </c>
       <c r="D17">
-        <v>0.08459999999999999</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1367,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.1439</v>
+        <v>0.1428</v>
       </c>
       <c r="C18">
         <v>0.0602</v>
       </c>
       <c r="D18">
-        <v>0.0837</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1381,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.1413</v>
+        <v>0.1402</v>
       </c>
       <c r="C19">
         <v>0.058</v>
       </c>
       <c r="D19">
-        <v>0.0833</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1395,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.1399</v>
+        <v>0.1387</v>
       </c>
       <c r="C20">
         <v>0.0567</v>
       </c>
       <c r="D20">
-        <v>0.0832</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1409,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.1385</v>
+        <v>0.1373</v>
       </c>
       <c r="C21">
         <v>0.0548</v>
       </c>
       <c r="D21">
-        <v>0.0837</v>
+        <v>0.0825</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1423,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.1385</v>
+        <v>0.1373</v>
       </c>
       <c r="C22">
         <v>0.0539</v>
       </c>
       <c r="D22">
-        <v>0.08459999999999999</v>
+        <v>0.0834</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1437,13 +1437,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.1388</v>
+        <v>0.1376</v>
       </c>
       <c r="C23">
         <v>0.0532</v>
       </c>
       <c r="D23">
-        <v>0.0856</v>
+        <v>0.0844</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1451,13 +1451,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.1392</v>
+        <v>0.138</v>
       </c>
       <c r="C24">
         <v>0.0525</v>
       </c>
       <c r="D24">
-        <v>0.0867</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1465,13 +1465,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.1405</v>
+        <v>0.1393</v>
       </c>
       <c r="C25">
         <v>0.0523</v>
       </c>
       <c r="D25">
-        <v>0.0882</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1479,13 +1479,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.1413</v>
+        <v>0.14</v>
       </c>
       <c r="C26">
         <v>0.0516</v>
       </c>
       <c r="D26">
-        <v>0.0897</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1493,13 +1493,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.1426</v>
+        <v>0.1413</v>
       </c>
       <c r="C27">
-        <v>0.0512</v>
+        <v>0.0511</v>
       </c>
       <c r="D27">
-        <v>0.0914</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1507,13 +1507,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.144</v>
+        <v>0.1427</v>
       </c>
       <c r="C28">
         <v>0.0507</v>
       </c>
       <c r="D28">
-        <v>0.09329999999999999</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1521,13 +1521,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.1459</v>
+        <v>0.1446</v>
       </c>
       <c r="C29">
-        <v>0.051</v>
+        <v>0.0509</v>
       </c>
       <c r="D29">
-        <v>0.0949</v>
+        <v>0.09370000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1535,13 +1535,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.1483</v>
+        <v>0.147</v>
       </c>
       <c r="C30">
         <v>0.0516</v>
       </c>
       <c r="D30">
-        <v>0.09669999999999999</v>
+        <v>0.0955</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1549,13 +1549,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.1504</v>
+        <v>0.1491</v>
       </c>
       <c r="C31">
         <v>0.0518</v>
       </c>
       <c r="D31">
-        <v>0.09859999999999999</v>
+        <v>0.0973</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1563,13 +1563,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.1531</v>
+        <v>0.1518</v>
       </c>
       <c r="C32">
         <v>0.0526</v>
       </c>
       <c r="D32">
-        <v>0.1005</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1577,13 +1577,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.1552</v>
+        <v>0.1538</v>
       </c>
       <c r="C33">
-        <v>0.0531</v>
+        <v>0.053</v>
       </c>
       <c r="D33">
-        <v>0.1021</v>
+        <v>0.1008</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1591,13 +1591,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.1571</v>
+        <v>0.1558</v>
       </c>
       <c r="C34">
-        <v>0.0536</v>
+        <v>0.0535</v>
       </c>
       <c r="D34">
-        <v>0.1036</v>
+        <v>0.1023</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1605,13 +1605,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.1584</v>
+        <v>0.1571</v>
       </c>
       <c r="C35">
-        <v>0.0537</v>
+        <v>0.0536</v>
       </c>
       <c r="D35">
-        <v>0.1048</v>
+        <v>0.1035</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1619,13 +1619,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.1593</v>
+        <v>0.1579</v>
       </c>
       <c r="C36">
-        <v>0.0536</v>
+        <v>0.0535</v>
       </c>
       <c r="D36">
-        <v>0.1057</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1633,13 +1633,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.1599</v>
+        <v>0.1585</v>
       </c>
       <c r="C37">
-        <v>0.0535</v>
+        <v>0.0534</v>
       </c>
       <c r="D37">
-        <v>0.1064</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1647,13 +1647,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.1595</v>
+        <v>0.1582</v>
       </c>
       <c r="C38">
-        <v>0.0528</v>
+        <v>0.0527</v>
       </c>
       <c r="D38">
-        <v>0.1068</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1661,13 +1661,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.159</v>
+        <v>0.1576</v>
       </c>
       <c r="C39">
         <v>0.0521</v>
       </c>
       <c r="D39">
-        <v>0.1069</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1675,13 +1675,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.1582</v>
+        <v>0.1568</v>
       </c>
       <c r="C40">
-        <v>0.0513</v>
+        <v>0.0512</v>
       </c>
       <c r="D40">
-        <v>0.1069</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1689,13 +1689,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.1572</v>
+        <v>0.1558</v>
       </c>
       <c r="C41">
-        <v>0.0507</v>
+        <v>0.0506</v>
       </c>
       <c r="D41">
-        <v>0.1065</v>
+        <v>0.1051</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1703,13 +1703,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.1557</v>
+        <v>0.1543</v>
       </c>
       <c r="C42">
         <v>0.0498</v>
       </c>
       <c r="D42">
-        <v>0.1059</v>
+        <v>0.1045</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1717,13 +1717,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.1536</v>
+        <v>0.1522</v>
       </c>
       <c r="C43">
-        <v>0.0486</v>
+        <v>0.0485</v>
       </c>
       <c r="D43">
-        <v>0.1051</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1731,13 +1731,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.1516</v>
+        <v>0.1501</v>
       </c>
       <c r="C44">
-        <v>0.0475</v>
+        <v>0.0474</v>
       </c>
       <c r="D44">
-        <v>0.1041</v>
+        <v>0.1027</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1745,13 +1745,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.1489</v>
+        <v>0.1474</v>
       </c>
       <c r="C45">
         <v>0.0461</v>
       </c>
       <c r="D45">
-        <v>0.1027</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1759,13 +1759,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.1465</v>
+        <v>0.145</v>
       </c>
       <c r="C46">
-        <v>0.0451</v>
+        <v>0.045</v>
       </c>
       <c r="D46">
-        <v>0.1015</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1773,13 +1773,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.1439</v>
+        <v>0.1423</v>
       </c>
       <c r="C47">
-        <v>0.0439</v>
+        <v>0.0438</v>
       </c>
       <c r="D47">
-        <v>0.1</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1787,13 +1787,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.1417</v>
+        <v>0.1402</v>
       </c>
       <c r="C48">
-        <v>0.0431</v>
+        <v>0.043</v>
       </c>
       <c r="D48">
-        <v>0.0987</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1801,13 +1801,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.1391</v>
+        <v>0.1375</v>
       </c>
       <c r="C49">
-        <v>0.0418</v>
+        <v>0.0417</v>
       </c>
       <c r="D49">
-        <v>0.0973</v>
+        <v>0.09569999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1815,13 +1815,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.1367</v>
+        <v>0.135</v>
       </c>
       <c r="C50">
-        <v>0.0407</v>
+        <v>0.0406</v>
       </c>
       <c r="D50">
-        <v>0.096</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1829,13 +1829,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.1346</v>
+        <v>0.133</v>
       </c>
       <c r="C51">
-        <v>0.0399</v>
+        <v>0.0398</v>
       </c>
       <c r="D51">
-        <v>0.0948</v>
+        <v>0.09320000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1843,13 +1843,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.1324</v>
+        <v>0.1307</v>
       </c>
       <c r="C52">
-        <v>0.0389</v>
+        <v>0.0388</v>
       </c>
       <c r="D52">
-        <v>0.0935</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1857,13 +1857,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.1305</v>
+        <v>0.1288</v>
       </c>
       <c r="C53">
-        <v>0.0381</v>
+        <v>0.038</v>
       </c>
       <c r="D53">
-        <v>0.0924</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1871,13 +1871,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.1289</v>
+        <v>0.1272</v>
       </c>
       <c r="C54">
-        <v>0.0375</v>
+        <v>0.0374</v>
       </c>
       <c r="D54">
-        <v>0.0914</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1885,13 +1885,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.1275</v>
+        <v>0.1258</v>
       </c>
       <c r="C55">
-        <v>0.0371</v>
+        <v>0.037</v>
       </c>
       <c r="D55">
-        <v>0.0905</v>
+        <v>0.0888</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1899,13 +1899,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.1266</v>
+        <v>0.1249</v>
       </c>
       <c r="C56">
-        <v>0.0368</v>
+        <v>0.0367</v>
       </c>
       <c r="D56">
-        <v>0.0898</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1913,13 +1913,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.1259</v>
+        <v>0.1241</v>
       </c>
       <c r="C57">
-        <v>0.0367</v>
+        <v>0.0366</v>
       </c>
       <c r="D57">
-        <v>0.0892</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1927,13 +1927,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.126</v>
+        <v>0.1241</v>
       </c>
       <c r="C58">
-        <v>0.0371</v>
+        <v>0.037</v>
       </c>
       <c r="D58">
-        <v>0.0888</v>
+        <v>0.0871</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1941,13 +1941,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.1266</v>
+        <v>0.1247</v>
       </c>
       <c r="C59">
-        <v>0.038</v>
+        <v>0.0379</v>
       </c>
       <c r="D59">
-        <v>0.0886</v>
+        <v>0.0868</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1955,13 +1955,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.1269</v>
+        <v>0.125</v>
       </c>
       <c r="C60">
-        <v>0.0386</v>
+        <v>0.0385</v>
       </c>
       <c r="D60">
-        <v>0.0883</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1969,13 +1969,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.1274</v>
+        <v>0.1255</v>
       </c>
       <c r="C61">
-        <v>0.0394</v>
+        <v>0.0393</v>
       </c>
       <c r="D61">
-        <v>0.08799999999999999</v>
+        <v>0.0862</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1983,13 +1983,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.128</v>
+        <v>0.1261</v>
       </c>
       <c r="C62">
-        <v>0.0403</v>
+        <v>0.0401</v>
       </c>
       <c r="D62">
-        <v>0.0878</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1997,13 +1997,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.1289</v>
+        <v>0.127</v>
       </c>
       <c r="C63">
-        <v>0.0413</v>
+        <v>0.0412</v>
       </c>
       <c r="D63">
-        <v>0.0876</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2011,13 +2011,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.1302</v>
+        <v>0.1282</v>
       </c>
       <c r="C64">
-        <v>0.0425</v>
+        <v>0.0424</v>
       </c>
       <c r="D64">
-        <v>0.0877</v>
+        <v>0.0859</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2025,13 +2025,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.1309</v>
+        <v>0.129</v>
       </c>
       <c r="C65">
-        <v>0.0433</v>
+        <v>0.0431</v>
       </c>
       <c r="D65">
-        <v>0.0876</v>
+        <v>0.0858</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2039,13 +2039,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.1313</v>
+        <v>0.1294</v>
       </c>
       <c r="C66">
-        <v>0.0439</v>
+        <v>0.0438</v>
       </c>
       <c r="D66">
-        <v>0.08740000000000001</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2053,13 +2053,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="C67">
-        <v>0.0447</v>
+        <v>0.0446</v>
       </c>
       <c r="D67">
-        <v>0.0872</v>
+        <v>0.0854</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2067,13 +2067,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.1321</v>
+        <v>0.1301</v>
       </c>
       <c r="C68">
-        <v>0.0451</v>
+        <v>0.045</v>
       </c>
       <c r="D68">
-        <v>0.08690000000000001</v>
+        <v>0.0851</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2081,13 +2081,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.1321</v>
+        <v>0.1301</v>
       </c>
       <c r="C69">
-        <v>0.0455</v>
+        <v>0.0453</v>
       </c>
       <c r="D69">
-        <v>0.0867</v>
+        <v>0.0848</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2095,13 +2095,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.1319</v>
+        <v>0.1298</v>
       </c>
       <c r="C70">
-        <v>0.0456</v>
+        <v>0.0455</v>
       </c>
       <c r="D70">
-        <v>0.0862</v>
+        <v>0.0844</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2109,13 +2109,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.1317</v>
+        <v>0.1296</v>
       </c>
       <c r="C71">
-        <v>0.0459</v>
+        <v>0.0457</v>
       </c>
       <c r="D71">
-        <v>0.0858</v>
+        <v>0.0839</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2123,13 +2123,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.1318</v>
+        <v>0.1297</v>
       </c>
       <c r="C72">
-        <v>0.0462</v>
+        <v>0.0461</v>
       </c>
       <c r="D72">
-        <v>0.0856</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2137,13 +2137,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.1322</v>
+        <v>0.1301</v>
       </c>
       <c r="C73">
-        <v>0.0467</v>
+        <v>0.0465</v>
       </c>
       <c r="D73">
-        <v>0.08550000000000001</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2151,13 +2151,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.1324</v>
+        <v>0.1303</v>
       </c>
       <c r="C74">
-        <v>0.047</v>
+        <v>0.0468</v>
       </c>
       <c r="D74">
-        <v>0.0854</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2165,13 +2165,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.1327</v>
+        <v>0.1306</v>
       </c>
       <c r="C75">
-        <v>0.0473</v>
+        <v>0.0471</v>
       </c>
       <c r="D75">
-        <v>0.0854</v>
+        <v>0.0834</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2179,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.1326</v>
+        <v>0.1305</v>
       </c>
       <c r="C76">
-        <v>0.0475</v>
+        <v>0.0473</v>
       </c>
       <c r="D76">
-        <v>0.0851</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2193,13 +2193,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.1328</v>
+        <v>0.1307</v>
       </c>
       <c r="C77">
-        <v>0.0479</v>
+        <v>0.0477</v>
       </c>
       <c r="D77">
-        <v>0.0849</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2207,13 +2207,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.1324</v>
+        <v>0.1303</v>
       </c>
       <c r="C78">
-        <v>0.0479</v>
+        <v>0.0477</v>
       </c>
       <c r="D78">
-        <v>0.08459999999999999</v>
+        <v>0.08260000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2221,13 +2221,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.1319</v>
+        <v>0.1298</v>
       </c>
       <c r="C79">
-        <v>0.0477</v>
+        <v>0.0475</v>
       </c>
       <c r="D79">
-        <v>0.0842</v>
+        <v>0.0823</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2235,13 +2235,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.1326</v>
+        <v>0.1305</v>
       </c>
       <c r="C80">
-        <v>0.0485</v>
+        <v>0.0483</v>
       </c>
       <c r="D80">
-        <v>0.08409999999999999</v>
+        <v>0.0822</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2249,13 +2249,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.1334</v>
+        <v>0.1312</v>
       </c>
       <c r="C81">
-        <v>0.0491</v>
+        <v>0.0489</v>
       </c>
       <c r="D81">
-        <v>0.0842</v>
+        <v>0.0823</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2263,13 +2263,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.1353</v>
+        <v>0.1331</v>
       </c>
       <c r="C82">
-        <v>0.0504</v>
+        <v>0.0502</v>
       </c>
       <c r="D82">
-        <v>0.0849</v>
+        <v>0.0829</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2277,13 +2277,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.1371</v>
+        <v>0.1349</v>
       </c>
       <c r="C83">
-        <v>0.0515</v>
+        <v>0.0513</v>
       </c>
       <c r="D83">
-        <v>0.0856</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2291,13 +2291,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.1393</v>
+        <v>0.1371</v>
       </c>
       <c r="C84">
-        <v>0.0529</v>
+        <v>0.0527</v>
       </c>
       <c r="D84">
-        <v>0.0863</v>
+        <v>0.0844</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2305,13 +2305,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.1423</v>
+        <v>0.1402</v>
       </c>
       <c r="C85">
-        <v>0.0551</v>
+        <v>0.0548</v>
       </c>
       <c r="D85">
-        <v>0.0873</v>
+        <v>0.0853</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2319,13 +2319,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.1464</v>
+        <v>0.1442</v>
       </c>
       <c r="C86">
-        <v>0.0579</v>
+        <v>0.0577</v>
       </c>
       <c r="D86">
-        <v>0.0885</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2333,13 +2333,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.1498</v>
+        <v>0.1477</v>
       </c>
       <c r="C87">
-        <v>0.0602</v>
+        <v>0.0599</v>
       </c>
       <c r="D87">
-        <v>0.0896</v>
+        <v>0.0877</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2347,13 +2347,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.1533</v>
+        <v>0.1511</v>
       </c>
       <c r="C88">
-        <v>0.0623</v>
+        <v>0.0621</v>
       </c>
       <c r="D88">
-        <v>0.09089999999999999</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2361,13 +2361,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.1574</v>
+        <v>0.1552</v>
       </c>
       <c r="C89">
-        <v>0.065</v>
+        <v>0.0648</v>
       </c>
       <c r="D89">
-        <v>0.0924</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2375,13 +2375,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.1617</v>
+        <v>0.1596</v>
       </c>
       <c r="C90">
-        <v>0.0678</v>
+        <v>0.0675</v>
       </c>
       <c r="D90">
-        <v>0.0939</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2389,13 +2389,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.1662</v>
+        <v>0.164</v>
       </c>
       <c r="C91">
-        <v>0.0706</v>
+        <v>0.0704</v>
       </c>
       <c r="D91">
-        <v>0.0956</v>
+        <v>0.09370000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2403,13 +2403,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.1709</v>
+        <v>0.1687</v>
       </c>
       <c r="C92">
-        <v>0.0736</v>
+        <v>0.0733</v>
       </c>
       <c r="D92">
-        <v>0.0973</v>
+        <v>0.0954</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2417,13 +2417,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.1754</v>
+        <v>0.1733</v>
       </c>
       <c r="C93">
-        <v>0.07630000000000001</v>
+        <v>0.076</v>
       </c>
       <c r="D93">
-        <v>0.09909999999999999</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2431,13 +2431,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.18</v>
+        <v>0.1779</v>
       </c>
       <c r="C94">
-        <v>0.079</v>
+        <v>0.0788</v>
       </c>
       <c r="D94">
-        <v>0.101</v>
+        <v>0.09909999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2445,13 +2445,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.1851</v>
+        <v>0.183</v>
       </c>
       <c r="C95">
-        <v>0.0819</v>
+        <v>0.08169999999999999</v>
       </c>
       <c r="D95">
-        <v>0.1032</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2459,13 +2459,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.1903</v>
+        <v>0.1882</v>
       </c>
       <c r="C96">
-        <v>0.0848</v>
+        <v>0.08450000000000001</v>
       </c>
       <c r="D96">
-        <v>0.1055</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2473,13 +2473,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.1954</v>
+        <v>0.1933</v>
       </c>
       <c r="C97">
-        <v>0.0873</v>
+        <v>0.0871</v>
       </c>
       <c r="D97">
-        <v>0.1081</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2487,13 +2487,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.2012</v>
+        <v>0.1991</v>
       </c>
       <c r="C98">
-        <v>0.0901</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="D98">
-        <v>0.1111</v>
+        <v>0.1092</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2501,13 +2501,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.2082</v>
+        <v>0.2061</v>
       </c>
       <c r="C99">
-        <v>0.0939</v>
+        <v>0.09370000000000001</v>
       </c>
       <c r="D99">
-        <v>0.1143</v>
+        <v>0.1124</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2515,13 +2515,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.2139</v>
+        <v>0.2119</v>
       </c>
       <c r="C100">
-        <v>0.09660000000000001</v>
+        <v>0.0964</v>
       </c>
       <c r="D100">
-        <v>0.1173</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2529,13 +2529,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.2196</v>
+        <v>0.2176</v>
       </c>
       <c r="C101">
-        <v>0.0992</v>
+        <v>0.099</v>
       </c>
       <c r="D101">
-        <v>0.1204</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2543,13 +2543,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.2241</v>
+        <v>0.2221</v>
       </c>
       <c r="C102">
-        <v>0.1012</v>
+        <v>0.101</v>
       </c>
       <c r="D102">
-        <v>0.1229</v>
+        <v>0.1211</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2557,13 +2557,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.2289</v>
+        <v>0.2269</v>
       </c>
       <c r="C103">
-        <v>0.1033</v>
+        <v>0.1031</v>
       </c>
       <c r="D103">
-        <v>0.1256</v>
+        <v>0.1238</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2571,13 +2571,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.2336</v>
+        <v>0.2316</v>
       </c>
       <c r="C104">
-        <v>0.1054</v>
+        <v>0.1052</v>
       </c>
       <c r="D104">
-        <v>0.1282</v>
+        <v>0.1264</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2585,13 +2585,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.2375</v>
+        <v>0.2355</v>
       </c>
       <c r="C105">
-        <v>0.1067</v>
+        <v>0.1065</v>
       </c>
       <c r="D105">
-        <v>0.1308</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2599,13 +2599,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.2406</v>
+        <v>0.2387</v>
       </c>
       <c r="C106">
-        <v>0.1073</v>
+        <v>0.1071</v>
       </c>
       <c r="D106">
-        <v>0.1333</v>
+        <v>0.1316</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2613,13 +2613,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.2437</v>
+        <v>0.2417</v>
       </c>
       <c r="C107">
-        <v>0.1078</v>
+        <v>0.1077</v>
       </c>
       <c r="D107">
-        <v>0.1358</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2627,13 +2627,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.2465</v>
+        <v>0.2446</v>
       </c>
       <c r="C108">
-        <v>0.1083</v>
+        <v>0.1081</v>
       </c>
       <c r="D108">
-        <v>0.1382</v>
+        <v>0.1364</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2641,13 +2641,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.2487</v>
+        <v>0.2468</v>
       </c>
       <c r="C109">
-        <v>0.1081</v>
+        <v>0.108</v>
       </c>
       <c r="D109">
-        <v>0.1406</v>
+        <v>0.1388</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2655,13 +2655,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.2506</v>
+        <v>0.2488</v>
       </c>
       <c r="C110">
-        <v>0.1076</v>
+        <v>0.1075</v>
       </c>
       <c r="D110">
-        <v>0.143</v>
+        <v>0.1412</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2669,13 +2669,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.2524</v>
+        <v>0.2506</v>
       </c>
       <c r="C111">
-        <v>0.107</v>
+        <v>0.1069</v>
       </c>
       <c r="D111">
-        <v>0.1454</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2683,13 +2683,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.2544</v>
+        <v>0.2526</v>
       </c>
       <c r="C112">
-        <v>0.1066</v>
+        <v>0.1065</v>
       </c>
       <c r="D112">
-        <v>0.1478</v>
+        <v>0.1461</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2697,13 +2697,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.2564</v>
+        <v>0.2546</v>
       </c>
       <c r="C113">
-        <v>0.1063</v>
+        <v>0.1062</v>
       </c>
       <c r="D113">
-        <v>0.1501</v>
+        <v>0.1484</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2711,13 +2711,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.2588</v>
+        <v>0.257</v>
       </c>
       <c r="C114">
-        <v>0.1062</v>
+        <v>0.1061</v>
       </c>
       <c r="D114">
-        <v>0.1526</v>
+        <v>0.1508</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2725,13 +2725,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.2614</v>
+        <v>0.2596</v>
       </c>
       <c r="C115">
-        <v>0.1065</v>
+        <v>0.1064</v>
       </c>
       <c r="D115">
-        <v>0.155</v>
+        <v>0.1532</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2739,13 +2739,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.2647</v>
+        <v>0.2629</v>
       </c>
       <c r="C116">
-        <v>0.1072</v>
+        <v>0.1071</v>
       </c>
       <c r="D116">
-        <v>0.1575</v>
+        <v>0.1557</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2753,13 +2753,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.268</v>
+        <v>0.2662</v>
       </c>
       <c r="C117">
         <v>0.108</v>
       </c>
       <c r="D117">
-        <v>0.16</v>
+        <v>0.1582</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2767,13 +2767,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.2709</v>
+        <v>0.2691</v>
       </c>
       <c r="C118">
         <v>0.1087</v>
       </c>
       <c r="D118">
-        <v>0.1622</v>
+        <v>0.1604</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2781,13 +2781,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.2729</v>
+        <v>0.271</v>
       </c>
       <c r="C119">
         <v>0.1085</v>
       </c>
       <c r="D119">
-        <v>0.1644</v>
+        <v>0.1626</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2795,13 +2795,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.275</v>
+        <v>0.2731</v>
       </c>
       <c r="C120">
-        <v>0.1084</v>
+        <v>0.1083</v>
       </c>
       <c r="D120">
-        <v>0.1666</v>
+        <v>0.1647</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2809,13 +2809,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.2773</v>
+        <v>0.2754</v>
       </c>
       <c r="C121">
         <v>0.1084</v>
       </c>
       <c r="D121">
-        <v>0.1689</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2823,13 +2823,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.28</v>
+        <v>0.2781</v>
       </c>
       <c r="C122">
-        <v>0.1088</v>
+        <v>0.1087</v>
       </c>
       <c r="D122">
-        <v>0.1713</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2837,13 +2837,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.2827</v>
+        <v>0.2808</v>
       </c>
       <c r="C123">
         <v>0.109</v>
       </c>
       <c r="D123">
-        <v>0.1738</v>
+        <v>0.1718</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2851,13 +2851,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.2851</v>
+        <v>0.2831</v>
       </c>
       <c r="C124">
         <v>0.1088</v>
       </c>
       <c r="D124">
-        <v>0.1762</v>
+        <v>0.1743</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2865,13 +2865,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.2882</v>
+        <v>0.2862</v>
       </c>
       <c r="C125">
         <v>0.1094</v>
       </c>
       <c r="D125">
-        <v>0.1788</v>
+        <v>0.1769</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2879,13 +2879,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.292</v>
+        <v>0.2901</v>
       </c>
       <c r="C126">
         <v>0.1105</v>
       </c>
       <c r="D126">
-        <v>0.1815</v>
+        <v>0.1795</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2893,13 +2893,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.296</v>
+        <v>0.2939</v>
       </c>
       <c r="C127">
-        <v>0.1116</v>
+        <v>0.1115</v>
       </c>
       <c r="D127">
-        <v>0.1844</v>
+        <v>0.1824</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2907,13 +2907,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3004</v>
+        <v>0.2983</v>
       </c>
       <c r="C128">
         <v>0.113</v>
       </c>
       <c r="D128">
-        <v>0.1874</v>
+        <v>0.1854</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2921,13 +2921,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3053</v>
+        <v>0.3032</v>
       </c>
       <c r="C129">
         <v>0.1148</v>
       </c>
       <c r="D129">
-        <v>0.1905</v>
+        <v>0.1884</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2935,13 +2935,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3103</v>
+        <v>0.3082</v>
       </c>
       <c r="C130">
-        <v>0.1168</v>
+        <v>0.1167</v>
       </c>
       <c r="D130">
-        <v>0.1936</v>
+        <v>0.1915</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2949,13 +2949,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.3153</v>
+        <v>0.3132</v>
       </c>
       <c r="C131">
         <v>0.1186</v>
       </c>
       <c r="D131">
-        <v>0.1967</v>
+        <v>0.1946</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2963,13 +2963,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.32</v>
+        <v>0.3178</v>
       </c>
       <c r="C132">
-        <v>0.1201</v>
+        <v>0.12</v>
       </c>
       <c r="D132">
-        <v>0.1999</v>
+        <v>0.1978</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2977,13 +2977,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.3251</v>
+        <v>0.3229</v>
       </c>
       <c r="C133">
-        <v>0.1219</v>
+        <v>0.1218</v>
       </c>
       <c r="D133">
-        <v>0.2032</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2991,13 +2991,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.33</v>
+        <v>0.3278</v>
       </c>
       <c r="C134">
-        <v>0.1236</v>
+        <v>0.1235</v>
       </c>
       <c r="D134">
-        <v>0.2064</v>
+        <v>0.2043</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3005,13 +3005,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.3354</v>
+        <v>0.3332</v>
       </c>
       <c r="C135">
         <v>0.1251</v>
       </c>
       <c r="D135">
-        <v>0.2103</v>
+        <v>0.2082</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3019,13 +3019,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.3408</v>
+        <v>0.3386</v>
       </c>
       <c r="C136">
-        <v>0.1262</v>
+        <v>0.1261</v>
       </c>
       <c r="D136">
-        <v>0.2146</v>
+        <v>0.2125</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3033,13 +3033,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.3467</v>
+        <v>0.3446</v>
       </c>
       <c r="C137">
-        <v>0.1274</v>
+        <v>0.1273</v>
       </c>
       <c r="D137">
-        <v>0.2193</v>
+        <v>0.2172</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3047,13 +3047,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.3525</v>
+        <v>0.3504</v>
       </c>
       <c r="C138">
-        <v>0.1284</v>
+        <v>0.1283</v>
       </c>
       <c r="D138">
-        <v>0.2241</v>
+        <v>0.2221</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3061,13 +3061,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.3588</v>
+        <v>0.3568</v>
       </c>
       <c r="C139">
-        <v>0.13</v>
+        <v>0.1299</v>
       </c>
       <c r="D139">
-        <v>0.2288</v>
+        <v>0.2269</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3075,13 +3075,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.3651</v>
+        <v>0.3631</v>
       </c>
       <c r="C140">
-        <v>0.1319</v>
+        <v>0.1318</v>
       </c>
       <c r="D140">
-        <v>0.2333</v>
+        <v>0.2314</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3089,13 +3089,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.371</v>
+        <v>0.3691</v>
       </c>
       <c r="C141">
-        <v>0.1335</v>
+        <v>0.1334</v>
       </c>
       <c r="D141">
-        <v>0.2375</v>
+        <v>0.2357</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3103,13 +3103,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.3772</v>
+        <v>0.3753</v>
       </c>
       <c r="C142">
-        <v>0.1355</v>
+        <v>0.1354</v>
       </c>
       <c r="D142">
-        <v>0.2416</v>
+        <v>0.2399</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3117,13 +3117,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.3829</v>
+        <v>0.381</v>
       </c>
       <c r="C143">
-        <v>0.1373</v>
+        <v>0.1372</v>
       </c>
       <c r="D143">
-        <v>0.2456</v>
+        <v>0.2439</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3131,13 +3131,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.3888</v>
+        <v>0.387</v>
       </c>
       <c r="C144">
-        <v>0.1393</v>
+        <v>0.1392</v>
       </c>
       <c r="D144">
-        <v>0.2495</v>
+        <v>0.2478</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3145,13 +3145,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.394</v>
+        <v>0.3922</v>
       </c>
       <c r="C145">
-        <v>0.1407</v>
+        <v>0.1406</v>
       </c>
       <c r="D145">
-        <v>0.2533</v>
+        <v>0.2517</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3159,13 +3159,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3985</v>
+        <v>0.3968</v>
       </c>
       <c r="C146">
-        <v>0.1416</v>
+        <v>0.1414</v>
       </c>
       <c r="D146">
-        <v>0.257</v>
+        <v>0.2554</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3173,13 +3173,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.4032</v>
+        <v>0.4016</v>
       </c>
       <c r="C147">
-        <v>0.1427</v>
+        <v>0.1425</v>
       </c>
       <c r="D147">
-        <v>0.2605</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3187,13 +3187,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.4075</v>
+        <v>0.406</v>
       </c>
       <c r="C148">
-        <v>0.1436</v>
+        <v>0.1435</v>
       </c>
       <c r="D148">
-        <v>0.2639</v>
+        <v>0.2624</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3201,13 +3201,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.4116</v>
+        <v>0.4101</v>
       </c>
       <c r="C149">
-        <v>0.1445</v>
+        <v>0.1444</v>
       </c>
       <c r="D149">
-        <v>0.2671</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3215,13 +3215,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.4152</v>
+        <v>0.4138</v>
       </c>
       <c r="C150">
-        <v>0.1453</v>
+        <v>0.1452</v>
       </c>
       <c r="D150">
-        <v>0.2699</v>
+        <v>0.2686</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3229,13 +3229,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.4187</v>
+        <v>0.4173</v>
       </c>
       <c r="C151">
-        <v>0.1462</v>
+        <v>0.1461</v>
       </c>
       <c r="D151">
-        <v>0.2725</v>
+        <v>0.2712</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3243,13 +3243,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.4216</v>
+        <v>0.4203</v>
       </c>
       <c r="C152">
-        <v>0.147</v>
+        <v>0.1469</v>
       </c>
       <c r="D152">
-        <v>0.2746</v>
+        <v>0.2733</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3257,13 +3257,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.4238</v>
+        <v>0.4226</v>
       </c>
       <c r="C153">
-        <v>0.1475</v>
+        <v>0.1474</v>
       </c>
       <c r="D153">
-        <v>0.2764</v>
+        <v>0.2752</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3271,13 +3271,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.4258</v>
+        <v>0.4245</v>
       </c>
       <c r="C154">
-        <v>0.148</v>
+        <v>0.1479</v>
       </c>
       <c r="D154">
-        <v>0.2778</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3285,13 +3285,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.4266</v>
+        <v>0.4254</v>
       </c>
       <c r="C155">
-        <v>0.1484</v>
+        <v>0.1483</v>
       </c>
       <c r="D155">
-        <v>0.2782</v>
+        <v>0.2771</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3299,13 +3299,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.427</v>
+        <v>0.4258</v>
       </c>
       <c r="C156">
-        <v>0.1492</v>
+        <v>0.1491</v>
       </c>
       <c r="D156">
-        <v>0.2779</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3313,13 +3313,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.4267</v>
+        <v>0.4255</v>
       </c>
       <c r="C157">
-        <v>0.1499</v>
+        <v>0.1498</v>
       </c>
       <c r="D157">
-        <v>0.2769</v>
+        <v>0.2757</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3327,13 +3327,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.426</v>
+        <v>0.4247</v>
       </c>
       <c r="C158">
-        <v>0.1507</v>
+        <v>0.1506</v>
       </c>
       <c r="D158">
-        <v>0.2753</v>
+        <v>0.2742</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3341,13 +3341,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.4246</v>
+        <v>0.4233</v>
       </c>
       <c r="C159">
         <v>0.1509</v>
       </c>
       <c r="D159">
-        <v>0.2736</v>
+        <v>0.2724</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3355,13 +3355,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.423</v>
+        <v>0.4218</v>
       </c>
       <c r="C160">
         <v>0.1511</v>
       </c>
       <c r="D160">
-        <v>0.2719</v>
+        <v>0.2707</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3369,13 +3369,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.4217</v>
+        <v>0.4203</v>
       </c>
       <c r="C161">
         <v>0.1515</v>
       </c>
       <c r="D161">
-        <v>0.2701</v>
+        <v>0.2689</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3383,13 +3383,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.4191</v>
+        <v>0.4178</v>
       </c>
       <c r="C162">
         <v>0.151</v>
       </c>
       <c r="D162">
-        <v>0.2681</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3397,13 +3397,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.418</v>
+        <v>0.4166</v>
       </c>
       <c r="C163">
         <v>0.1518</v>
       </c>
       <c r="D163">
-        <v>0.2661</v>
+        <v>0.2648</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3411,13 +3411,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.4166</v>
+        <v>0.4152</v>
       </c>
       <c r="C164">
-        <v>0.1526</v>
+        <v>0.1525</v>
       </c>
       <c r="D164">
-        <v>0.264</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3425,13 +3425,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.4155</v>
+        <v>0.4141</v>
       </c>
       <c r="C165">
-        <v>0.1536</v>
+        <v>0.1535</v>
       </c>
       <c r="D165">
-        <v>0.2619</v>
+        <v>0.2605</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3439,13 +3439,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.4144</v>
+        <v>0.4129</v>
       </c>
       <c r="C166">
-        <v>0.1548</v>
+        <v>0.1547</v>
       </c>
       <c r="D166">
-        <v>0.2597</v>
+        <v>0.2582</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3453,13 +3453,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.4141</v>
+        <v>0.4126</v>
       </c>
       <c r="C167">
-        <v>0.1566</v>
+        <v>0.1565</v>
       </c>
       <c r="D167">
-        <v>0.2576</v>
+        <v>0.2561</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3467,13 +3467,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.4148</v>
+        <v>0.4132</v>
       </c>
       <c r="C168">
-        <v>0.1594</v>
+        <v>0.1593</v>
       </c>
       <c r="D168">
-        <v>0.2554</v>
+        <v>0.2539</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3481,13 +3481,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.4149</v>
+        <v>0.4133</v>
       </c>
       <c r="C169">
-        <v>0.1617</v>
+        <v>0.1616</v>
       </c>
       <c r="D169">
-        <v>0.2532</v>
+        <v>0.2516</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3495,13 +3495,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.4146</v>
+        <v>0.413</v>
       </c>
       <c r="C170">
-        <v>0.1637</v>
+        <v>0.1636</v>
       </c>
       <c r="D170">
-        <v>0.251</v>
+        <v>0.2494</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3509,13 +3509,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.4142</v>
+        <v>0.4125</v>
       </c>
       <c r="C171">
-        <v>0.1655</v>
+        <v>0.1654</v>
       </c>
       <c r="D171">
-        <v>0.2488</v>
+        <v>0.2472</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3523,13 +3523,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.4143</v>
+        <v>0.4125</v>
       </c>
       <c r="C172">
-        <v>0.1674</v>
+        <v>0.1673</v>
       </c>
       <c r="D172">
-        <v>0.2469</v>
+        <v>0.2452</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3537,13 +3537,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.4143</v>
+        <v>0.4125</v>
       </c>
       <c r="C173">
-        <v>0.1692</v>
+        <v>0.1691</v>
       </c>
       <c r="D173">
-        <v>0.2451</v>
+        <v>0.2434</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3551,13 +3551,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.4136</v>
+        <v>0.4118</v>
       </c>
       <c r="C174">
-        <v>0.1704</v>
+        <v>0.1702</v>
       </c>
       <c r="D174">
-        <v>0.2432</v>
+        <v>0.2415</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3565,13 +3565,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.4128</v>
+        <v>0.411</v>
       </c>
       <c r="C175">
-        <v>0.1714</v>
+        <v>0.1713</v>
       </c>
       <c r="D175">
-        <v>0.2414</v>
+        <v>0.2397</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3579,13 +3579,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.412</v>
+        <v>0.4102</v>
       </c>
       <c r="C176">
-        <v>0.1724</v>
+        <v>0.1723</v>
       </c>
       <c r="D176">
-        <v>0.2396</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3593,13 +3593,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.4115</v>
+        <v>0.4097</v>
       </c>
       <c r="C177">
-        <v>0.1737</v>
+        <v>0.1736</v>
       </c>
       <c r="D177">
-        <v>0.2378</v>
+        <v>0.2361</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3607,13 +3607,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.4119</v>
+        <v>0.4101</v>
       </c>
       <c r="C178">
-        <v>0.1753</v>
+        <v>0.1752</v>
       </c>
       <c r="D178">
-        <v>0.2366</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3621,13 +3621,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.4127</v>
+        <v>0.4109</v>
       </c>
       <c r="C179">
-        <v>0.1769</v>
+        <v>0.1768</v>
       </c>
       <c r="D179">
-        <v>0.2358</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3635,13 +3635,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.4156</v>
+        <v>0.4137</v>
       </c>
       <c r="C180">
-        <v>0.1802</v>
+        <v>0.18</v>
       </c>
       <c r="D180">
-        <v>0.2354</v>
+        <v>0.2337</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3649,13 +3649,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.4178</v>
+        <v>0.4159</v>
       </c>
       <c r="C181">
-        <v>0.1828</v>
+        <v>0.1827</v>
       </c>
       <c r="D181">
-        <v>0.235</v>
+        <v>0.2333</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3663,13 +3663,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.4205</v>
+        <v>0.4187</v>
       </c>
       <c r="C182">
-        <v>0.1859</v>
+        <v>0.1858</v>
       </c>
       <c r="D182">
-        <v>0.2345</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3677,13 +3677,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.4222</v>
+        <v>0.4204</v>
       </c>
       <c r="C183">
-        <v>0.188</v>
+        <v>0.1878</v>
       </c>
       <c r="D183">
-        <v>0.2342</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3691,13 +3691,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.4238</v>
+        <v>0.4221</v>
       </c>
       <c r="C184">
-        <v>0.19</v>
+        <v>0.1898</v>
       </c>
       <c r="D184">
-        <v>0.2339</v>
+        <v>0.2323</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3705,13 +3705,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.4248</v>
+        <v>0.4231</v>
       </c>
       <c r="C185">
-        <v>0.1913</v>
+        <v>0.1912</v>
       </c>
       <c r="D185">
-        <v>0.2335</v>
+        <v>0.2319</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3719,13 +3719,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.4257</v>
+        <v>0.4241</v>
       </c>
       <c r="C186">
-        <v>0.1927</v>
+        <v>0.1925</v>
       </c>
       <c r="D186">
-        <v>0.233</v>
+        <v>0.2315</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3733,13 +3733,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.4258</v>
+        <v>0.4242</v>
       </c>
       <c r="C187">
-        <v>0.1934</v>
+        <v>0.1933</v>
       </c>
       <c r="D187">
-        <v>0.2324</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3747,13 +3747,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.4246</v>
+        <v>0.423</v>
       </c>
       <c r="C188">
-        <v>0.193</v>
+        <v>0.1929</v>
       </c>
       <c r="D188">
-        <v>0.2316</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3761,13 +3761,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.4239</v>
+        <v>0.4224</v>
       </c>
       <c r="C189">
-        <v>0.1928</v>
+        <v>0.1927</v>
       </c>
       <c r="D189">
-        <v>0.2311</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3775,13 +3775,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.4255</v>
+        <v>0.424</v>
       </c>
       <c r="C190">
-        <v>0.1946</v>
+        <v>0.1945</v>
       </c>
       <c r="D190">
-        <v>0.2309</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3789,13 +3789,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.4272</v>
+        <v>0.4258</v>
       </c>
       <c r="C191">
         <v>0.1962</v>
       </c>
       <c r="D191">
-        <v>0.231</v>
+        <v>0.2296</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3803,13 +3803,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.4283</v>
+        <v>0.4269</v>
       </c>
       <c r="C192">
-        <v>0.1977</v>
+        <v>0.1976</v>
       </c>
       <c r="D192">
-        <v>0.2306</v>
+        <v>0.2293</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3817,13 +3817,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.4297</v>
+        <v>0.4284</v>
       </c>
       <c r="C193">
-        <v>0.1996</v>
+        <v>0.1995</v>
       </c>
       <c r="D193">
-        <v>0.2301</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3831,13 +3831,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.4327</v>
+        <v>0.4314</v>
       </c>
       <c r="C194">
         <v>0.2028</v>
       </c>
       <c r="D194">
-        <v>0.2299</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3845,13 +3845,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.4353</v>
+        <v>0.4341</v>
       </c>
       <c r="C195">
         <v>0.2056</v>
       </c>
       <c r="D195">
-        <v>0.2296</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3859,13 +3859,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.4378</v>
+        <v>0.4366</v>
       </c>
       <c r="C196">
-        <v>0.2084</v>
+        <v>0.2083</v>
       </c>
       <c r="D196">
-        <v>0.2294</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3873,13 +3873,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.4406</v>
+        <v>0.4395</v>
       </c>
       <c r="C197">
         <v>0.211</v>
       </c>
       <c r="D197">
-        <v>0.2296</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3887,13 +3887,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="C198">
         <v>0.2134</v>
       </c>
       <c r="D198">
-        <v>0.2296</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3901,13 +3901,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.4451</v>
+        <v>0.4441</v>
       </c>
       <c r="C199">
         <v>0.2155</v>
       </c>
       <c r="D199">
-        <v>0.2296</v>
+        <v>0.2286</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3915,13 +3915,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.4449</v>
+        <v>0.4439</v>
       </c>
       <c r="C200">
         <v>0.2156</v>
       </c>
       <c r="D200">
-        <v>0.2292</v>
+        <v>0.2283</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3929,13 +3929,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.4449</v>
+        <v>0.444</v>
       </c>
       <c r="C201">
         <v>0.216</v>
       </c>
       <c r="D201">
-        <v>0.2289</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3943,13 +3943,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.4448</v>
+        <v>0.4439</v>
       </c>
       <c r="C202">
         <v>0.2162</v>
       </c>
       <c r="D202">
-        <v>0.2286</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3957,13 +3957,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.4446</v>
+        <v>0.4437</v>
       </c>
       <c r="C203">
-        <v>0.2164</v>
+        <v>0.2165</v>
       </c>
       <c r="D203">
-        <v>0.2282</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3971,13 +3971,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.4441</v>
+        <v>0.4433</v>
       </c>
       <c r="C204">
-        <v>0.2164</v>
+        <v>0.2165</v>
       </c>
       <c r="D204">
-        <v>0.2277</v>
+        <v>0.2268</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3985,13 +3985,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.4442</v>
+        <v>0.4435</v>
       </c>
       <c r="C205">
-        <v>0.2171</v>
+        <v>0.2172</v>
       </c>
       <c r="D205">
-        <v>0.2272</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3999,13 +3999,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.444</v>
+        <v>0.4433</v>
       </c>
       <c r="C206">
-        <v>0.2173</v>
+        <v>0.2174</v>
       </c>
       <c r="D206">
-        <v>0.2266</v>
+        <v>0.2258</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4013,13 +4013,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.4438</v>
+        <v>0.4431</v>
       </c>
       <c r="C207">
-        <v>0.2177</v>
+        <v>0.2178</v>
       </c>
       <c r="D207">
-        <v>0.2261</v>
+        <v>0.2253</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4027,13 +4027,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.4434</v>
+        <v>0.4427</v>
       </c>
       <c r="C208">
-        <v>0.2176</v>
+        <v>0.2177</v>
       </c>
       <c r="D208">
-        <v>0.2257</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4041,13 +4041,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.4448</v>
+        <v>0.4441</v>
       </c>
       <c r="C209">
-        <v>0.2193</v>
+        <v>0.2194</v>
       </c>
       <c r="D209">
-        <v>0.2254</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4055,13 +4055,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.4443</v>
+        <v>0.4436</v>
       </c>
       <c r="C210">
-        <v>0.2194</v>
+        <v>0.2195</v>
       </c>
       <c r="D210">
-        <v>0.2249</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4069,13 +4069,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.4436</v>
+        <v>0.4429</v>
       </c>
       <c r="C211">
-        <v>0.2191</v>
+        <v>0.2192</v>
       </c>
       <c r="D211">
-        <v>0.2244</v>
+        <v>0.2237</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4083,13 +4083,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.4431</v>
+        <v>0.4425</v>
       </c>
       <c r="C212">
-        <v>0.2189</v>
+        <v>0.219</v>
       </c>
       <c r="D212">
-        <v>0.2242</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4097,13 +4097,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.4429</v>
+        <v>0.4422</v>
       </c>
       <c r="C213">
-        <v>0.2186</v>
+        <v>0.2187</v>
       </c>
       <c r="D213">
-        <v>0.2242</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4111,13 +4111,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.4418</v>
+        <v>0.4411</v>
       </c>
       <c r="C214">
         <v>0.2176</v>
       </c>
       <c r="D214">
-        <v>0.2243</v>
+        <v>0.2235</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4125,13 +4125,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.4415</v>
+        <v>0.4408</v>
       </c>
       <c r="C215">
-        <v>0.2169</v>
+        <v>0.217</v>
       </c>
       <c r="D215">
-        <v>0.2246</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4139,13 +4139,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.4418</v>
+        <v>0.4411</v>
       </c>
       <c r="C216">
-        <v>0.2166</v>
+        <v>0.2167</v>
       </c>
       <c r="D216">
-        <v>0.2251</v>
+        <v>0.2244</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4153,13 +4153,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.4421</v>
+        <v>0.4414</v>
       </c>
       <c r="C217">
-        <v>0.2163</v>
+        <v>0.2164</v>
       </c>
       <c r="D217">
-        <v>0.2257</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4167,13 +4167,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.4425</v>
+        <v>0.4418</v>
       </c>
       <c r="C218">
-        <v>0.2163</v>
+        <v>0.2164</v>
       </c>
       <c r="D218">
-        <v>0.2262</v>
+        <v>0.2254</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4181,13 +4181,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.4423</v>
+        <v>0.4416</v>
       </c>
       <c r="C219">
         <v>0.216</v>
       </c>
       <c r="D219">
-        <v>0.2264</v>
+        <v>0.2256</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4195,13 +4195,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.4421</v>
+        <v>0.4414</v>
       </c>
       <c r="C220">
         <v>0.2156</v>
       </c>
       <c r="D220">
-        <v>0.2265</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4209,13 +4209,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.4426</v>
+        <v>0.4418</v>
       </c>
       <c r="C221">
         <v>0.2155</v>
       </c>
       <c r="D221">
-        <v>0.2271</v>
+        <v>0.2263</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4223,13 +4223,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.4435</v>
+        <v>0.4427</v>
       </c>
       <c r="C222">
         <v>0.2154</v>
       </c>
       <c r="D222">
-        <v>0.2281</v>
+        <v>0.2273</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4237,13 +4237,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.445</v>
+        <v>0.4442</v>
       </c>
       <c r="C223">
         <v>0.2156</v>
       </c>
       <c r="D223">
-        <v>0.2294</v>
+        <v>0.2285</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4251,13 +4251,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.4465</v>
+        <v>0.4457</v>
       </c>
       <c r="C224">
         <v>0.2159</v>
       </c>
       <c r="D224">
-        <v>0.2306</v>
+        <v>0.2297</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4265,13 +4265,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.4478</v>
+        <v>0.4469</v>
       </c>
       <c r="C225">
         <v>0.2161</v>
       </c>
       <c r="D225">
-        <v>0.2317</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4279,13 +4279,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.4491</v>
+        <v>0.4482</v>
       </c>
       <c r="C226">
         <v>0.2163</v>
       </c>
       <c r="D226">
-        <v>0.2327</v>
+        <v>0.2319</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4293,13 +4293,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.4504</v>
+        <v>0.4496</v>
       </c>
       <c r="C227">
         <v>0.2166</v>
       </c>
       <c r="D227">
-        <v>0.2338</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4307,13 +4307,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.4521</v>
+        <v>0.4512</v>
       </c>
       <c r="C228">
         <v>0.2173</v>
       </c>
       <c r="D228">
-        <v>0.2348</v>
+        <v>0.2339</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4321,13 +4321,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.4517</v>
+        <v>0.4508</v>
       </c>
       <c r="C229">
         <v>0.2162</v>
       </c>
       <c r="D229">
-        <v>0.2355</v>
+        <v>0.2346</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4335,13 +4335,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.451</v>
+        <v>0.4501</v>
       </c>
       <c r="C230">
         <v>0.2152</v>
       </c>
       <c r="D230">
-        <v>0.2358</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4349,13 +4349,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.4509</v>
+        <v>0.45</v>
       </c>
       <c r="C231">
         <v>0.2147</v>
       </c>
       <c r="D231">
-        <v>0.2362</v>
+        <v>0.2353</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4363,13 +4363,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.4504</v>
+        <v>0.4495</v>
       </c>
       <c r="C232">
         <v>0.2141</v>
       </c>
       <c r="D232">
-        <v>0.2363</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4377,13 +4377,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.4499</v>
+        <v>0.449</v>
       </c>
       <c r="C233">
         <v>0.2137</v>
       </c>
       <c r="D233">
-        <v>0.2362</v>
+        <v>0.2353</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4391,13 +4391,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.4495</v>
+        <v>0.4487</v>
       </c>
       <c r="C234">
-        <v>0.2132</v>
+        <v>0.2133</v>
       </c>
       <c r="D234">
-        <v>0.2363</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4405,13 +4405,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.4488</v>
+        <v>0.4479</v>
       </c>
       <c r="C235">
         <v>0.2125</v>
       </c>
       <c r="D235">
-        <v>0.2363</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4419,13 +4419,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.4479</v>
+        <v>0.447</v>
       </c>
       <c r="C236">
-        <v>0.2115</v>
+        <v>0.2116</v>
       </c>
       <c r="D236">
-        <v>0.2364</v>
+        <v>0.2355</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4433,13 +4433,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.4456</v>
+        <v>0.4447</v>
       </c>
       <c r="C237">
         <v>0.2098</v>
       </c>
       <c r="D237">
-        <v>0.2358</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4447,13 +4447,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.4425</v>
+        <v>0.4417</v>
       </c>
       <c r="C238">
         <v>0.2076</v>
       </c>
       <c r="D238">
-        <v>0.2349</v>
+        <v>0.2341</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4461,13 +4461,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.4396</v>
+        <v>0.4388</v>
       </c>
       <c r="C239">
-        <v>0.2057</v>
+        <v>0.2058</v>
       </c>
       <c r="D239">
-        <v>0.2339</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4475,13 +4475,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.4364</v>
+        <v>0.4356</v>
       </c>
       <c r="C240">
         <v>0.2038</v>
       </c>
       <c r="D240">
-        <v>0.2326</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4489,13 +4489,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.4323</v>
+        <v>0.4315</v>
       </c>
       <c r="C241">
         <v>0.2016</v>
       </c>
       <c r="D241">
-        <v>0.2308</v>
+        <v>0.2299</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4503,13 +4503,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.4283</v>
+        <v>0.4275</v>
       </c>
       <c r="C242">
-        <v>0.1997</v>
+        <v>0.1998</v>
       </c>
       <c r="D242">
-        <v>0.2286</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4517,13 +4517,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.4237</v>
+        <v>0.4229</v>
       </c>
       <c r="C243">
-        <v>0.1978</v>
+        <v>0.1979</v>
       </c>
       <c r="D243">
-        <v>0.2259</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4531,13 +4531,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.4193</v>
+        <v>0.4185</v>
       </c>
       <c r="C244">
-        <v>0.1958</v>
+        <v>0.1959</v>
       </c>
       <c r="D244">
-        <v>0.2235</v>
+        <v>0.2227</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4545,13 +4545,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.4157</v>
+        <v>0.4149</v>
       </c>
       <c r="C245">
-        <v>0.1942</v>
+        <v>0.1943</v>
       </c>
       <c r="D245">
-        <v>0.2215</v>
+        <v>0.2206</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4559,13 +4559,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.4129</v>
+        <v>0.4121</v>
       </c>
       <c r="C246">
         <v>0.1931</v>
       </c>
       <c r="D246">
-        <v>0.2198</v>
+        <v>0.219</v>
       </c>
     </row>
   </sheetData>
